--- a/BackTest/2019-10-17 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-17 BackTest LOOM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>26.16999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>14.285714285714</v>
+      </c>
       <c r="L13" t="n">
         <v>26.16999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>26.17999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>19.99999999999972</v>
+      </c>
       <c r="L15" t="n">
         <v>26.19999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>19.99999999999972</v>
+      </c>
       <c r="L16" t="n">
         <v>26.20999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.899999999999995</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-19.99999999999972</v>
+      </c>
       <c r="L17" t="n">
         <v>26.20999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.9999999999999964</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>26.18999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.099999999999998</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-14.285714285714</v>
+      </c>
       <c r="L19" t="n">
         <v>26.17999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.099999999999998</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-14.285714285714</v>
+      </c>
       <c r="L20" t="n">
         <v>26.16999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.099999999999998</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-59.99999999999943</v>
+      </c>
       <c r="L21" t="n">
         <v>26.16</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.099999999999998</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.33333333333254</v>
+      </c>
       <c r="L22" t="n">
         <v>26.13</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.099999999999998</v>
       </c>
       <c r="K23" t="n">
-        <v>-9.090909090908914</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L23" t="n">
         <v>26.12</v>
@@ -1466,7 +1488,7 @@
         <v>1.099999999999998</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L24" t="n">
         <v>26.11000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>1.199999999999996</v>
       </c>
       <c r="K25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>26.11000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>1.199999999999996</v>
       </c>
       <c r="K26" t="n">
-        <v>11.11111111111093</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L26" t="n">
         <v>26.11000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>1.199999999999996</v>
       </c>
       <c r="K27" t="n">
-        <v>11.11111111111093</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>26.12</v>
@@ -1662,7 +1684,7 @@
         <v>1.299999999999994</v>
       </c>
       <c r="K28" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>26.13000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>1.399999999999991</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>26.14</v>
@@ -1760,7 +1782,7 @@
         <v>1.499999999999989</v>
       </c>
       <c r="K30" t="n">
-        <v>-9.090909090908973</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>26.14</v>
@@ -1809,7 +1831,7 @@
         <v>1.599999999999987</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
         <v>26.15</v>
@@ -1860,7 +1882,7 @@
         <v>1.599999999999987</v>
       </c>
       <c r="K32" t="n">
-        <v>-20.00000000000014</v>
+        <v>20</v>
       </c>
       <c r="L32" t="n">
         <v>26.16</v>
@@ -1911,7 +1933,7 @@
         <v>1.599999999999987</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L33" t="n">
         <v>26.16999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>1.899999999999988</v>
       </c>
       <c r="K34" t="n">
-        <v>-27.27272727272756</v>
+        <v>-42.85714285714344</v>
       </c>
       <c r="L34" t="n">
         <v>26.14999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>2.29999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>6.666666666666793</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L35" t="n">
         <v>26.15999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>2.699999999999992</v>
       </c>
       <c r="K36" t="n">
-        <v>-15.78947368421061</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L36" t="n">
         <v>26.12999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>2.699999999999992</v>
       </c>
       <c r="K37" t="n">
-        <v>-11.11111111111129</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L37" t="n">
         <v>26.09999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>2.699999999999992</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.882352941176569</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L38" t="n">
         <v>26.07999999999998</v>
@@ -2217,7 +2239,7 @@
         <v>2.79999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>-17.64705882352953</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L39" t="n">
         <v>26.03999999999998</v>
@@ -2268,7 +2290,7 @@
         <v>2.79999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>-17.64705882352953</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L40" t="n">
         <v>26.00999999999998</v>
@@ -2319,7 +2341,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K41" t="n">
-        <v>4.761904761904681</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>26.00999999999998</v>
@@ -2370,7 +2392,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K42" t="n">
-        <v>4.761904761904681</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>26.00999999999998</v>
@@ -2421,7 +2443,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K43" t="n">
-        <v>4.761904761904681</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L43" t="n">
         <v>26.00999999999998</v>
@@ -2472,7 +2494,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K44" t="n">
-        <v>4.761904761904681</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L44" t="n">
         <v>26.03999999999998</v>
@@ -2523,7 +2545,7 @@
         <v>3.29999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>4.761904761904842</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L45" t="n">
         <v>26.03999999999998</v>
@@ -2574,7 +2596,7 @@
         <v>3.79999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>-15.38461538461536</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L46" t="n">
         <v>26.02999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>4.199999999999989</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="L47" t="n">
         <v>26.05999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>4.29999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>6.666666666666651</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>26.09999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>4.399999999999988</v>
       </c>
       <c r="K49" t="n">
-        <v>6.666666666666651</v>
+        <v>37.49999999999991</v>
       </c>
       <c r="L49" t="n">
         <v>26.15999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>4.599999999999987</v>
       </c>
       <c r="K50" t="n">
-        <v>3.225806451612836</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>26.19999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>4.699999999999989</v>
       </c>
       <c r="K52" t="n">
-        <v>3.225806451612947</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L52" t="n">
         <v>26.20999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>4.699999999999989</v>
       </c>
       <c r="K53" t="n">
-        <v>3.225806451612947</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L53" t="n">
         <v>26.21999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>5.099999999999987</v>
       </c>
       <c r="K54" t="n">
-        <v>25.00000000000003</v>
+        <v>22.22222222222218</v>
       </c>
       <c r="L54" t="n">
         <v>26.26999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>5.299999999999986</v>
       </c>
       <c r="K55" t="n">
-        <v>6.666666666666651</v>
+        <v>46.66666666666673</v>
       </c>
       <c r="L55" t="n">
         <v>26.28999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>5.699999999999985</v>
       </c>
       <c r="K56" t="n">
-        <v>6.666666666666778</v>
+        <v>-6.66666666666654</v>
       </c>
       <c r="L56" t="n">
         <v>26.31999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>5.699999999999985</v>
       </c>
       <c r="K57" t="n">
-        <v>6.666666666666778</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L57" t="n">
         <v>26.31</v>
@@ -3186,7 +3208,7 @@
         <v>5.999999999999982</v>
       </c>
       <c r="K58" t="n">
-        <v>15.1515151515152</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>26.31999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>5.999999999999982</v>
       </c>
       <c r="K59" t="n">
-        <v>18.74999999999998</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L59" t="n">
         <v>26.31999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>6.199999999999982</v>
       </c>
       <c r="K60" t="n">
-        <v>11.76470588235293</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>26.31999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>6.199999999999982</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L61" t="n">
         <v>26.31999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>6.199999999999982</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L62" t="n">
         <v>26.30999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>6.199999999999982</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L63" t="n">
         <v>26.29999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>6.399999999999981</v>
       </c>
       <c r="K64" t="n">
-        <v>-6.249999999999993</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L64" t="n">
         <v>26.22999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>6.59999999999998</v>
       </c>
       <c r="K65" t="n">
-        <v>-3.030303030303082</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L65" t="n">
         <v>26.19999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>6.59999999999998</v>
       </c>
       <c r="K66" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L66" t="n">
         <v>26.20999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>6.59999999999998</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>26.21999999999998</v>
@@ -3696,7 +3718,7 @@
         <v>6.59999999999998</v>
       </c>
       <c r="K68" t="n">
-        <v>-4.347826086956602</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>26.19999999999998</v>
@@ -3747,7 +3769,7 @@
         <v>6.899999999999981</v>
       </c>
       <c r="K69" t="n">
-        <v>-20.00000000000006</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L69" t="n">
         <v>26.14999999999998</v>
@@ -3900,7 +3922,7 @@
         <v>7.199999999999982</v>
       </c>
       <c r="K72" t="n">
-        <v>-4.000000000000068</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>26.14999999999998</v>
@@ -3951,7 +3973,7 @@
         <v>7.299999999999979</v>
       </c>
       <c r="K73" t="n">
-        <v>-7.692307692307693</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L73" t="n">
         <v>26.13999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>7.499999999999982</v>
       </c>
       <c r="K74" t="n">
-        <v>-33.33333333333343</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>26.12999999999998</v>
@@ -4053,7 +4075,7 @@
         <v>7.799999999999983</v>
       </c>
       <c r="K75" t="n">
-        <v>-12.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>26.12999999999998</v>
@@ -4104,7 +4126,7 @@
         <v>7.899999999999981</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L76" t="n">
         <v>26.11999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>7.999999999999979</v>
       </c>
       <c r="K77" t="n">
-        <v>4.347826086956442</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>26.11999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>8.199999999999978</v>
       </c>
       <c r="K78" t="n">
-        <v>-18.18181818181815</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L78" t="n">
         <v>26.09999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>8.499999999999979</v>
       </c>
       <c r="K79" t="n">
-        <v>-3.99999999999992</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L79" t="n">
         <v>26.13999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>8.799999999999979</v>
       </c>
       <c r="K80" t="n">
-        <v>-7.692307692307672</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L80" t="n">
         <v>26.11999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>8.999999999999979</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L82" t="n">
         <v>26.11999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>8.999999999999979</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="L83" t="n">
         <v>26.12999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>9.199999999999978</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L84" t="n">
         <v>26.13999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>9.399999999999977</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>6.66666666666654</v>
       </c>
       <c r="L85" t="n">
         <v>26.13999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>9.399999999999977</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L87" t="n">
         <v>26.14999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>9.399999999999977</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L88" t="n">
         <v>26.16999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>9.399999999999977</v>
       </c>
       <c r="K89" t="n">
-        <v>12.00000000000005</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>26.15999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>9.499999999999979</v>
       </c>
       <c r="K91" t="n">
-        <v>4.347826086956589</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L91" t="n">
         <v>26.18999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>9.499999999999979</v>
       </c>
       <c r="K92" t="n">
-        <v>4.347826086956589</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L92" t="n">
         <v>26.19999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>9.599999999999977</v>
       </c>
       <c r="K93" t="n">
-        <v>13.04347826086946</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
         <v>26.21999999999999</v>
@@ -5022,7 +5044,7 @@
         <v>9.699999999999978</v>
       </c>
       <c r="K94" t="n">
-        <v>27.27272727272739</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
         <v>26.26999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>9.699999999999978</v>
       </c>
       <c r="K95" t="n">
-        <v>15.78947368421061</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
         <v>26.29999999999999</v>
@@ -5124,7 +5146,7 @@
         <v>9.899999999999977</v>
       </c>
       <c r="K96" t="n">
-        <v>29.99999999999995</v>
+        <v>100</v>
       </c>
       <c r="L96" t="n">
         <v>26.34999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>10.09999999999998</v>
       </c>
       <c r="K97" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L97" t="n">
         <v>26.41999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>10.39999999999998</v>
       </c>
       <c r="K98" t="n">
-        <v>54.54545454545453</v>
+        <v>100</v>
       </c>
       <c r="L98" t="n">
         <v>26.51999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>10.49999999999998</v>
       </c>
       <c r="K99" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L99" t="n">
         <v>26.62999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>10.49999999999998</v>
       </c>
       <c r="K100" t="n">
-        <v>76.47058823529419</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
         <v>26.73999999999999</v>
@@ -5379,7 +5401,7 @@
         <v>10.59999999999998</v>
       </c>
       <c r="K101" t="n">
-        <v>75.00000000000006</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
         <v>26.84999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>10.59999999999998</v>
       </c>
       <c r="K102" t="n">
-        <v>75.00000000000006</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
         <v>26.95999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>10.59999999999998</v>
       </c>
       <c r="K103" t="n">
-        <v>75.00000000000006</v>
+        <v>100</v>
       </c>
       <c r="L103" t="n">
         <v>27.05999999999998</v>
@@ -5736,7 +5758,7 @@
         <v>10.89999999999998</v>
       </c>
       <c r="K108" t="n">
-        <v>73.33333333333343</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>27.40999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>10.99999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>75.00000000000006</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L109" t="n">
         <v>27.41999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>11.09999999999998</v>
       </c>
       <c r="K110" t="n">
-        <v>76.47058823529419</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L110" t="n">
         <v>27.43999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>11.09999999999998</v>
       </c>
       <c r="K111" t="n">
-        <v>75.00000000000006</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L111" t="n">
         <v>27.44999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>11.09999999999998</v>
       </c>
       <c r="K112" t="n">
-        <v>75.00000000000006</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L112" t="n">
         <v>27.45999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>11.09999999999998</v>
       </c>
       <c r="K113" t="n">
-        <v>73.33333333333343</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>27.46999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>11.19999999999998</v>
       </c>
       <c r="K114" t="n">
-        <v>59.99999999999991</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L114" t="n">
         <v>27.45999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>11.39999999999998</v>
       </c>
       <c r="K115" t="n">
-        <v>64.70588235294115</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L115" t="n">
         <v>27.46999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>11.39999999999998</v>
       </c>
       <c r="K116" t="n">
-        <v>60</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L116" t="n">
         <v>27.48</v>
@@ -6195,7 +6217,7 @@
         <v>11.39999999999998</v>
       </c>
       <c r="K117" t="n">
-        <v>53.84615384615389</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L117" t="n">
         <v>27.49</v>
@@ -6246,7 +6268,7 @@
         <v>11.49999999999998</v>
       </c>
       <c r="K118" t="n">
-        <v>45.4545454545454</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L118" t="n">
         <v>27.52999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>11.59999999999998</v>
       </c>
       <c r="K119" t="n">
-        <v>45.4545454545454</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L119" t="n">
         <v>27.57</v>
@@ -6348,7 +6370,7 @@
         <v>11.59999999999998</v>
       </c>
       <c r="K120" t="n">
-        <v>45.4545454545454</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L120" t="n">
         <v>27.6</v>
@@ -6399,7 +6421,7 @@
         <v>11.89999999999998</v>
       </c>
       <c r="K121" t="n">
-        <v>7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>27.6</v>
@@ -6450,7 +6472,7 @@
         <v>11.99999999999998</v>
       </c>
       <c r="K122" t="n">
-        <v>14.28571428571443</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L122" t="n">
         <v>27.61</v>
@@ -6501,7 +6523,7 @@
         <v>11.99999999999998</v>
       </c>
       <c r="K123" t="n">
-        <v>14.28571428571443</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L123" t="n">
         <v>27.62</v>
@@ -6552,7 +6574,7 @@
         <v>11.99999999999998</v>
       </c>
       <c r="K124" t="n">
-        <v>7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>27.64000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L125" t="n">
         <v>27.63000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L126" t="n">
         <v>27.62</v>
@@ -6705,7 +6727,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L127" t="n">
         <v>27.61</v>
@@ -6756,7 +6778,7 @@
         <v>12.19999999999999</v>
       </c>
       <c r="K128" t="n">
-        <v>23.07692307692299</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L128" t="n">
         <v>27.6</v>
@@ -6807,7 +6829,7 @@
         <v>12.39999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L129" t="n">
         <v>27.56</v>
@@ -6858,7 +6880,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>6.666666666666698</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L130" t="n">
         <v>27.54</v>
@@ -6909,7 +6931,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>6.666666666666698</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>27.55</v>
@@ -6960,7 +6982,7 @@
         <v>12.79999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>-5.882352941176496</v>
+        <v>-25</v>
       </c>
       <c r="L132" t="n">
         <v>27.53</v>
@@ -7011,7 +7033,7 @@
         <v>13</v>
       </c>
       <c r="K133" t="n">
-        <v>5.263157894736862</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>27.53</v>
@@ -7062,7 +7084,7 @@
         <v>13</v>
       </c>
       <c r="K134" t="n">
-        <v>11.11111111111116</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L134" t="n">
         <v>27.53</v>
@@ -7113,7 +7135,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>5.882352941176299</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L135" t="n">
         <v>27.55</v>
@@ -7164,7 +7186,7 @@
         <v>13.19999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L136" t="n">
         <v>27.56</v>
@@ -7215,7 +7237,7 @@
         <v>13.39999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>9.999999999999911</v>
+        <v>16.66666666666652</v>
       </c>
       <c r="L137" t="n">
         <v>27.59</v>
@@ -7266,7 +7288,7 @@
         <v>13.39999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>5.263157894736882</v>
+        <v>40.00000000000007</v>
       </c>
       <c r="L138" t="n">
         <v>27.61</v>
@@ -7317,7 +7339,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>-5.263157894736882</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L139" t="n">
         <v>27.64</v>
@@ -7368,7 +7390,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>-9.999999999999911</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>27.64</v>
@@ -7419,7 +7441,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>5.88235294117652</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L141" t="n">
         <v>27.64</v>
@@ -7470,7 +7492,7 @@
         <v>13.69999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>-5.88235294117652</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L142" t="n">
         <v>27.65000000000001</v>
@@ -7521,7 +7543,7 @@
         <v>13.69999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>-5.88235294117652</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L143" t="n">
         <v>27.64</v>
@@ -7572,7 +7594,7 @@
         <v>13.89999999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>5.263157894736705</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>27.65</v>
@@ -7623,7 +7645,7 @@
         <v>14.19999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>-4.76190476190481</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L145" t="n">
         <v>27.62</v>
@@ -7674,7 +7696,7 @@
         <v>14.4</v>
       </c>
       <c r="K146" t="n">
-        <v>4.347826086956561</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L146" t="n">
         <v>27.62</v>
@@ -7725,7 +7747,7 @@
         <v>14.4</v>
       </c>
       <c r="K147" t="n">
-        <v>4.347826086956561</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L147" t="n">
         <v>27.6</v>
@@ -7776,7 +7798,7 @@
         <v>14.6</v>
       </c>
       <c r="K148" t="n">
-        <v>-8.333333333333409</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L148" t="n">
         <v>27.56</v>
@@ -7827,7 +7849,7 @@
         <v>14.6</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L149" t="n">
         <v>27.52999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>14.6</v>
       </c>
       <c r="K150" t="n">
-        <v>-10.00000000000011</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L150" t="n">
         <v>27.50999999999999</v>
@@ -7929,7 +7951,7 @@
         <v>14.8</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L151" t="n">
         <v>27.50999999999999</v>
@@ -7980,7 +8002,7 @@
         <v>14.9</v>
       </c>
       <c r="K152" t="n">
-        <v>4.76190476190481</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>27.50999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>15</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>-9.090909090908797</v>
       </c>
       <c r="L153" t="n">
         <v>27.51999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>15</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L154" t="n">
         <v>27.51</v>
@@ -8133,7 +8155,7 @@
         <v>15.1</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="L155" t="n">
         <v>27.54</v>
@@ -8184,7 +8206,7 @@
         <v>15.1</v>
       </c>
       <c r="K156" t="n">
-        <v>5.263157894736705</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="L156" t="n">
         <v>27.54999999999999</v>
@@ -8235,7 +8257,7 @@
         <v>15.3</v>
       </c>
       <c r="K157" t="n">
-        <v>-15.78947368421049</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L157" t="n">
         <v>27.53999999999999</v>
@@ -8286,7 +8308,7 @@
         <v>15.5</v>
       </c>
       <c r="K158" t="n">
-        <v>-4.76190476190481</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>27.56999999999999</v>
@@ -8337,7 +8359,7 @@
         <v>15.5</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>27.59999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>15.7</v>
       </c>
       <c r="K160" t="n">
-        <v>14.28571428571409</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L160" t="n">
         <v>27.65</v>
@@ -8439,7 +8461,7 @@
         <v>15.7</v>
       </c>
       <c r="K161" t="n">
-        <v>14.28571428571409</v>
+        <v>50</v>
       </c>
       <c r="L161" t="n">
         <v>27.67999999999999</v>
@@ -8490,7 +8512,7 @@
         <v>15.7</v>
       </c>
       <c r="K162" t="n">
-        <v>19.99999999999986</v>
+        <v>42.85714285714271</v>
       </c>
       <c r="L162" t="n">
         <v>27.71999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>15.7</v>
       </c>
       <c r="K163" t="n">
-        <v>19.99999999999986</v>
+        <v>42.85714285714271</v>
       </c>
       <c r="L163" t="n">
         <v>27.74999999999998</v>
@@ -8592,7 +8614,7 @@
         <v>16</v>
       </c>
       <c r="K164" t="n">
-        <v>-4.761904761904649</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L164" t="n">
         <v>27.74999999999998</v>

--- a/BackTest/2019-10-17 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-17 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S164"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.09999999999999787</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +591,19 @@
         <v>26.04666666666665</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>26.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>26.1</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +630,23 @@
         <v>26.05166666666665</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +673,23 @@
         <v>26.06333333333332</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +716,23 @@
         <v>26.07333333333332</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +759,23 @@
         <v>26.07833333333332</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +802,23 @@
         <v>26.08333333333332</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +845,23 @@
         <v>26.09166666666665</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5999999999999979</v>
+        <v>26.4</v>
       </c>
       <c r="K12" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L12" t="n">
-        <v>26.16999999999999</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -961,22 +893,16 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.7999999999999972</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>14.285714285714</v>
-      </c>
-      <c r="L13" t="n">
-        <v>26.16999999999999</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,22 +934,16 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.7999999999999972</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L14" t="n">
-        <v>26.17999999999999</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1055,22 +975,16 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.7999999999999972</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L15" t="n">
-        <v>26.19999999999999</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1102,22 +1016,16 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.7999999999999972</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L16" t="n">
-        <v>26.20999999999999</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +1055,18 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.899999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>-19.99999999999972</v>
-      </c>
-      <c r="L17" t="n">
-        <v>26.20999999999999</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1096,18 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.9999999999999964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L18" t="n">
-        <v>26.18999999999999</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1137,18 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.099999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>-14.285714285714</v>
-      </c>
-      <c r="L19" t="n">
-        <v>26.17999999999999</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1175,23 @@
         <v>26.12666666666665</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.099999999999998</v>
+        <v>26.1</v>
       </c>
       <c r="K20" t="n">
-        <v>-14.285714285714</v>
-      </c>
-      <c r="L20" t="n">
-        <v>26.16999999999999</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1218,23 @@
         <v>26.13333333333332</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.099999999999998</v>
+        <v>26.1</v>
       </c>
       <c r="K21" t="n">
-        <v>-59.99999999999943</v>
-      </c>
-      <c r="L21" t="n">
-        <v>26.16</v>
+        <v>26.1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>26.15499999999999</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1261,23 @@
         <v>26.13999999999998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.099999999999998</v>
+        <v>26.1</v>
       </c>
       <c r="K22" t="n">
-        <v>-33.33333333333254</v>
-      </c>
-      <c r="L22" t="n">
-        <v>26.13</v>
+        <v>26.1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1304,23 @@
         <v>26.14666666666665</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.099999999999998</v>
+        <v>26.1</v>
       </c>
       <c r="K23" t="n">
-        <v>-33.33333333333254</v>
-      </c>
-      <c r="L23" t="n">
-        <v>26.12</v>
+        <v>26.1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>26.14499999999999</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1347,23 @@
         <v>26.15333333333331</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.099999999999998</v>
+        <v>26.1</v>
       </c>
       <c r="K24" t="n">
-        <v>-33.33333333333254</v>
-      </c>
-      <c r="L24" t="n">
-        <v>26.11000000000001</v>
+        <v>26.1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>26.14499999999999</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1390,23 @@
         <v>26.15999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.199999999999996</v>
+        <v>26.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>26.11000000000001</v>
+        <v>26.1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>26.15499999999999</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1433,23 @@
         <v>26.16666666666665</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.199999999999996</v>
+        <v>26.2</v>
       </c>
       <c r="K26" t="n">
-        <v>33.33333333333254</v>
-      </c>
-      <c r="L26" t="n">
-        <v>26.11000000000001</v>
+        <v>26.1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1476,23 @@
         <v>26.17333333333331</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.199999999999996</v>
+        <v>26.2</v>
       </c>
       <c r="K27" t="n">
-        <v>100</v>
-      </c>
-      <c r="L27" t="n">
-        <v>26.12</v>
+        <v>26.1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>26.165</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1519,23 @@
         <v>26.17833333333332</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.299999999999994</v>
+        <v>26.1</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>26.13000000000001</v>
+        <v>26.1</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1729,24 +1567,16 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.399999999999991</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>26.14</v>
+        <v>26.1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1603,23 @@
         <v>26.18333333333332</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.499999999999989</v>
+        <v>26.1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>26.14</v>
+        <v>26.1</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>26.15499999999999</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1646,23 @@
         <v>26.18666666666665</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.599999999999987</v>
+        <v>26.2</v>
       </c>
       <c r="K31" t="n">
-        <v>20</v>
-      </c>
-      <c r="L31" t="n">
-        <v>26.15</v>
+        <v>26.1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>26.15499999999999</v>
-      </c>
-      <c r="N31" t="n">
-        <v>26.15333333333334</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1689,23 @@
         <v>26.18999999999998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.599999999999987</v>
+        <v>26.2</v>
       </c>
       <c r="K32" t="n">
-        <v>20</v>
-      </c>
-      <c r="L32" t="n">
-        <v>26.16</v>
+        <v>26.1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>26.145</v>
-      </c>
-      <c r="N32" t="n">
-        <v>26.15333333333334</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1732,23 @@
         <v>26.18999999999998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.599999999999987</v>
+        <v>26.2</v>
       </c>
       <c r="K33" t="n">
-        <v>20</v>
-      </c>
-      <c r="L33" t="n">
-        <v>26.16999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>26.145</v>
-      </c>
-      <c r="N33" t="n">
-        <v>26.15333333333334</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1778,18 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.899999999999988</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>-42.85714285714344</v>
-      </c>
-      <c r="L34" t="n">
-        <v>26.14999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="N34" t="n">
-        <v>26.14666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1819,18 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.29999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>9.090909090909268</v>
-      </c>
-      <c r="L35" t="n">
-        <v>26.15999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>26.13499999999999</v>
-      </c>
-      <c r="N35" t="n">
-        <v>26.15666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1857,23 @@
         <v>26.17499999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.699999999999992</v>
+        <v>25.9</v>
       </c>
       <c r="K36" t="n">
-        <v>-20.0000000000001</v>
-      </c>
-      <c r="L36" t="n">
-        <v>26.12999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>26.11999999999999</v>
-      </c>
-      <c r="N36" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1903,18 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.699999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>-14.2857142857145</v>
-      </c>
-      <c r="L37" t="n">
-        <v>26.09999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>26.10999999999999</v>
-      </c>
-      <c r="N37" t="n">
-        <v>26.14333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,31 +1941,23 @@
         <v>26.16499999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.699999999999992</v>
+        <v>25.9</v>
       </c>
       <c r="K38" t="n">
-        <v>-23.07692307692312</v>
-      </c>
-      <c r="L38" t="n">
-        <v>26.07999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>26.10499999999998</v>
-      </c>
-      <c r="N38" t="n">
-        <v>26.13333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,31 +1984,23 @@
         <v>26.15833333333332</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.79999999999999</v>
+        <v>25.9</v>
       </c>
       <c r="K39" t="n">
-        <v>-23.07692307692312</v>
-      </c>
-      <c r="L39" t="n">
-        <v>26.03999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>26.08999999999998</v>
-      </c>
-      <c r="N39" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,31 +2027,23 @@
         <v>26.15166666666665</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.79999999999999</v>
+        <v>25.8</v>
       </c>
       <c r="K40" t="n">
-        <v>-33.33333333333314</v>
-      </c>
-      <c r="L40" t="n">
-        <v>26.00999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>26.07499999999998</v>
-      </c>
-      <c r="N40" t="n">
-        <v>26.10666666666666</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,31 +2070,23 @@
         <v>26.15166666666665</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.199999999999989</v>
+        <v>26.2</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>26.00999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>26.07999999999998</v>
-      </c>
-      <c r="N41" t="n">
-        <v>26.10666666666666</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,31 +2113,23 @@
         <v>26.15166666666665</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.199999999999989</v>
+        <v>26.2</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>26.00999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>26.08499999999998</v>
-      </c>
-      <c r="N42" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,31 +2156,23 @@
         <v>26.15333333333332</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.199999999999989</v>
+        <v>26.2</v>
       </c>
       <c r="K43" t="n">
-        <v>23.07692307692312</v>
-      </c>
-      <c r="L43" t="n">
-        <v>26.00999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>26.08999999999998</v>
-      </c>
-      <c r="N43" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2485,31 +2199,23 @@
         <v>26.15499999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.199999999999989</v>
+        <v>26.1</v>
       </c>
       <c r="K44" t="n">
-        <v>-11.11111111111129</v>
-      </c>
-      <c r="L44" t="n">
-        <v>26.03999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>26.09499999999998</v>
-      </c>
-      <c r="N44" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,31 +2242,23 @@
         <v>26.15833333333332</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.29999999999999</v>
+        <v>26.2</v>
       </c>
       <c r="K45" t="n">
-        <v>66.66666666666727</v>
-      </c>
-      <c r="L45" t="n">
-        <v>26.03999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>26.09999999999998</v>
-      </c>
-      <c r="N45" t="n">
-        <v>26.10333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,31 +2285,23 @@
         <v>26.14833333333332</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.79999999999999</v>
+        <v>26.3</v>
       </c>
       <c r="K46" t="n">
-        <v>-9.090909090908914</v>
-      </c>
-      <c r="L46" t="n">
-        <v>26.02999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>26.07999999999997</v>
-      </c>
-      <c r="N46" t="n">
-        <v>26.08999999999999</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,31 +2328,23 @@
         <v>26.14499999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>4.199999999999989</v>
+        <v>26.2</v>
       </c>
       <c r="K47" t="n">
-        <v>20.0000000000001</v>
-      </c>
-      <c r="L47" t="n">
-        <v>26.05999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>26.07999999999997</v>
-      </c>
-      <c r="N47" t="n">
-        <v>26.09333333333332</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,31 +2371,23 @@
         <v>26.14333333333332</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>4.29999999999999</v>
+        <v>26.2</v>
       </c>
       <c r="K48" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L48" t="n">
-        <v>26.09999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>26.08999999999997</v>
-      </c>
-      <c r="N48" t="n">
-        <v>26.10333333333332</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,31 +2414,23 @@
         <v>26.14666666666665</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>4.399999999999988</v>
+        <v>26.3</v>
       </c>
       <c r="K49" t="n">
-        <v>37.49999999999991</v>
-      </c>
-      <c r="L49" t="n">
-        <v>26.15999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>26.09999999999997</v>
-      </c>
-      <c r="N49" t="n">
-        <v>26.11333333333332</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2796,26 +2462,16 @@
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>4.599999999999987</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>26.19999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>26.10499999999997</v>
-      </c>
-      <c r="N50" t="n">
-        <v>26.11666666666666</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2847,26 +2503,16 @@
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>4.599999999999987</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>26.19999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>26.10499999999997</v>
-      </c>
-      <c r="N51" t="n">
-        <v>26.11999999999999</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2542,18 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4.699999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>6.666666666666761</v>
-      </c>
-      <c r="L52" t="n">
-        <v>26.20999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>26.10999999999996</v>
-      </c>
-      <c r="N52" t="n">
-        <v>26.12666666666665</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2583,18 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4.699999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>6.666666666666761</v>
-      </c>
-      <c r="L53" t="n">
-        <v>26.21999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>26.11499999999996</v>
-      </c>
-      <c r="N53" t="n">
-        <v>26.13333333333332</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2624,18 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5.099999999999987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>22.22222222222218</v>
-      </c>
-      <c r="L54" t="n">
-        <v>26.26999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>26.15499999999996</v>
-      </c>
-      <c r="N54" t="n">
-        <v>26.15333333333332</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2665,18 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5.299999999999986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>46.66666666666673</v>
-      </c>
-      <c r="L55" t="n">
-        <v>26.28999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>26.16499999999996</v>
-      </c>
-      <c r="N55" t="n">
-        <v>26.16333333333332</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2706,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5.699999999999985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>-6.66666666666654</v>
-      </c>
-      <c r="L56" t="n">
-        <v>26.31999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>26.17499999999997</v>
-      </c>
-      <c r="N56" t="n">
-        <v>26.15999999999998</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2747,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5.699999999999985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L57" t="n">
-        <v>26.31</v>
+        <v>26.1</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>26.18499999999997</v>
-      </c>
-      <c r="N57" t="n">
-        <v>26.15666666666665</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2788,18 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5.999999999999982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>26.31999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>26.20999999999997</v>
-      </c>
-      <c r="N58" t="n">
-        <v>26.16666666666665</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2829,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J59" t="n">
-        <v>5.999999999999982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L59" t="n">
-        <v>26.31999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>26.23999999999997</v>
-      </c>
-      <c r="N59" t="n">
-        <v>26.17333333333331</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,26 +2872,16 @@
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>6.199999999999982</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>26.31999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>26.25999999999997</v>
-      </c>
-      <c r="N60" t="n">
-        <v>26.17666666666664</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3357,26 +2913,16 @@
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>6.199999999999982</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>-6.666666666666793</v>
-      </c>
-      <c r="L61" t="n">
-        <v>26.31999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>26.25999999999997</v>
-      </c>
-      <c r="N61" t="n">
-        <v>26.17666666666664</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,26 +2954,16 @@
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>6.199999999999982</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>-6.666666666666793</v>
-      </c>
-      <c r="L62" t="n">
-        <v>26.30999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>26.25999999999997</v>
-      </c>
-      <c r="N62" t="n">
-        <v>26.17666666666664</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3459,26 +2995,16 @@
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>6.199999999999982</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>-45.45454545454569</v>
-      </c>
-      <c r="L63" t="n">
-        <v>26.29999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>26.25999999999997</v>
-      </c>
-      <c r="N63" t="n">
-        <v>26.17666666666664</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +3034,18 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="J64" t="n">
-        <v>6.399999999999981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>-45.45454545454569</v>
-      </c>
-      <c r="L64" t="n">
-        <v>26.22999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>26.24999999999997</v>
-      </c>
-      <c r="N64" t="n">
-        <v>26.17999999999998</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3561,26 +3077,16 @@
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>6.59999999999998</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>11.11111111111093</v>
-      </c>
-      <c r="L65" t="n">
-        <v>26.19999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>26.24499999999998</v>
-      </c>
-      <c r="N65" t="n">
-        <v>26.17666666666665</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3612,26 +3118,16 @@
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>6.59999999999998</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>11.11111111111093</v>
-      </c>
-      <c r="L66" t="n">
-        <v>26.20999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>26.26499999999998</v>
-      </c>
-      <c r="N66" t="n">
-        <v>26.18666666666665</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3663,26 +3159,16 @@
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>6.59999999999998</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L67" t="n">
-        <v>26.21999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>26.26499999999998</v>
-      </c>
-      <c r="N67" t="n">
-        <v>26.19666666666665</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,26 +3200,16 @@
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>6.59999999999998</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L68" t="n">
-        <v>26.19999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>26.25999999999998</v>
-      </c>
-      <c r="N68" t="n">
-        <v>26.20666666666666</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3239,18 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J69" t="n">
-        <v>6.899999999999981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>-42.857142857143</v>
-      </c>
-      <c r="L69" t="n">
-        <v>26.14999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>26.23499999999999</v>
-      </c>
-      <c r="N69" t="n">
-        <v>26.20999999999999</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,26 +3282,16 @@
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>7.199999999999982</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>26.14999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>26.23499999999999</v>
-      </c>
-      <c r="N70" t="n">
-        <v>26.22333333333333</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,31 +3318,23 @@
         <v>26.165</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>7.199999999999982</v>
+        <v>26.2</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>26.14999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>26.23499999999999</v>
-      </c>
-      <c r="N71" t="n">
-        <v>26.22333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,26 +3366,16 @@
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>7.199999999999982</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>26.14999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>26.22999999999999</v>
-      </c>
-      <c r="N72" t="n">
-        <v>26.22333333333333</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3405,18 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.09999999999999787</v>
-      </c>
-      <c r="J73" t="n">
-        <v>7.299999999999979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>11.11111111111129</v>
-      </c>
-      <c r="L73" t="n">
-        <v>26.13999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>26.21999999999999</v>
-      </c>
-      <c r="N73" t="n">
-        <v>26.21999999999999</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3446,18 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.3000000000000007</v>
-      </c>
-      <c r="J74" t="n">
-        <v>7.499999999999982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L74" t="n">
-        <v>26.12999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>26.17999999999999</v>
-      </c>
-      <c r="N74" t="n">
-        <v>26.20999999999999</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,31 +3484,23 @@
         <v>26.15499999999999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>7.799999999999983</v>
+        <v>26.1</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>26.12999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>26.16499999999999</v>
-      </c>
-      <c r="N75" t="n">
-        <v>26.20666666666666</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,31 +3527,23 @@
         <v>26.15333333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.09999999999999787</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>7.899999999999981</v>
+        <v>26.1</v>
       </c>
       <c r="K76" t="n">
-        <v>-7.692307692307525</v>
-      </c>
-      <c r="L76" t="n">
-        <v>26.11999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>26.16499999999999</v>
-      </c>
-      <c r="N76" t="n">
-        <v>26.21666666666666</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,31 +3570,23 @@
         <v>26.15499999999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>7.999999999999979</v>
+        <v>26.2</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>26.11999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>26.16999999999999</v>
-      </c>
-      <c r="N77" t="n">
-        <v>26.21666666666666</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,31 +3613,23 @@
         <v>26.15499999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>8.199999999999978</v>
+        <v>26.1</v>
       </c>
       <c r="K78" t="n">
-        <v>7.692307692307819</v>
-      </c>
-      <c r="L78" t="n">
-        <v>26.09999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="N78" t="n">
-        <v>26.20666666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3656,23 @@
         <v>26.15833333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>8.499999999999979</v>
+        <v>26.3</v>
       </c>
       <c r="K79" t="n">
-        <v>7.692307692307819</v>
-      </c>
-      <c r="L79" t="n">
-        <v>26.13999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>26.14499999999999</v>
-      </c>
-      <c r="N79" t="n">
-        <v>26.20333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3699,23 @@
         <v>26.15666666666666</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>8.799999999999979</v>
+        <v>26.1</v>
       </c>
       <c r="K80" t="n">
-        <v>-12.49999999999997</v>
-      </c>
-      <c r="L80" t="n">
-        <v>26.11999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>26.13499999999999</v>
-      </c>
-      <c r="N80" t="n">
-        <v>26.19666666666666</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4377,26 +3747,16 @@
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>8.999999999999979</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>26.11999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>26.13499999999999</v>
-      </c>
-      <c r="N81" t="n">
-        <v>26.19666666666666</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3783,23 @@
         <v>26.16</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>8.999999999999979</v>
+        <v>26.2</v>
       </c>
       <c r="K82" t="n">
-        <v>5.882352941176348</v>
-      </c>
-      <c r="L82" t="n">
-        <v>26.11999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>26.13499999999999</v>
-      </c>
-      <c r="N82" t="n">
-        <v>26.19333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,31 +3826,23 @@
         <v>26.16166666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>8.999999999999979</v>
+        <v>26.1</v>
       </c>
       <c r="K83" t="n">
-        <v>20.0000000000001</v>
-      </c>
-      <c r="L83" t="n">
-        <v>26.12999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>26.13499999999999</v>
-      </c>
-      <c r="N83" t="n">
-        <v>26.19</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,31 +3869,23 @@
         <v>26.16000000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>9.199999999999978</v>
+        <v>26</v>
       </c>
       <c r="K84" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L84" t="n">
-        <v>26.13999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>26.13499999999999</v>
-      </c>
-      <c r="N84" t="n">
-        <v>26.16666666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,31 +3912,23 @@
         <v>26.16000000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>9.399999999999977</v>
+        <v>26.2</v>
       </c>
       <c r="K85" t="n">
-        <v>6.66666666666654</v>
-      </c>
-      <c r="L85" t="n">
-        <v>26.13999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>26.13499999999999</v>
-      </c>
-      <c r="N85" t="n">
-        <v>26.15666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,31 +3955,23 @@
         <v>26.16000000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>9.399999999999977</v>
+        <v>26.2</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>26.14999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>26.13499999999999</v>
-      </c>
-      <c r="N86" t="n">
-        <v>26.16</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,31 +3998,23 @@
         <v>26.16000000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>9.399999999999977</v>
+        <v>26.2</v>
       </c>
       <c r="K87" t="n">
-        <v>16.66666666666662</v>
-      </c>
-      <c r="L87" t="n">
-        <v>26.14999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>26.13499999999999</v>
-      </c>
-      <c r="N87" t="n">
-        <v>26.16333333333334</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,31 +4041,23 @@
         <v>26.16166666666668</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>9.399999999999977</v>
+        <v>26.2</v>
       </c>
       <c r="K88" t="n">
-        <v>-11.11111111111129</v>
-      </c>
-      <c r="L88" t="n">
-        <v>26.16999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>26.13499999999999</v>
-      </c>
-      <c r="N88" t="n">
-        <v>26.15666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4785,26 +4089,16 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>9.399999999999977</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L89" t="n">
-        <v>26.15999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="N89" t="n">
-        <v>26.15000000000001</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4836,26 +4130,16 @@
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>9.399999999999977</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>26.17999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="N90" t="n">
-        <v>26.15000000000001</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +4169,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J91" t="n">
-        <v>9.499999999999979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L91" t="n">
-        <v>26.18999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>26.15499999999999</v>
-      </c>
-      <c r="N91" t="n">
-        <v>26.15333333333334</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +4210,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="J92" t="n">
-        <v>9.499999999999979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L92" t="n">
-        <v>26.19999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>26.15999999999999</v>
-      </c>
-      <c r="N92" t="n">
-        <v>26.15666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +4251,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J93" t="n">
-        <v>9.599999999999977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>100</v>
-      </c>
-      <c r="L93" t="n">
-        <v>26.21999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>26.17499999999998</v>
-      </c>
-      <c r="N93" t="n">
-        <v>26.16333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4292,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J94" t="n">
-        <v>9.699999999999978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>100</v>
-      </c>
-      <c r="L94" t="n">
-        <v>26.26999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>26.20499999999998</v>
-      </c>
-      <c r="N94" t="n">
-        <v>26.18</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4333,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J95" t="n">
-        <v>9.699999999999978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>100</v>
-      </c>
-      <c r="L95" t="n">
-        <v>26.29999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>26.21999999999998</v>
-      </c>
-      <c r="N95" t="n">
-        <v>26.19</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4374,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J96" t="n">
-        <v>9.899999999999977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>100</v>
-      </c>
-      <c r="L96" t="n">
-        <v>26.34999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>26.24999999999998</v>
-      </c>
-      <c r="N96" t="n">
-        <v>26.20666666666666</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4415,18 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J97" t="n">
-        <v>10.09999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>100</v>
-      </c>
-      <c r="L97" t="n">
-        <v>26.41999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>26.28499999999998</v>
-      </c>
-      <c r="N97" t="n">
-        <v>26.23</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4456,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>10.39999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>100</v>
-      </c>
-      <c r="L98" t="n">
-        <v>26.51999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>26.34499999999998</v>
-      </c>
-      <c r="N98" t="n">
-        <v>26.26333333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4497,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J99" t="n">
-        <v>10.49999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>100</v>
-      </c>
-      <c r="L99" t="n">
-        <v>26.62999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>26.39499999999998</v>
-      </c>
-      <c r="N99" t="n">
-        <v>26.31</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4538,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J100" t="n">
-        <v>10.49999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>100</v>
-      </c>
-      <c r="L100" t="n">
-        <v>26.73999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>26.45999999999998</v>
-      </c>
-      <c r="N100" t="n">
-        <v>26.34666666666666</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4579,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="J101" t="n">
-        <v>10.59999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>100</v>
-      </c>
-      <c r="L101" t="n">
-        <v>26.84999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>26.51999999999997</v>
-      </c>
-      <c r="N101" t="n">
-        <v>26.38666666666666</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4620,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="J102" t="n">
-        <v>10.59999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>100</v>
-      </c>
-      <c r="L102" t="n">
-        <v>26.95999999999999</v>
+        <v>26.1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>26.57999999999997</v>
-      </c>
-      <c r="N102" t="n">
-        <v>26.42666666666666</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,29 +4661,19 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="J103" t="n">
-        <v>10.59999999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>100</v>
-      </c>
-      <c r="L103" t="n">
-        <v>27.05999999999998</v>
+        <v>26.1</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>26.63999999999997</v>
-      </c>
-      <c r="N103" t="n">
-        <v>26.46999999999998</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
-        <v>1</v>
+        <v>1.044808429118774</v>
       </c>
     </row>
     <row r="104">
@@ -5548,28 +4702,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J104" t="n">
-        <v>10.69999999999998</v>
-      </c>
-      <c r="K104" t="n">
-        <v>100</v>
-      </c>
-      <c r="L104" t="n">
-        <v>27.15999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>26.71499999999997</v>
-      </c>
-      <c r="N104" t="n">
-        <v>26.52333333333332</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4737,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J105" t="n">
-        <v>10.69999999999998</v>
-      </c>
-      <c r="K105" t="n">
-        <v>100</v>
-      </c>
-      <c r="L105" t="n">
-        <v>27.25999999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>26.77999999999997</v>
-      </c>
-      <c r="N105" t="n">
-        <v>26.56666666666665</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4772,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J106" t="n">
-        <v>10.69999999999998</v>
-      </c>
-      <c r="K106" t="n">
-        <v>100</v>
-      </c>
-      <c r="L106" t="n">
-        <v>27.33999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>26.84499999999996</v>
-      </c>
-      <c r="N106" t="n">
-        <v>26.61333333333332</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4807,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J107" t="n">
-        <v>10.69999999999998</v>
-      </c>
-      <c r="K107" t="n">
-        <v>100</v>
-      </c>
-      <c r="L107" t="n">
-        <v>27.39999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>26.90999999999996</v>
-      </c>
-      <c r="N107" t="n">
-        <v>26.65666666666665</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4842,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="J108" t="n">
-        <v>10.89999999999998</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>27.40999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>26.96499999999996</v>
-      </c>
-      <c r="N108" t="n">
-        <v>26.69999999999998</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4877,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="J109" t="n">
-        <v>10.99999999999998</v>
-      </c>
-      <c r="K109" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L109" t="n">
-        <v>27.41999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>27.02499999999996</v>
-      </c>
-      <c r="N109" t="n">
-        <v>26.73666666666665</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4912,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J110" t="n">
-        <v>11.09999999999998</v>
-      </c>
-      <c r="K110" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L110" t="n">
-        <v>27.43999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>27.08999999999995</v>
-      </c>
-      <c r="N110" t="n">
-        <v>26.78666666666665</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4947,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J111" t="n">
-        <v>11.09999999999998</v>
-      </c>
-      <c r="K111" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L111" t="n">
-        <v>27.44999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>27.14999999999996</v>
-      </c>
-      <c r="N111" t="n">
-        <v>26.82999999999998</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4982,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J112" t="n">
-        <v>11.09999999999998</v>
-      </c>
-      <c r="K112" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L112" t="n">
-        <v>27.45999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>27.20999999999996</v>
-      </c>
-      <c r="N112" t="n">
-        <v>26.87333333333331</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +5017,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J113" t="n">
-        <v>11.09999999999998</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>27.46999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>27.26499999999996</v>
-      </c>
-      <c r="N113" t="n">
-        <v>26.91666666666664</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +5052,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="J114" t="n">
-        <v>11.19999999999998</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-20.00000000000028</v>
-      </c>
-      <c r="L114" t="n">
-        <v>27.45999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>27.30999999999996</v>
-      </c>
-      <c r="N114" t="n">
-        <v>26.96333333333331</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +5087,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J115" t="n">
-        <v>11.39999999999998</v>
-      </c>
-      <c r="K115" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L115" t="n">
-        <v>27.46999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>27.36499999999996</v>
-      </c>
-      <c r="N115" t="n">
-        <v>27.00999999999998</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +5122,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J116" t="n">
-        <v>11.39999999999998</v>
-      </c>
-      <c r="K116" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L116" t="n">
-        <v>27.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>27.40999999999996</v>
-      </c>
-      <c r="N116" t="n">
-        <v>27.05666666666664</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +5157,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J117" t="n">
-        <v>11.39999999999998</v>
-      </c>
-      <c r="K117" t="n">
-        <v>59.99999999999972</v>
-      </c>
-      <c r="L117" t="n">
-        <v>27.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>27.44499999999996</v>
-      </c>
-      <c r="N117" t="n">
-        <v>27.10333333333331</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +5192,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J118" t="n">
-        <v>11.49999999999998</v>
-      </c>
-      <c r="K118" t="n">
-        <v>59.99999999999972</v>
-      </c>
-      <c r="L118" t="n">
-        <v>27.52999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>27.46999999999996</v>
-      </c>
-      <c r="N118" t="n">
-        <v>27.15333333333331</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +5227,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J119" t="n">
-        <v>11.59999999999998</v>
-      </c>
-      <c r="K119" t="n">
-        <v>59.99999999999972</v>
-      </c>
-      <c r="L119" t="n">
-        <v>27.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>27.49499999999996</v>
-      </c>
-      <c r="N119" t="n">
-        <v>27.20666666666664</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +5262,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J120" t="n">
-        <v>11.59999999999998</v>
-      </c>
-      <c r="K120" t="n">
-        <v>59.99999999999972</v>
-      </c>
-      <c r="L120" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>27.51999999999996</v>
-      </c>
-      <c r="N120" t="n">
-        <v>27.25999999999997</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +5297,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J121" t="n">
-        <v>11.89999999999998</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>27.52499999999996</v>
-      </c>
-      <c r="N121" t="n">
-        <v>27.29999999999997</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +5332,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J122" t="n">
-        <v>11.99999999999998</v>
-      </c>
-      <c r="K122" t="n">
-        <v>11.1111111111112</v>
-      </c>
-      <c r="L122" t="n">
-        <v>27.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>27.53499999999996</v>
-      </c>
-      <c r="N122" t="n">
-        <v>27.34333333333331</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +5367,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J123" t="n">
-        <v>11.99999999999998</v>
-      </c>
-      <c r="K123" t="n">
-        <v>25.00000000000022</v>
-      </c>
-      <c r="L123" t="n">
-        <v>27.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>27.54499999999997</v>
-      </c>
-      <c r="N123" t="n">
-        <v>27.38333333333331</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +5402,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J124" t="n">
-        <v>11.99999999999998</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>27.64000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>27.54999999999997</v>
-      </c>
-      <c r="N124" t="n">
-        <v>27.41999999999997</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5437,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J125" t="n">
-        <v>12.09999999999998</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-14.28571428571443</v>
-      </c>
-      <c r="L125" t="n">
-        <v>27.63000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>27.54999999999997</v>
-      </c>
-      <c r="N125" t="n">
-        <v>27.45333333333331</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5472,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J126" t="n">
-        <v>12.09999999999998</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-14.28571428571443</v>
-      </c>
-      <c r="L126" t="n">
-        <v>27.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>27.54999999999997</v>
-      </c>
-      <c r="N126" t="n">
-        <v>27.47999999999997</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5507,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J127" t="n">
-        <v>12.09999999999998</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L127" t="n">
-        <v>27.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>27.54999999999997</v>
-      </c>
-      <c r="N127" t="n">
-        <v>27.49999999999998</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5542,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J128" t="n">
-        <v>12.19999999999999</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-33.33333333333294</v>
-      </c>
-      <c r="L128" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>27.56499999999997</v>
-      </c>
-      <c r="N128" t="n">
-        <v>27.51333333333331</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5577,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="J129" t="n">
-        <v>12.39999999999999</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-49.99999999999978</v>
-      </c>
-      <c r="L129" t="n">
-        <v>27.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>27.56499999999997</v>
-      </c>
-      <c r="N129" t="n">
-        <v>27.51666666666664</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5612,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J130" t="n">
-        <v>12.59999999999999</v>
-      </c>
-      <c r="K130" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L130" t="n">
-        <v>27.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>27.56999999999997</v>
-      </c>
-      <c r="N130" t="n">
-        <v>27.52666666666664</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5647,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J131" t="n">
-        <v>12.59999999999999</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>27.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>27.57499999999997</v>
-      </c>
-      <c r="N131" t="n">
-        <v>27.53333333333331</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5682,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="J132" t="n">
-        <v>12.79999999999999</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L132" t="n">
-        <v>27.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>27.56999999999997</v>
-      </c>
-      <c r="N132" t="n">
-        <v>27.53333333333331</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5717,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J133" t="n">
-        <v>13</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>27.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>27.57499999999997</v>
-      </c>
-      <c r="N133" t="n">
-        <v>27.53999999999998</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5752,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J134" t="n">
-        <v>13</v>
-      </c>
-      <c r="K134" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L134" t="n">
-        <v>27.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>27.58499999999997</v>
-      </c>
-      <c r="N134" t="n">
-        <v>27.54333333333331</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5787,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J135" t="n">
-        <v>13.09999999999999</v>
-      </c>
-      <c r="K135" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L135" t="n">
-        <v>27.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>27.58999999999997</v>
-      </c>
-      <c r="N135" t="n">
-        <v>27.54999999999998</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5822,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J136" t="n">
-        <v>13.19999999999999</v>
-      </c>
-      <c r="K136" t="n">
-        <v>9.09090909090915</v>
-      </c>
-      <c r="L136" t="n">
-        <v>27.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>27.58999999999997</v>
-      </c>
-      <c r="N136" t="n">
-        <v>27.55333333333332</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5857,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J137" t="n">
-        <v>13.39999999999999</v>
-      </c>
-      <c r="K137" t="n">
-        <v>16.66666666666652</v>
-      </c>
-      <c r="L137" t="n">
-        <v>27.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>27.59999999999997</v>
-      </c>
-      <c r="N137" t="n">
-        <v>27.56333333333331</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5892,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="J138" t="n">
-        <v>13.39999999999999</v>
-      </c>
-      <c r="K138" t="n">
-        <v>40.00000000000007</v>
-      </c>
-      <c r="L138" t="n">
-        <v>27.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>27.60499999999997</v>
-      </c>
-      <c r="N138" t="n">
-        <v>27.57999999999998</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5927,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J139" t="n">
-        <v>13.49999999999999</v>
-      </c>
-      <c r="K139" t="n">
-        <v>11.11111111111085</v>
-      </c>
-      <c r="L139" t="n">
-        <v>27.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>27.59999999999997</v>
-      </c>
-      <c r="N139" t="n">
-        <v>27.58999999999998</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5962,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J140" t="n">
-        <v>13.59999999999999</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>27.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>27.58999999999997</v>
-      </c>
-      <c r="N140" t="n">
-        <v>27.59333333333332</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5997,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J141" t="n">
-        <v>13.59999999999999</v>
-      </c>
-      <c r="K141" t="n">
-        <v>25.00000000000044</v>
-      </c>
-      <c r="L141" t="n">
-        <v>27.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>27.59499999999998</v>
-      </c>
-      <c r="N141" t="n">
-        <v>27.59666666666665</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +6032,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J142" t="n">
-        <v>13.69999999999999</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-14.28571428571458</v>
-      </c>
-      <c r="L142" t="n">
-        <v>27.65000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>27.58999999999997</v>
-      </c>
-      <c r="N142" t="n">
-        <v>27.59666666666665</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,1099 +6067,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J143" t="n">
-        <v>13.69999999999999</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-14.28571428571458</v>
-      </c>
-      <c r="L143" t="n">
-        <v>27.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>27.58499999999997</v>
-      </c>
-      <c r="N143" t="n">
-        <v>27.59666666666665</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C144" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D144" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E144" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F144" t="n">
-        <v>269368.6388</v>
-      </c>
-      <c r="G144" t="n">
-        <v>27.28499999999998</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>13.89999999999999</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>27.65</v>
-      </c>
-      <c r="M144" t="n">
-        <v>27.58999999999997</v>
-      </c>
-      <c r="N144" t="n">
-        <v>27.60666666666665</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F145" t="n">
-        <v>3767</v>
-      </c>
-      <c r="G145" t="n">
-        <v>27.30499999999998</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="J145" t="n">
-        <v>14.19999999999999</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-20.00000000000028</v>
-      </c>
-      <c r="L145" t="n">
-        <v>27.62</v>
-      </c>
-      <c r="M145" t="n">
-        <v>27.58499999999997</v>
-      </c>
-      <c r="N145" t="n">
-        <v>27.59999999999998</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F146" t="n">
-        <v>18249.8813</v>
-      </c>
-      <c r="G146" t="n">
-        <v>27.32833333333331</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J146" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L146" t="n">
-        <v>27.62</v>
-      </c>
-      <c r="M146" t="n">
-        <v>27.58999999999997</v>
-      </c>
-      <c r="N146" t="n">
-        <v>27.59999999999998</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F147" t="n">
-        <v>3611.1111</v>
-      </c>
-      <c r="G147" t="n">
-        <v>27.35166666666664</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J147" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="M147" t="n">
-        <v>27.59499999999998</v>
-      </c>
-      <c r="N147" t="n">
-        <v>27.59999999999998</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C148" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D148" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E148" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F148" t="n">
-        <v>28054.6875</v>
-      </c>
-      <c r="G148" t="n">
-        <v>27.37166666666664</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="J148" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-27.27272727272722</v>
-      </c>
-      <c r="L148" t="n">
-        <v>27.56</v>
-      </c>
-      <c r="M148" t="n">
-        <v>27.58499999999997</v>
-      </c>
-      <c r="N148" t="n">
-        <v>27.58999999999998</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D149" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1111.7205</v>
-      </c>
-      <c r="G149" t="n">
-        <v>27.39166666666664</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="J149" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L149" t="n">
-        <v>27.52999999999999</v>
-      </c>
-      <c r="M149" t="n">
-        <v>27.58499999999997</v>
-      </c>
-      <c r="N149" t="n">
-        <v>27.57666666666665</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C150" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D150" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F150" t="n">
-        <v>28054.6875</v>
-      </c>
-      <c r="G150" t="n">
-        <v>27.41166666666664</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="J150" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L150" t="n">
-        <v>27.50999999999999</v>
-      </c>
-      <c r="M150" t="n">
-        <v>27.57499999999997</v>
-      </c>
-      <c r="N150" t="n">
-        <v>27.56333333333332</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C151" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D151" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E151" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F151" t="n">
-        <v>623.0228</v>
-      </c>
-      <c r="G151" t="n">
-        <v>27.43333333333331</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J151" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K151" t="n">
-        <v>9.09090909090915</v>
-      </c>
-      <c r="L151" t="n">
-        <v>27.50999999999999</v>
-      </c>
-      <c r="M151" t="n">
-        <v>27.57499999999997</v>
-      </c>
-      <c r="N151" t="n">
-        <v>27.56666666666665</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C152" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F152" t="n">
-        <v>689.1529</v>
-      </c>
-      <c r="G152" t="n">
-        <v>27.45333333333331</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J152" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0</v>
-      </c>
-      <c r="L152" t="n">
-        <v>27.50999999999999</v>
-      </c>
-      <c r="M152" t="n">
-        <v>27.57999999999997</v>
-      </c>
-      <c r="N152" t="n">
-        <v>27.56333333333332</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C153" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D153" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E153" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F153" t="n">
-        <v>3133.0798</v>
-      </c>
-      <c r="G153" t="n">
-        <v>27.47333333333331</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J153" t="n">
-        <v>15</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-9.090909090908797</v>
-      </c>
-      <c r="L153" t="n">
-        <v>27.51999999999999</v>
-      </c>
-      <c r="M153" t="n">
-        <v>27.57999999999997</v>
-      </c>
-      <c r="N153" t="n">
-        <v>27.56333333333332</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F154" t="n">
-        <v>13781.1412</v>
-      </c>
-      <c r="G154" t="n">
-        <v>27.49166666666664</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J154" t="n">
-        <v>15</v>
-      </c>
-      <c r="K154" t="n">
-        <v>25</v>
-      </c>
-      <c r="L154" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="M154" t="n">
-        <v>27.57999999999997</v>
-      </c>
-      <c r="N154" t="n">
-        <v>27.56333333333332</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C155" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D155" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E155" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F155" t="n">
-        <v>4900</v>
-      </c>
-      <c r="G155" t="n">
-        <v>27.51166666666664</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J155" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K155" t="n">
-        <v>14.28571428571385</v>
-      </c>
-      <c r="L155" t="n">
-        <v>27.54</v>
-      </c>
-      <c r="M155" t="n">
-        <v>27.57999999999997</v>
-      </c>
-      <c r="N155" t="n">
-        <v>27.56999999999999</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C156" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D156" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E156" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F156" t="n">
-        <v>14500</v>
-      </c>
-      <c r="G156" t="n">
-        <v>27.52833333333331</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J156" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K156" t="n">
-        <v>14.28571428571385</v>
-      </c>
-      <c r="L156" t="n">
-        <v>27.54999999999999</v>
-      </c>
-      <c r="M156" t="n">
-        <v>27.58499999999997</v>
-      </c>
-      <c r="N156" t="n">
-        <v>27.57666666666665</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C157" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D157" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E157" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1349.0834</v>
-      </c>
-      <c r="G157" t="n">
-        <v>27.53833333333331</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1.300000000000001</v>
-      </c>
-      <c r="J157" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K157" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L157" t="n">
-        <v>27.53999999999999</v>
-      </c>
-      <c r="M157" t="n">
-        <v>27.56999999999998</v>
-      </c>
-      <c r="N157" t="n">
-        <v>27.57666666666665</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C158" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D158" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E158" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F158" t="n">
-        <v>300</v>
-      </c>
-      <c r="G158" t="n">
-        <v>27.54666666666664</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J158" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K158" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L158" t="n">
-        <v>27.56999999999999</v>
-      </c>
-      <c r="M158" t="n">
-        <v>27.56499999999998</v>
-      </c>
-      <c r="N158" t="n">
-        <v>27.57999999999999</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C159" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D159" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E159" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3348.2628</v>
-      </c>
-      <c r="G159" t="n">
-        <v>27.55333333333331</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J159" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K159" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L159" t="n">
-        <v>27.59999999999999</v>
-      </c>
-      <c r="M159" t="n">
-        <v>27.56499999999998</v>
-      </c>
-      <c r="N159" t="n">
-        <v>27.58999999999999</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C160" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D160" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E160" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F160" t="n">
-        <v>19276.467</v>
-      </c>
-      <c r="G160" t="n">
-        <v>27.56333333333331</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="J160" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K160" t="n">
-        <v>33.33333333333307</v>
-      </c>
-      <c r="L160" t="n">
-        <v>27.65</v>
-      </c>
-      <c r="M160" t="n">
-        <v>27.57999999999998</v>
-      </c>
-      <c r="N160" t="n">
-        <v>27.59999999999999</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C161" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D161" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E161" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F161" t="n">
-        <v>8241.843199999999</v>
-      </c>
-      <c r="G161" t="n">
-        <v>27.57166666666664</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="J161" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K161" t="n">
-        <v>50</v>
-      </c>
-      <c r="L161" t="n">
-        <v>27.67999999999999</v>
-      </c>
-      <c r="M161" t="n">
-        <v>27.59499999999998</v>
-      </c>
-      <c r="N161" t="n">
-        <v>27.60999999999999</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C162" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D162" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E162" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1890.4308</v>
-      </c>
-      <c r="G162" t="n">
-        <v>27.57999999999998</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="J162" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K162" t="n">
-        <v>42.85714285714271</v>
-      </c>
-      <c r="L162" t="n">
-        <v>27.71999999999999</v>
-      </c>
-      <c r="M162" t="n">
-        <v>27.61499999999997</v>
-      </c>
-      <c r="N162" t="n">
-        <v>27.62666666666665</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C163" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D163" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E163" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F163" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G163" t="n">
-        <v>27.58833333333331</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="J163" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K163" t="n">
-        <v>42.85714285714271</v>
-      </c>
-      <c r="L163" t="n">
-        <v>27.74999999999998</v>
-      </c>
-      <c r="M163" t="n">
-        <v>27.63499999999997</v>
-      </c>
-      <c r="N163" t="n">
-        <v>27.63666666666665</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1813.896</v>
-      </c>
-      <c r="G164" t="n">
-        <v>27.58999999999997</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1.400000000000002</v>
-      </c>
-      <c r="J164" t="n">
-        <v>16</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-11.11111111111093</v>
-      </c>
-      <c r="L164" t="n">
-        <v>27.74999999999998</v>
-      </c>
-      <c r="M164" t="n">
-        <v>27.62999999999997</v>
-      </c>
-      <c r="N164" t="n">
-        <v>27.63666666666665</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-17 BackTest LOOM.xlsx
@@ -591,17 +591,13 @@
         <v>26.04666666666665</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -630,22 +626,14 @@
         <v>26.05166666666665</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -673,22 +661,14 @@
         <v>26.06333333333332</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -716,22 +696,14 @@
         <v>26.07333333333332</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -759,22 +731,14 @@
         <v>26.07833333333332</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -802,22 +766,14 @@
         <v>26.08333333333332</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -845,22 +801,14 @@
         <v>26.09166666666665</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -894,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -935,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -976,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1017,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1058,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1099,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1140,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1175,22 +1081,14 @@
         <v>26.12666666666665</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1218,22 +1116,14 @@
         <v>26.13333333333332</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1261,22 +1151,14 @@
         <v>26.13999999999998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1304,22 +1186,14 @@
         <v>26.14666666666665</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1347,22 +1221,14 @@
         <v>26.15333333333331</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1390,22 +1256,14 @@
         <v>26.15999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1433,22 +1291,14 @@
         <v>26.16666666666665</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1485,13 +1335,9 @@
         <v>26.2</v>
       </c>
       <c r="K27" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.2</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1519,20 +1365,18 @@
         <v>26.17833333333332</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1569,11 +1413,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -1603,16 +1447,14 @@
         <v>26.18333333333332</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1646,16 +1488,14 @@
         <v>26.18666666666665</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1689,16 +1529,14 @@
         <v>26.18999999999998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1732,16 +1570,14 @@
         <v>26.18999999999998</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1782,7 +1618,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1823,7 +1659,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1857,16 +1693,14 @@
         <v>26.17499999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1907,7 +1741,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1941,16 +1775,14 @@
         <v>26.16499999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1984,16 +1816,14 @@
         <v>26.15833333333332</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2027,16 +1857,14 @@
         <v>26.15166666666665</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>25.8</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2070,16 +1898,14 @@
         <v>26.15166666666665</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2122,7 +1948,7 @@
         <v>26.2</v>
       </c>
       <c r="K42" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2156,16 +1982,14 @@
         <v>26.15333333333332</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2199,16 +2023,14 @@
         <v>26.15499999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2242,16 +2064,14 @@
         <v>26.15833333333332</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2285,16 +2105,14 @@
         <v>26.14833333333332</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2328,16 +2146,14 @@
         <v>26.14499999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2371,16 +2187,14 @@
         <v>26.14333333333332</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2414,16 +2228,14 @@
         <v>26.14666666666665</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2464,7 +2276,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2505,7 +2317,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2546,7 +2358,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2587,7 +2399,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2628,7 +2440,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2669,7 +2481,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2710,7 +2522,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2751,7 +2563,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2792,7 +2604,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2833,7 +2645,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2874,7 +2686,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2915,7 +2727,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2956,7 +2768,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2997,7 +2809,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3038,7 +2850,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3079,7 +2891,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3120,7 +2932,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3161,7 +2973,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3202,7 +3014,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3243,7 +3055,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3284,7 +3096,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3318,16 +3130,14 @@
         <v>26.165</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3368,7 +3178,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3409,7 +3219,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3450,7 +3260,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3484,16 +3294,14 @@
         <v>26.15499999999999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3527,16 +3335,14 @@
         <v>26.15333333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3570,16 +3376,14 @@
         <v>26.15499999999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3613,16 +3417,14 @@
         <v>26.15499999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3656,16 +3458,14 @@
         <v>26.15833333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3699,16 +3499,14 @@
         <v>26.15666666666666</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3749,7 +3547,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3783,16 +3581,14 @@
         <v>26.16</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3826,16 +3622,14 @@
         <v>26.16166666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3869,16 +3663,14 @@
         <v>26.16000000000001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>26</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3912,16 +3704,14 @@
         <v>26.16000000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3955,16 +3745,14 @@
         <v>26.16000000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3998,16 +3786,14 @@
         <v>26.16000000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4041,16 +3827,14 @@
         <v>26.16166666666668</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4091,7 +3875,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4132,7 +3916,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4173,7 +3957,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4214,7 +3998,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4255,7 +4039,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4296,7 +4080,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4337,7 +4121,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4378,7 +4162,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4419,7 +4203,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4460,7 +4244,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4501,7 +4285,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4542,7 +4326,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4579,19 +4363,19 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>1.040801526717557</v>
       </c>
     </row>
     <row r="102">
@@ -4620,17 +4404,11 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4664,16 +4442,10 @@
         <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>1.044808429118774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -4772,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4842,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4877,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>

--- a/BackTest/2019-10-17 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-17 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C2" t="n">
         <v>26.2</v>
@@ -442,13 +442,13 @@
         <v>26.2</v>
       </c>
       <c r="E2" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F2" t="n">
-        <v>7019</v>
+        <v>92995.0414</v>
       </c>
       <c r="G2" t="n">
-        <v>26.02999999999998</v>
+        <v>26.02499999999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>26.2</v>
       </c>
       <c r="F3" t="n">
-        <v>7377.4427</v>
+        <v>7019</v>
       </c>
       <c r="G3" t="n">
-        <v>26.03666666666665</v>
+        <v>26.02999999999998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>26.2</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D4" t="n">
         <v>26.2</v>
       </c>
       <c r="E4" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F4" t="n">
-        <v>49449.2358</v>
+        <v>7377.4427</v>
       </c>
       <c r="G4" t="n">
-        <v>26.03833333333332</v>
+        <v>26.03666666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F5" t="n">
-        <v>7604.8484</v>
+        <v>49449.2358</v>
       </c>
       <c r="G5" t="n">
-        <v>26.04166666666665</v>
+        <v>26.03833333333332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>1657.1293</v>
+        <v>7604.8484</v>
       </c>
       <c r="G6" t="n">
-        <v>26.04666666666665</v>
+        <v>26.04166666666665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>26.1</v>
       </c>
       <c r="F7" t="n">
-        <v>50837.2466</v>
+        <v>1657.1293</v>
       </c>
       <c r="G7" t="n">
-        <v>26.05166666666665</v>
+        <v>26.04666666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C8" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D8" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E8" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F8" t="n">
-        <v>2579.6772</v>
+        <v>50837.2466</v>
       </c>
       <c r="G8" t="n">
-        <v>26.06333333333332</v>
+        <v>26.05166666666665</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C9" t="n">
         <v>26.2</v>
       </c>
       <c r="D9" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E9" t="n">
         <v>26.2</v>
       </c>
       <c r="F9" t="n">
-        <v>266702.0166</v>
+        <v>2579.6772</v>
       </c>
       <c r="G9" t="n">
-        <v>26.07333333333332</v>
+        <v>26.06333333333332</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C10" t="n">
         <v>26.2</v>
       </c>
       <c r="D10" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E10" t="n">
         <v>26.2</v>
       </c>
       <c r="F10" t="n">
-        <v>16913.0534</v>
+        <v>266702.0166</v>
       </c>
       <c r="G10" t="n">
-        <v>26.07833333333332</v>
+        <v>26.07333333333332</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>26.2</v>
       </c>
       <c r="F11" t="n">
-        <v>16457.8467</v>
+        <v>16913.0534</v>
       </c>
       <c r="G11" t="n">
-        <v>26.08333333333332</v>
+        <v>26.07833333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="C12" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D12" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E12" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>16457.8467</v>
       </c>
       <c r="G12" t="n">
-        <v>26.09166666666665</v>
+        <v>26.08333333333332</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C13" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D13" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E13" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F13" t="n">
-        <v>3772.1894</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>26.09499999999998</v>
+        <v>26.09166666666665</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>26.2</v>
       </c>
       <c r="F14" t="n">
-        <v>6888.0424</v>
+        <v>3772.1894</v>
       </c>
       <c r="G14" t="n">
-        <v>26.09833333333332</v>
+        <v>26.09499999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>26.2</v>
       </c>
       <c r="F15" t="n">
-        <v>1289.9176</v>
+        <v>6888.0424</v>
       </c>
       <c r="G15" t="n">
-        <v>26.10166666666665</v>
+        <v>26.09833333333332</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>26.2</v>
       </c>
       <c r="F16" t="n">
-        <v>4401.7891</v>
+        <v>1289.9176</v>
       </c>
       <c r="G16" t="n">
-        <v>26.10833333333332</v>
+        <v>26.10166666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C17" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D17" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E17" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F17" t="n">
-        <v>13988.0292</v>
+        <v>4401.7891</v>
       </c>
       <c r="G17" t="n">
-        <v>26.11333333333332</v>
+        <v>26.10833333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E18" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F18" t="n">
-        <v>7900</v>
+        <v>13988.0292</v>
       </c>
       <c r="G18" t="n">
-        <v>26.11666666666666</v>
+        <v>26.11333333333332</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F19" t="n">
-        <v>992.8325</v>
+        <v>7900</v>
       </c>
       <c r="G19" t="n">
-        <v>26.12166666666666</v>
+        <v>26.11666666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>26.1</v>
       </c>
       <c r="F20" t="n">
-        <v>5762.4328</v>
+        <v>992.8325</v>
       </c>
       <c r="G20" t="n">
-        <v>26.12666666666665</v>
+        <v>26.12166666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>26.1</v>
       </c>
       <c r="F21" t="n">
-        <v>3244.7347</v>
+        <v>5762.4328</v>
       </c>
       <c r="G21" t="n">
-        <v>26.13333333333332</v>
+        <v>26.12666666666665</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>26.1</v>
       </c>
       <c r="F22" t="n">
-        <v>30472.2393</v>
+        <v>3244.7347</v>
       </c>
       <c r="G22" t="n">
-        <v>26.13999999999998</v>
+        <v>26.13333333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>26.1</v>
       </c>
       <c r="F23" t="n">
-        <v>3287.2598</v>
+        <v>30472.2393</v>
       </c>
       <c r="G23" t="n">
-        <v>26.14666666666665</v>
+        <v>26.13999999999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>26.1</v>
       </c>
       <c r="F24" t="n">
-        <v>769.0613</v>
+        <v>3287.2598</v>
       </c>
       <c r="G24" t="n">
-        <v>26.15333333333331</v>
+        <v>26.14666666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C25" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D25" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E25" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>769.0613</v>
       </c>
       <c r="G25" t="n">
-        <v>26.15999999999998</v>
+        <v>26.15333333333331</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>26.2</v>
       </c>
       <c r="F26" t="n">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>26.16666666666665</v>
+        <v>26.15999999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,23 +1320,19 @@
         <v>26.2</v>
       </c>
       <c r="F27" t="n">
-        <v>76.53870000000001</v>
+        <v>132</v>
       </c>
       <c r="G27" t="n">
-        <v>26.17333333333331</v>
+        <v>26.16666666666665</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
@@ -1347,614 +1343,534 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C28" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D28" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E28" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F28" t="n">
+        <v>76.53870000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>26.17333333333331</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F29" t="n">
         <v>2212.4251</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>26.17833333333332</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>26</v>
+      </c>
+      <c r="C30" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>26</v>
+      </c>
+      <c r="F30" t="n">
+        <v>23361.1284</v>
+      </c>
+      <c r="G30" t="n">
+        <v>26.18166666666665</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7816</v>
+      </c>
+      <c r="G31" t="n">
+        <v>26.18333333333332</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3550.3458</v>
+      </c>
+      <c r="G32" t="n">
+        <v>26.18666666666665</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1570</v>
+      </c>
+      <c r="G33" t="n">
+        <v>26.18999999999998</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3657.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>26.18999999999998</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>26</v>
+      </c>
+      <c r="C35" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>26</v>
+      </c>
+      <c r="E35" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>17200</v>
+      </c>
+      <c r="G35" t="n">
+        <v>26.18333333333332</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>11</v>
+      </c>
+      <c r="G36" t="n">
+        <v>26.18333333333332</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E37" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F37" t="n">
+        <v>46300</v>
+      </c>
+      <c r="G37" t="n">
+        <v>26.17499999999999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>845.2079</v>
+      </c>
+      <c r="G38" t="n">
+        <v>26.16833333333332</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E39" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F39" t="n">
+        <v>482.0125</v>
+      </c>
+      <c r="G39" t="n">
+        <v>26.16499999999999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C40" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>12594.7547</v>
+      </c>
+      <c r="G40" t="n">
+        <v>26.15833333333332</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C41" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>90484.5039</v>
+      </c>
+      <c r="G41" t="n">
+        <v>26.15166666666665</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K41" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>11</v>
+      </c>
+      <c r="G42" t="n">
+        <v>26.15166666666665</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>26</v>
-      </c>
-      <c r="C29" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D29" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E29" t="n">
-        <v>26</v>
-      </c>
-      <c r="F29" t="n">
-        <v>23361.1284</v>
-      </c>
-      <c r="G29" t="n">
-        <v>26.18166666666665</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>7816</v>
-      </c>
-      <c r="G30" t="n">
-        <v>26.18333333333332</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3550.3458</v>
-      </c>
-      <c r="G31" t="n">
-        <v>26.18666666666665</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C32" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D32" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E32" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1570</v>
-      </c>
-      <c r="G32" t="n">
-        <v>26.18999999999998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C33" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D33" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E33" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3657.5</v>
-      </c>
-      <c r="G33" t="n">
-        <v>26.18999999999998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>26</v>
-      </c>
-      <c r="C34" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D34" t="n">
-        <v>26</v>
-      </c>
-      <c r="E34" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F34" t="n">
-        <v>17200</v>
-      </c>
-      <c r="G34" t="n">
-        <v>26.18333333333332</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C35" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E35" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>11</v>
-      </c>
-      <c r="G35" t="n">
-        <v>26.18333333333332</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C36" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D36" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E36" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F36" t="n">
-        <v>46300</v>
-      </c>
-      <c r="G36" t="n">
-        <v>26.17499999999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C37" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D37" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E37" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F37" t="n">
-        <v>845.2079</v>
-      </c>
-      <c r="G37" t="n">
-        <v>26.16833333333332</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C38" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D38" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E38" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F38" t="n">
-        <v>482.0125</v>
-      </c>
-      <c r="G38" t="n">
-        <v>26.16499999999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C39" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D39" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E39" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F39" t="n">
-        <v>12594.7547</v>
-      </c>
-      <c r="G39" t="n">
-        <v>26.15833333333332</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C40" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D40" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E40" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F40" t="n">
-        <v>90484.5039</v>
-      </c>
-      <c r="G40" t="n">
-        <v>26.15166666666665</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D41" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E41" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>11</v>
-      </c>
-      <c r="G41" t="n">
-        <v>26.15166666666665</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F42" t="n">
-        <v>10</v>
-      </c>
-      <c r="G42" t="n">
-        <v>26.15166666666665</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1976,10 +1892,10 @@
         <v>26.2</v>
       </c>
       <c r="F43" t="n">
-        <v>124742.29</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>26.15333333333332</v>
+        <v>26.15166666666665</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1989,11 +1905,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -2005,7 +1921,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C44" t="n">
         <v>26.2</v>
@@ -2014,13 +1930,13 @@
         <v>26.2</v>
       </c>
       <c r="E44" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F44" t="n">
-        <v>113920.477</v>
+        <v>124742.29</v>
       </c>
       <c r="G44" t="n">
-        <v>26.15499999999999</v>
+        <v>26.15333333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2029,14 +1945,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2046,22 +1956,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E45" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F45" t="n">
-        <v>38</v>
+        <v>113920.477</v>
       </c>
       <c r="G45" t="n">
-        <v>26.15833333333332</v>
+        <v>26.15499999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2070,14 +1980,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2087,22 +1991,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C46" t="n">
         <v>26.3</v>
       </c>
-      <c r="C46" t="n">
-        <v>25.8</v>
-      </c>
       <c r="D46" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E46" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="F46" t="n">
-        <v>81518.26489999999</v>
+        <v>38</v>
       </c>
       <c r="G46" t="n">
-        <v>26.14833333333332</v>
+        <v>26.15833333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2111,14 +2015,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2128,22 +2026,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C47" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D47" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E47" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F47" t="n">
-        <v>12</v>
+        <v>81518.26489999999</v>
       </c>
       <c r="G47" t="n">
-        <v>26.14499999999999</v>
+        <v>26.14833333333332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2152,14 +2050,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2172,19 +2064,19 @@
         <v>26.2</v>
       </c>
       <c r="C48" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D48" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E48" t="n">
         <v>26.2</v>
       </c>
       <c r="F48" t="n">
-        <v>9000</v>
+        <v>12</v>
       </c>
       <c r="G48" t="n">
-        <v>26.14333333333332</v>
+        <v>26.14499999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2193,14 +2085,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2210,22 +2096,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C49" t="n">
         <v>26.3</v>
       </c>
-      <c r="C49" t="n">
-        <v>26.4</v>
-      </c>
       <c r="D49" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E49" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F49" t="n">
-        <v>258</v>
+        <v>9000</v>
       </c>
       <c r="G49" t="n">
-        <v>26.14666666666665</v>
+        <v>26.14333333333332</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2234,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2251,19 +2131,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C50" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D50" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E50" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F50" t="n">
-        <v>2605.5942</v>
+        <v>258</v>
       </c>
       <c r="G50" t="n">
         <v>26.14666666666665</v>
@@ -2275,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2292,22 +2166,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="C51" t="n">
         <v>26.2</v>
       </c>
       <c r="D51" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E51" t="n">
         <v>26.2</v>
       </c>
       <c r="F51" t="n">
-        <v>43463.6553</v>
+        <v>2605.5942</v>
       </c>
       <c r="G51" t="n">
-        <v>26.14499999999999</v>
+        <v>26.14666666666665</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2316,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2333,22 +2201,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C52" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D52" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E52" t="n">
         <v>26.2</v>
       </c>
       <c r="F52" t="n">
-        <v>25269.8763</v>
+        <v>43463.6553</v>
       </c>
       <c r="G52" t="n">
-        <v>26.14666666666665</v>
+        <v>26.14499999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2357,14 +2225,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2374,7 +2236,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C53" t="n">
         <v>26.3</v>
@@ -2383,13 +2245,13 @@
         <v>26.3</v>
       </c>
       <c r="E53" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F53" t="n">
-        <v>3583.4942</v>
+        <v>25269.8763</v>
       </c>
       <c r="G53" t="n">
-        <v>26.14499999999999</v>
+        <v>26.14666666666665</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2398,14 +2260,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2418,19 +2274,19 @@
         <v>26.3</v>
       </c>
       <c r="C54" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="D54" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="E54" t="n">
         <v>26.3</v>
       </c>
       <c r="F54" t="n">
-        <v>25176.3238</v>
+        <v>3583.4942</v>
       </c>
       <c r="G54" t="n">
-        <v>26.15333333333332</v>
+        <v>26.14499999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2439,14 +2295,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2456,22 +2306,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="C55" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="D55" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="E55" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="F55" t="n">
-        <v>12.456</v>
+        <v>25176.3238</v>
       </c>
       <c r="G55" t="n">
-        <v>26.15666666666665</v>
+        <v>26.15333333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2480,14 +2330,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2497,19 +2341,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="C56" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="D56" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="E56" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="F56" t="n">
-        <v>157674.7586</v>
+        <v>12.456</v>
       </c>
       <c r="G56" t="n">
         <v>26.15666666666665</v>
@@ -2521,14 +2365,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2538,19 +2376,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="C57" t="n">
         <v>26.1</v>
       </c>
       <c r="D57" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="E57" t="n">
         <v>26.1</v>
       </c>
       <c r="F57" t="n">
-        <v>333.867</v>
+        <v>157674.7586</v>
       </c>
       <c r="G57" t="n">
         <v>26.15666666666665</v>
@@ -2562,14 +2400,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2579,22 +2411,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C58" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="D58" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E58" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>333.867</v>
       </c>
       <c r="G58" t="n">
-        <v>26.15999999999999</v>
+        <v>26.15666666666665</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2603,14 +2435,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2629,13 +2455,13 @@
         <v>26.4</v>
       </c>
       <c r="E59" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="F59" t="n">
-        <v>88032.87880000001</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>26.16333333333332</v>
+        <v>26.15999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2644,14 +2470,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2661,22 +2481,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C60" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D60" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E60" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F60" t="n">
-        <v>27958.3091</v>
+        <v>88032.87880000001</v>
       </c>
       <c r="G60" t="n">
-        <v>26.16499999999999</v>
+        <v>26.16333333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2685,14 +2505,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2714,7 +2528,7 @@
         <v>26.2</v>
       </c>
       <c r="F61" t="n">
-        <v>27958.309</v>
+        <v>27958.3091</v>
       </c>
       <c r="G61" t="n">
         <v>26.16499999999999</v>
@@ -2726,14 +2540,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2755,7 +2563,7 @@
         <v>26.2</v>
       </c>
       <c r="F62" t="n">
-        <v>17555.8039</v>
+        <v>27958.309</v>
       </c>
       <c r="G62" t="n">
         <v>26.16499999999999</v>
@@ -2767,14 +2575,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2796,7 +2598,7 @@
         <v>26.2</v>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>17555.8039</v>
       </c>
       <c r="G63" t="n">
         <v>26.16499999999999</v>
@@ -2808,14 +2610,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2825,22 +2621,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C64" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D64" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E64" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F64" t="n">
-        <v>52567.4118</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>26.16333333333332</v>
+        <v>26.16499999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2849,14 +2645,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2866,22 +2656,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C65" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D65" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E65" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F65" t="n">
-        <v>11804.5846</v>
+        <v>52567.4118</v>
       </c>
       <c r="G65" t="n">
-        <v>26.16666666666666</v>
+        <v>26.16333333333332</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2890,14 +2680,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2919,10 +2703,10 @@
         <v>26.2</v>
       </c>
       <c r="F66" t="n">
-        <v>10581.8345</v>
+        <v>11804.5846</v>
       </c>
       <c r="G66" t="n">
-        <v>26.16833333333333</v>
+        <v>26.16666666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2931,14 +2715,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2948,7 +2726,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C67" t="n">
         <v>26.2</v>
@@ -2957,13 +2735,13 @@
         <v>26.2</v>
       </c>
       <c r="E67" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F67" t="n">
-        <v>4168.7808</v>
+        <v>10581.8345</v>
       </c>
       <c r="G67" t="n">
-        <v>26.17</v>
+        <v>26.16833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2972,14 +2750,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2989,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C68" t="n">
         <v>26.2</v>
@@ -2998,10 +2770,10 @@
         <v>26.2</v>
       </c>
       <c r="E68" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F68" t="n">
-        <v>12889.2372</v>
+        <v>4168.7808</v>
       </c>
       <c r="G68" t="n">
         <v>26.17</v>
@@ -3013,14 +2785,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +2796,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C69" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="D69" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E69" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F69" t="n">
-        <v>67979.9651</v>
+        <v>12889.2372</v>
       </c>
       <c r="G69" t="n">
-        <v>26.165</v>
+        <v>26.17</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3054,14 +2820,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3071,19 +2831,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C70" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D70" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E70" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F70" t="n">
-        <v>7115.8695</v>
+        <v>67979.9651</v>
       </c>
       <c r="G70" t="n">
         <v>26.165</v>
@@ -3095,14 +2855,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3124,7 +2878,7 @@
         <v>26.2</v>
       </c>
       <c r="F71" t="n">
-        <v>33140.9999</v>
+        <v>7115.8695</v>
       </c>
       <c r="G71" t="n">
         <v>26.165</v>
@@ -3136,14 +2890,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3153,7 +2901,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="C72" t="n">
         <v>26.2</v>
@@ -3162,13 +2910,13 @@
         <v>26.2</v>
       </c>
       <c r="E72" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F72" t="n">
-        <v>270090.57</v>
+        <v>33140.9999</v>
       </c>
       <c r="G72" t="n">
-        <v>26.16166666666667</v>
+        <v>26.165</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3177,14 +2925,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3194,22 +2936,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C73" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D73" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E73" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="F73" t="n">
-        <v>3823</v>
+        <v>270090.57</v>
       </c>
       <c r="G73" t="n">
-        <v>26.15999999999999</v>
+        <v>26.16166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3218,14 +2960,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3235,22 +2971,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C74" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="D74" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E74" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="F74" t="n">
-        <v>9975.5</v>
+        <v>3823</v>
       </c>
       <c r="G74" t="n">
-        <v>26.15499999999999</v>
+        <v>26.15999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3259,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3276,19 +3006,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C75" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D75" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="E75" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="F75" t="n">
-        <v>33945.879</v>
+        <v>9975.5</v>
       </c>
       <c r="G75" t="n">
         <v>26.15499999999999</v>
@@ -3300,14 +3030,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3320,19 +3044,19 @@
         <v>26.1</v>
       </c>
       <c r="C76" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D76" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E76" t="n">
         <v>26.1</v>
       </c>
       <c r="F76" t="n">
-        <v>19066.7553</v>
+        <v>33945.879</v>
       </c>
       <c r="G76" t="n">
-        <v>26.15333333333333</v>
+        <v>26.15499999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3341,14 +3065,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3358,22 +3076,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C77" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D77" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E77" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F77" t="n">
-        <v>10227.6675</v>
+        <v>19066.7553</v>
       </c>
       <c r="G77" t="n">
-        <v>26.15499999999999</v>
+        <v>26.15333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3382,14 +3100,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3399,19 +3111,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C78" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D78" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E78" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F78" t="n">
-        <v>27431</v>
+        <v>10227.6675</v>
       </c>
       <c r="G78" t="n">
         <v>26.15499999999999</v>
@@ -3423,14 +3135,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3440,22 +3146,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C79" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="D79" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="E79" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="F79" t="n">
-        <v>5543</v>
+        <v>27431</v>
       </c>
       <c r="G79" t="n">
-        <v>26.15833333333333</v>
+        <v>26.15499999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3464,14 +3170,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3481,22 +3181,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="C80" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="D80" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E80" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="F80" t="n">
-        <v>16870.7708</v>
+        <v>5543</v>
       </c>
       <c r="G80" t="n">
-        <v>26.15666666666666</v>
+        <v>26.15833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3505,14 +3205,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3522,22 +3216,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C81" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D81" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E81" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F81" t="n">
-        <v>11127.222</v>
+        <v>16870.7708</v>
       </c>
       <c r="G81" t="n">
-        <v>26.15833333333333</v>
+        <v>26.15666666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3546,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3575,10 +3263,10 @@
         <v>26.2</v>
       </c>
       <c r="F82" t="n">
-        <v>9000</v>
+        <v>11127.222</v>
       </c>
       <c r="G82" t="n">
-        <v>26.16</v>
+        <v>26.15833333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3587,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3604,7 +3286,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C83" t="n">
         <v>26.2</v>
@@ -3613,13 +3295,13 @@
         <v>26.2</v>
       </c>
       <c r="E83" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F83" t="n">
-        <v>32131.8581</v>
+        <v>9000</v>
       </c>
       <c r="G83" t="n">
-        <v>26.16166666666667</v>
+        <v>26.16</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3628,14 +3310,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3645,22 +3321,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C84" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D84" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E84" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F84" t="n">
-        <v>20164.3474</v>
+        <v>32131.8581</v>
       </c>
       <c r="G84" t="n">
-        <v>26.16000000000001</v>
+        <v>26.16166666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3669,14 +3345,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3686,19 +3356,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C85" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D85" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E85" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>20164.3474</v>
       </c>
       <c r="G85" t="n">
         <v>26.16000000000001</v>
@@ -3710,14 +3380,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3739,7 +3403,7 @@
         <v>26.2</v>
       </c>
       <c r="F86" t="n">
-        <v>14415.601</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
         <v>26.16000000000001</v>
@@ -3751,14 +3415,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3780,7 +3438,7 @@
         <v>26.2</v>
       </c>
       <c r="F87" t="n">
-        <v>1853.4351</v>
+        <v>14415.601</v>
       </c>
       <c r="G87" t="n">
         <v>26.16000000000001</v>
@@ -3792,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3821,10 +3473,10 @@
         <v>26.2</v>
       </c>
       <c r="F88" t="n">
-        <v>2319</v>
+        <v>1853.4351</v>
       </c>
       <c r="G88" t="n">
-        <v>26.16166666666668</v>
+        <v>26.16000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3833,14 +3485,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3862,7 +3508,7 @@
         <v>26.2</v>
       </c>
       <c r="F89" t="n">
-        <v>18702.5995</v>
+        <v>2319</v>
       </c>
       <c r="G89" t="n">
         <v>26.16166666666668</v>
@@ -3874,14 +3520,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3903,10 +3543,10 @@
         <v>26.2</v>
       </c>
       <c r="F90" t="n">
-        <v>5984.2766</v>
+        <v>18702.5995</v>
       </c>
       <c r="G90" t="n">
-        <v>26.16333333333334</v>
+        <v>26.16166666666668</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3915,14 +3555,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3935,19 +3569,19 @@
         <v>26.2</v>
       </c>
       <c r="C91" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D91" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E91" t="n">
         <v>26.2</v>
       </c>
       <c r="F91" t="n">
-        <v>10800</v>
+        <v>5984.2766</v>
       </c>
       <c r="G91" t="n">
-        <v>26.16500000000001</v>
+        <v>26.16333333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3956,14 +3590,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3973,7 +3601,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C92" t="n">
         <v>26.3</v>
@@ -3982,13 +3610,13 @@
         <v>26.3</v>
       </c>
       <c r="E92" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F92" t="n">
-        <v>11733.057</v>
+        <v>10800</v>
       </c>
       <c r="G92" t="n">
-        <v>26.16666666666667</v>
+        <v>26.16500000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3997,14 +3625,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4017,19 +3639,19 @@
         <v>26.3</v>
       </c>
       <c r="C93" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="D93" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E93" t="n">
         <v>26.3</v>
       </c>
       <c r="F93" t="n">
-        <v>120730.1447</v>
+        <v>11733.057</v>
       </c>
       <c r="G93" t="n">
-        <v>26.17000000000001</v>
+        <v>26.16666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4038,14 +3660,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4055,22 +3671,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C94" t="n">
         <v>26.4</v>
       </c>
-      <c r="C94" t="n">
-        <v>26.5</v>
-      </c>
       <c r="D94" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="E94" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F94" t="n">
-        <v>132168.6644</v>
+        <v>120730.1447</v>
       </c>
       <c r="G94" t="n">
-        <v>26.18000000000001</v>
+        <v>26.17000000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4079,14 +3695,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4096,22 +3706,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="C95" t="n">
         <v>26.5</v>
       </c>
       <c r="D95" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="E95" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F95" t="n">
-        <v>26149.6506</v>
+        <v>132168.6644</v>
       </c>
       <c r="G95" t="n">
-        <v>26.18333333333334</v>
+        <v>26.18000000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4120,14 +3730,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4137,22 +3741,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="C96" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D96" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E96" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="F96" t="n">
-        <v>21942.4207</v>
+        <v>26149.6506</v>
       </c>
       <c r="G96" t="n">
-        <v>26.19666666666667</v>
+        <v>26.18333333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4161,14 +3765,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C97" t="n">
         <v>26.7</v>
       </c>
-      <c r="C97" t="n">
-        <v>26.9</v>
-      </c>
       <c r="D97" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="E97" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F97" t="n">
-        <v>93202.1786</v>
+        <v>21942.4207</v>
       </c>
       <c r="G97" t="n">
-        <v>26.21333333333334</v>
+        <v>26.19666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4202,14 +3800,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4219,22 +3811,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C98" t="n">
         <v>26.9</v>
       </c>
-      <c r="C98" t="n">
-        <v>27.2</v>
-      </c>
       <c r="D98" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="E98" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F98" t="n">
-        <v>93328.1542</v>
+        <v>93202.1786</v>
       </c>
       <c r="G98" t="n">
-        <v>26.23500000000001</v>
+        <v>26.21333333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4243,14 +3835,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4260,22 +3846,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C99" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D99" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E99" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>93328.1542</v>
       </c>
       <c r="G99" t="n">
-        <v>26.26000000000001</v>
+        <v>26.23500000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4284,14 +3870,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4313,10 +3893,10 @@
         <v>27.3</v>
       </c>
       <c r="F100" t="n">
-        <v>24446.7444</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="n">
-        <v>26.28500000000001</v>
+        <v>26.26000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4325,14 +3905,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4345,37 +3919,31 @@
         <v>27.3</v>
       </c>
       <c r="C101" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D101" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E101" t="n">
         <v>27.3</v>
       </c>
       <c r="F101" t="n">
-        <v>10626</v>
+        <v>24446.7444</v>
       </c>
       <c r="G101" t="n">
-        <v>26.30500000000001</v>
+        <v>26.28500000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>1.040801526717557</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4383,7 +3951,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C102" t="n">
         <v>27.4</v>
@@ -4392,19 +3960,19 @@
         <v>27.4</v>
       </c>
       <c r="E102" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F102" t="n">
-        <v>14041.0763</v>
+        <v>10626</v>
       </c>
       <c r="G102" t="n">
-        <v>26.32500000000001</v>
+        <v>26.30500000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4430,10 +3998,10 @@
         <v>27.4</v>
       </c>
       <c r="F103" t="n">
-        <v>1000</v>
+        <v>14041.0763</v>
       </c>
       <c r="G103" t="n">
-        <v>26.34500000000001</v>
+        <v>26.32500000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4453,22 +4021,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C104" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D104" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E104" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F104" t="n">
-        <v>4439.5668</v>
+        <v>1000</v>
       </c>
       <c r="G104" t="n">
-        <v>26.36666666666667</v>
+        <v>26.34500000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4500,10 +4068,10 @@
         <v>27.5</v>
       </c>
       <c r="F105" t="n">
-        <v>699.3454</v>
+        <v>4439.5668</v>
       </c>
       <c r="G105" t="n">
-        <v>26.38666666666667</v>
+        <v>26.36666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4523,7 +4091,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C106" t="n">
         <v>27.5</v>
@@ -4532,13 +4100,13 @@
         <v>27.5</v>
       </c>
       <c r="E106" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="F106" t="n">
-        <v>174803.4438</v>
+        <v>699.3454</v>
       </c>
       <c r="G106" t="n">
-        <v>26.41500000000001</v>
+        <v>26.38666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4558,28 +4126,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C107" t="n">
         <v>27.5</v>
       </c>
       <c r="D107" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E107" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F107" t="n">
-        <v>24.779</v>
+        <v>174803.4438</v>
       </c>
       <c r="G107" t="n">
-        <v>26.43666666666667</v>
+        <v>26.41500000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4593,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C108" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D108" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E108" t="n">
         <v>27.5</v>
       </c>
-      <c r="E108" t="n">
-        <v>27.2</v>
-      </c>
       <c r="F108" t="n">
-        <v>125264.8699</v>
+        <v>24.779</v>
       </c>
       <c r="G108" t="n">
-        <v>26.45333333333334</v>
+        <v>26.43666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4628,22 +4196,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C109" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D109" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E109" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F109" t="n">
-        <v>11</v>
+        <v>125264.8699</v>
       </c>
       <c r="G109" t="n">
-        <v>26.47000000000001</v>
+        <v>26.45333333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4666,19 +4234,19 @@
         <v>27.4</v>
       </c>
       <c r="C110" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D110" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E110" t="n">
         <v>27.4</v>
       </c>
       <c r="F110" t="n">
-        <v>29100</v>
+        <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>26.49166666666667</v>
+        <v>26.47000000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4710,10 +4278,10 @@
         <v>27.4</v>
       </c>
       <c r="F111" t="n">
-        <v>6154.7007</v>
+        <v>29100</v>
       </c>
       <c r="G111" t="n">
-        <v>26.51333333333334</v>
+        <v>26.49166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4733,7 +4301,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C112" t="n">
         <v>27.5</v>
@@ -4742,13 +4310,13 @@
         <v>27.5</v>
       </c>
       <c r="E112" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F112" t="n">
-        <v>8900</v>
+        <v>6154.7007</v>
       </c>
       <c r="G112" t="n">
-        <v>26.53333333333334</v>
+        <v>26.51333333333334</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4780,10 +4348,10 @@
         <v>27.5</v>
       </c>
       <c r="F113" t="n">
-        <v>6132.4742</v>
+        <v>8900</v>
       </c>
       <c r="G113" t="n">
-        <v>26.55333333333334</v>
+        <v>26.53333333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4803,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C114" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D114" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E114" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F114" t="n">
-        <v>48791.6762</v>
+        <v>6132.4742</v>
       </c>
       <c r="G114" t="n">
-        <v>26.56500000000001</v>
+        <v>26.55333333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4838,22 +4406,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C115" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D115" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E115" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F115" t="n">
-        <v>64070.0505</v>
+        <v>48791.6762</v>
       </c>
       <c r="G115" t="n">
-        <v>26.58333333333334</v>
+        <v>26.56500000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4873,7 +4441,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C116" t="n">
         <v>27.6</v>
@@ -4885,10 +4453,10 @@
         <v>27.5</v>
       </c>
       <c r="F116" t="n">
-        <v>27765.6738</v>
+        <v>64070.0505</v>
       </c>
       <c r="G116" t="n">
-        <v>26.60833333333334</v>
+        <v>26.58333333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4917,13 +4485,13 @@
         <v>27.6</v>
       </c>
       <c r="E117" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F117" t="n">
-        <v>13347.7712</v>
+        <v>27765.6738</v>
       </c>
       <c r="G117" t="n">
-        <v>26.63333333333334</v>
+        <v>26.60833333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4943,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C118" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D118" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E118" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F118" t="n">
-        <v>66993.10460000001</v>
+        <v>13347.7712</v>
       </c>
       <c r="G118" t="n">
-        <v>26.65500000000001</v>
+        <v>26.63333333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4981,19 +4549,19 @@
         <v>27.7</v>
       </c>
       <c r="C119" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D119" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E119" t="n">
         <v>27.7</v>
       </c>
       <c r="F119" t="n">
-        <v>9464.0568</v>
+        <v>66993.10460000001</v>
       </c>
       <c r="G119" t="n">
-        <v>26.67833333333334</v>
+        <v>26.65500000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5013,7 +4581,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C120" t="n">
         <v>27.8</v>
@@ -5022,13 +4590,13 @@
         <v>27.8</v>
       </c>
       <c r="E120" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F120" t="n">
-        <v>2232.6508</v>
+        <v>9464.0568</v>
       </c>
       <c r="G120" t="n">
-        <v>26.705</v>
+        <v>26.67833333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5048,22 +4616,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C121" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D121" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E121" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F121" t="n">
-        <v>18000</v>
+        <v>2232.6508</v>
       </c>
       <c r="G121" t="n">
-        <v>26.72666666666667</v>
+        <v>26.705</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5083,22 +4651,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C122" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D122" t="n">
         <v>27.6</v>
       </c>
       <c r="E122" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F122" t="n">
-        <v>3779.5379</v>
+        <v>18000</v>
       </c>
       <c r="G122" t="n">
-        <v>26.75</v>
+        <v>26.72666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5118,7 +4686,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C123" t="n">
         <v>27.6</v>
@@ -5127,13 +4695,13 @@
         <v>27.6</v>
       </c>
       <c r="E123" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F123" t="n">
-        <v>2547.5543</v>
+        <v>3779.5379</v>
       </c>
       <c r="G123" t="n">
-        <v>26.77333333333333</v>
+        <v>26.75</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5165,10 +4733,10 @@
         <v>27.6</v>
       </c>
       <c r="F124" t="n">
-        <v>100</v>
+        <v>2547.5543</v>
       </c>
       <c r="G124" t="n">
-        <v>26.8</v>
+        <v>26.77333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5188,22 +4756,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C125" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D125" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E125" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F125" t="n">
-        <v>1562.7479</v>
+        <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>26.82166666666666</v>
+        <v>26.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5223,7 +4791,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C126" t="n">
         <v>27.5</v>
@@ -5232,13 +4800,13 @@
         <v>27.5</v>
       </c>
       <c r="E126" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F126" t="n">
-        <v>2196.936517090909</v>
+        <v>1562.7479</v>
       </c>
       <c r="G126" t="n">
-        <v>26.84333333333333</v>
+        <v>26.82166666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5270,10 +4838,10 @@
         <v>27.4</v>
       </c>
       <c r="F127" t="n">
-        <v>10673.3906</v>
+        <v>2196.936517090909</v>
       </c>
       <c r="G127" t="n">
-        <v>26.86499999999999</v>
+        <v>26.84333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5293,22 +4861,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C128" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D128" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E128" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F128" t="n">
-        <v>9049.4818</v>
+        <v>10673.3906</v>
       </c>
       <c r="G128" t="n">
-        <v>26.88833333333332</v>
+        <v>26.86499999999999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5328,22 +4896,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C129" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D129" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E129" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F129" t="n">
-        <v>631</v>
+        <v>9049.4818</v>
       </c>
       <c r="G129" t="n">
-        <v>26.91333333333332</v>
+        <v>26.88833333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5363,22 +4931,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C130" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D130" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E130" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F130" t="n">
-        <v>58373.1356</v>
+        <v>631</v>
       </c>
       <c r="G130" t="n">
-        <v>26.93666666666666</v>
+        <v>26.91333333333332</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5398,7 +4966,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C131" t="n">
         <v>27.6</v>
@@ -5407,13 +4975,13 @@
         <v>27.6</v>
       </c>
       <c r="E131" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F131" t="n">
-        <v>146300.3623</v>
+        <v>58373.1356</v>
       </c>
       <c r="G131" t="n">
-        <v>26.95999999999999</v>
+        <v>26.93666666666666</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5436,19 +5004,19 @@
         <v>27.6</v>
       </c>
       <c r="C132" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D132" t="n">
         <v>27.6</v>
       </c>
       <c r="E132" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F132" t="n">
-        <v>2010</v>
+        <v>146300.3623</v>
       </c>
       <c r="G132" t="n">
-        <v>26.97999999999999</v>
+        <v>26.95999999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5471,19 +5039,19 @@
         <v>27.6</v>
       </c>
       <c r="C133" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D133" t="n">
         <v>27.6</v>
       </c>
       <c r="E133" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F133" t="n">
-        <v>67160.1375</v>
+        <v>2010</v>
       </c>
       <c r="G133" t="n">
-        <v>27.00499999999999</v>
+        <v>26.97999999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5512,13 +5080,13 @@
         <v>27.6</v>
       </c>
       <c r="E134" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F134" t="n">
-        <v>6806.0581</v>
+        <v>67160.1375</v>
       </c>
       <c r="G134" t="n">
-        <v>27.03333333333332</v>
+        <v>27.00499999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5538,22 +5106,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C135" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D135" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E135" t="n">
         <v>27.5</v>
       </c>
       <c r="F135" t="n">
-        <v>20436</v>
+        <v>6806.0581</v>
       </c>
       <c r="G135" t="n">
-        <v>27.05833333333332</v>
+        <v>27.03333333333332</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5573,22 +5141,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C136" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D136" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E136" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F136" t="n">
-        <v>849.7851000000001</v>
+        <v>20436</v>
       </c>
       <c r="G136" t="n">
-        <v>27.08333333333332</v>
+        <v>27.05833333333332</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5608,22 +5176,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C137" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D137" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E137" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F137" t="n">
-        <v>26877.8057</v>
+        <v>849.7851000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>27.10999999999998</v>
+        <v>27.08333333333332</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5655,10 +5223,10 @@
         <v>27.8</v>
       </c>
       <c r="F138" t="n">
-        <v>7241.0071</v>
+        <v>26877.8057</v>
       </c>
       <c r="G138" t="n">
-        <v>27.13999999999998</v>
+        <v>27.10999999999998</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5678,22 +5246,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C139" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D139" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E139" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F139" t="n">
-        <v>903.0546000000001</v>
+        <v>7241.0071</v>
       </c>
       <c r="G139" t="n">
-        <v>27.16333333333332</v>
+        <v>27.13999999999998</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5713,22 +5281,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C140" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D140" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E140" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F140" t="n">
-        <v>18004.5255</v>
+        <v>903.0546000000001</v>
       </c>
       <c r="G140" t="n">
-        <v>27.18999999999998</v>
+        <v>27.16333333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5760,10 +5328,10 @@
         <v>27.6</v>
       </c>
       <c r="F141" t="n">
-        <v>17000</v>
+        <v>18004.5255</v>
       </c>
       <c r="G141" t="n">
-        <v>27.21333333333331</v>
+        <v>27.18999999999998</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5786,19 +5354,19 @@
         <v>27.6</v>
       </c>
       <c r="C142" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D142" t="n">
         <v>27.6</v>
       </c>
       <c r="E142" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F142" t="n">
-        <v>93069.4918</v>
+        <v>17000</v>
       </c>
       <c r="G142" t="n">
-        <v>27.23499999999998</v>
+        <v>27.21333333333331</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5818,22 +5386,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C143" t="n">
         <v>27.5</v>
       </c>
       <c r="D143" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E143" t="n">
         <v>27.5</v>
       </c>
       <c r="F143" t="n">
-        <v>20660.5077</v>
+        <v>93069.4918</v>
       </c>
       <c r="G143" t="n">
-        <v>27.25666666666665</v>
+        <v>27.23499999999998</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5848,6 +5416,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>20660.5077</v>
+      </c>
+      <c r="G144" t="n">
+        <v>27.25666666666665</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-17 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-17 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>92995.0414</v>
       </c>
       <c r="G2" t="n">
+        <v>26.23333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>26.02499999999998</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>7019</v>
       </c>
       <c r="G3" t="n">
+        <v>26.22000000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>26.02999999999998</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>7377.4427</v>
       </c>
       <c r="G4" t="n">
+        <v>26.20666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>26.03666666666665</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>49449.2358</v>
       </c>
       <c r="G5" t="n">
+        <v>26.20000000000001</v>
+      </c>
+      <c r="H5" t="n">
         <v>26.03833333333332</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>7604.8484</v>
       </c>
       <c r="G6" t="n">
+        <v>26.18666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>26.04166666666665</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>1657.1293</v>
       </c>
       <c r="G7" t="n">
+        <v>26.17333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>26.04666666666665</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>50837.2466</v>
       </c>
       <c r="G8" t="n">
+        <v>26.16666666666668</v>
+      </c>
+      <c r="H8" t="n">
         <v>26.05166666666665</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,27 @@
         <v>2579.6772</v>
       </c>
       <c r="G9" t="n">
+        <v>26.15333333333335</v>
+      </c>
+      <c r="H9" t="n">
         <v>26.06333333333332</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +799,27 @@
         <v>266702.0166</v>
       </c>
       <c r="G10" t="n">
+        <v>26.15333333333335</v>
+      </c>
+      <c r="H10" t="n">
         <v>26.07333333333332</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +843,27 @@
         <v>16913.0534</v>
       </c>
       <c r="G11" t="n">
+        <v>26.14666666666668</v>
+      </c>
+      <c r="H11" t="n">
         <v>26.07833333333332</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +887,27 @@
         <v>16457.8467</v>
       </c>
       <c r="G12" t="n">
+        <v>26.15333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>26.08333333333332</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +931,27 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
+        <v>26.17333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>26.09166666666665</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +975,27 @@
         <v>3772.1894</v>
       </c>
       <c r="G14" t="n">
+        <v>26.17333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>26.09499999999998</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1019,27 @@
         <v>6888.0424</v>
       </c>
       <c r="G15" t="n">
+        <v>26.17333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>26.09833333333332</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1063,27 @@
         <v>1289.9176</v>
       </c>
       <c r="G16" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="H16" t="n">
         <v>26.10166666666665</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1107,29 @@
         <v>4401.7891</v>
       </c>
       <c r="G17" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="H17" t="n">
         <v>26.10833333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1153,29 @@
         <v>13988.0292</v>
       </c>
       <c r="G18" t="n">
+        <v>26.17333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>26.11333333333332</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1199,29 @@
         <v>7900</v>
       </c>
       <c r="G19" t="n">
+        <v>26.16000000000001</v>
+      </c>
+      <c r="H19" t="n">
         <v>26.11666666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1245,29 @@
         <v>992.8325</v>
       </c>
       <c r="G20" t="n">
+        <v>26.16000000000001</v>
+      </c>
+      <c r="H20" t="n">
         <v>26.12166666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>26</v>
+      </c>
+      <c r="L20" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1291,29 @@
         <v>5762.4328</v>
       </c>
       <c r="G21" t="n">
+        <v>26.16666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>26.12666666666665</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1337,29 @@
         <v>3244.7347</v>
       </c>
       <c r="G22" t="n">
+        <v>26.16666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>26.13333333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1383,29 @@
         <v>30472.2393</v>
       </c>
       <c r="G23" t="n">
+        <v>26.16666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>26.13999999999998</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1429,27 @@
         <v>3287.2598</v>
       </c>
       <c r="G24" t="n">
+        <v>26.16000000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>26.14666666666665</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1473,27 @@
         <v>769.0613</v>
       </c>
       <c r="G25" t="n">
+        <v>26.15333333333335</v>
+      </c>
+      <c r="H25" t="n">
         <v>26.15333333333331</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1517,27 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
+        <v>26.15333333333335</v>
+      </c>
+      <c r="H26" t="n">
         <v>26.15999999999998</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1561,27 @@
         <v>132</v>
       </c>
       <c r="G27" t="n">
+        <v>26.15333333333335</v>
+      </c>
+      <c r="H27" t="n">
         <v>26.16666666666665</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1605,27 @@
         <v>76.53870000000001</v>
       </c>
       <c r="G28" t="n">
+        <v>26.14000000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>26.17333333333331</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1649,27 @@
         <v>2212.4251</v>
       </c>
       <c r="G29" t="n">
+        <v>26.13333333333335</v>
+      </c>
+      <c r="H29" t="n">
         <v>26.17833333333332</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1693,27 @@
         <v>23361.1284</v>
       </c>
       <c r="G30" t="n">
+        <v>26.13333333333335</v>
+      </c>
+      <c r="H30" t="n">
         <v>26.18166666666665</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1737,27 @@
         <v>7816</v>
       </c>
       <c r="G31" t="n">
+        <v>26.12666666666668</v>
+      </c>
+      <c r="H31" t="n">
         <v>26.18333333333332</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1781,27 @@
         <v>3550.3458</v>
       </c>
       <c r="G32" t="n">
+        <v>26.12666666666668</v>
+      </c>
+      <c r="H32" t="n">
         <v>26.18666666666665</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1825,27 @@
         <v>1570</v>
       </c>
       <c r="G33" t="n">
+        <v>26.13333333333335</v>
+      </c>
+      <c r="H33" t="n">
         <v>26.18999999999998</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1869,27 @@
         <v>3657.5</v>
       </c>
       <c r="G34" t="n">
+        <v>26.14666666666668</v>
+      </c>
+      <c r="H34" t="n">
         <v>26.18999999999998</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1913,27 @@
         <v>17200</v>
       </c>
       <c r="G35" t="n">
+        <v>26.13333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>26.18333333333332</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1957,27 @@
         <v>11</v>
       </c>
       <c r="G36" t="n">
+        <v>26.14666666666668</v>
+      </c>
+      <c r="H36" t="n">
         <v>26.18333333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2001,27 @@
         <v>46300</v>
       </c>
       <c r="G37" t="n">
+        <v>26.13333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>26.17499999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2045,27 @@
         <v>845.2079</v>
       </c>
       <c r="G38" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="H38" t="n">
         <v>26.16833333333332</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2089,27 @@
         <v>482.0125</v>
       </c>
       <c r="G39" t="n">
+        <v>26.10666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>26.16499999999999</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2133,27 @@
         <v>12594.7547</v>
       </c>
       <c r="G40" t="n">
+        <v>26.08666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>26.15833333333332</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,22 +2177,27 @@
         <v>90484.5039</v>
       </c>
       <c r="G41" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="H41" t="n">
         <v>26.15166666666665</v>
       </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K41" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1852,26 +2221,27 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="H42" t="n">
         <v>26.15166666666665</v>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K42" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1895,24 +2265,27 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="H43" t="n">
         <v>26.15166666666665</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,18 +2309,27 @@
         <v>124742.29</v>
       </c>
       <c r="G44" t="n">
+        <v>26.06666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>26.15333333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,18 +2353,27 @@
         <v>113920.477</v>
       </c>
       <c r="G45" t="n">
+        <v>26.06666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>26.15499999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2397,27 @@
         <v>38</v>
       </c>
       <c r="G46" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="H46" t="n">
         <v>26.15833333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,18 +2441,27 @@
         <v>81518.26489999999</v>
       </c>
       <c r="G47" t="n">
+        <v>26.05333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>26.14833333333332</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2485,27 @@
         <v>12</v>
       </c>
       <c r="G48" t="n">
+        <v>26.05333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>26.14499999999999</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,18 +2529,27 @@
         <v>9000</v>
       </c>
       <c r="G49" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="H49" t="n">
         <v>26.14333333333332</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,18 +2573,27 @@
         <v>258</v>
       </c>
       <c r="G50" t="n">
+        <v>26.09333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>26.14666666666665</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,18 +2617,27 @@
         <v>2605.5942</v>
       </c>
       <c r="G51" t="n">
+        <v>26.08666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>26.14666666666665</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2661,27 @@
         <v>43463.6553</v>
       </c>
       <c r="G52" t="n">
+        <v>26.10666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>26.14499999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2705,27 @@
         <v>25269.8763</v>
       </c>
       <c r="G53" t="n">
+        <v>26.13333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>26.14666666666665</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2749,27 @@
         <v>3583.4942</v>
       </c>
       <c r="G54" t="n">
+        <v>26.16000000000001</v>
+      </c>
+      <c r="H54" t="n">
         <v>26.14499999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2793,27 @@
         <v>25176.3238</v>
       </c>
       <c r="G55" t="n">
+        <v>26.22000000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>26.15333333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2837,27 @@
         <v>12.456</v>
       </c>
       <c r="G56" t="n">
+        <v>26.26666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>26.15666666666665</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2881,27 @@
         <v>157674.7586</v>
       </c>
       <c r="G57" t="n">
+        <v>26.26000000000001</v>
+      </c>
+      <c r="H57" t="n">
         <v>26.15666666666665</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2925,27 @@
         <v>333.867</v>
       </c>
       <c r="G58" t="n">
+        <v>26.25333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>26.15666666666665</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2969,27 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
+        <v>26.26666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>26.15999999999999</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +3013,27 @@
         <v>88032.87880000001</v>
       </c>
       <c r="G60" t="n">
+        <v>26.28000000000001</v>
+      </c>
+      <c r="H60" t="n">
         <v>26.16333333333332</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +3057,27 @@
         <v>27958.3091</v>
       </c>
       <c r="G61" t="n">
+        <v>26.27333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>26.16499999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +3101,27 @@
         <v>27958.309</v>
       </c>
       <c r="G62" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="H62" t="n">
         <v>26.16499999999999</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +3145,27 @@
         <v>17555.8039</v>
       </c>
       <c r="G63" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="H63" t="n">
         <v>26.16499999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +3189,27 @@
         <v>100</v>
       </c>
       <c r="G64" t="n">
+        <v>26.29333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>26.16499999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +3233,27 @@
         <v>52567.4118</v>
       </c>
       <c r="G65" t="n">
+        <v>26.26666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>26.16333333333332</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +3277,27 @@
         <v>11804.5846</v>
       </c>
       <c r="G66" t="n">
+        <v>26.26666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>26.16666666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +3321,27 @@
         <v>10581.8345</v>
       </c>
       <c r="G67" t="n">
+        <v>26.26666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>26.16833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +3365,27 @@
         <v>4168.7808</v>
       </c>
       <c r="G68" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="H68" t="n">
         <v>26.17</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,18 +3409,27 @@
         <v>12889.2372</v>
       </c>
       <c r="G69" t="n">
+        <v>26.25333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>26.17</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,18 +3453,27 @@
         <v>67979.9651</v>
       </c>
       <c r="G70" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="H70" t="n">
         <v>26.165</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,18 +3497,27 @@
         <v>7115.8695</v>
       </c>
       <c r="G71" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="H71" t="n">
         <v>26.165</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,18 +3541,27 @@
         <v>33140.9999</v>
       </c>
       <c r="G72" t="n">
+        <v>26.18666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>26.165</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +3585,27 @@
         <v>270090.57</v>
       </c>
       <c r="G73" t="n">
+        <v>26.19333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>26.16166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3629,27 @@
         <v>3823</v>
       </c>
       <c r="G74" t="n">
+        <v>26.17333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>26.15999999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3673,27 @@
         <v>9975.5</v>
       </c>
       <c r="G75" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="H75" t="n">
         <v>26.15499999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3717,27 @@
         <v>33945.879</v>
       </c>
       <c r="G76" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="H76" t="n">
         <v>26.15499999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3761,27 @@
         <v>19066.7553</v>
       </c>
       <c r="G77" t="n">
+        <v>26.13333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>26.15333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3805,27 @@
         <v>10227.6675</v>
       </c>
       <c r="G78" t="n">
+        <v>26.13333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>26.15499999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3849,27 @@
         <v>27431</v>
       </c>
       <c r="G79" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="H79" t="n">
         <v>26.15499999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3893,27 @@
         <v>5543</v>
       </c>
       <c r="G80" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="H80" t="n">
         <v>26.15833333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3937,27 @@
         <v>16870.7708</v>
       </c>
       <c r="G81" t="n">
+        <v>26.12666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>26.15666666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3981,27 @@
         <v>11127.222</v>
       </c>
       <c r="G82" t="n">
+        <v>26.12666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>26.15833333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +4025,27 @@
         <v>9000</v>
       </c>
       <c r="G83" t="n">
+        <v>26.12666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>26.16</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +4069,27 @@
         <v>32131.8581</v>
       </c>
       <c r="G84" t="n">
+        <v>26.12666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>26.16166666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +4113,27 @@
         <v>20164.3474</v>
       </c>
       <c r="G85" t="n">
+        <v>26.13333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>26.16000000000001</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +4157,27 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
+        <v>26.13333333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>26.16000000000001</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +4201,27 @@
         <v>14415.601</v>
       </c>
       <c r="G87" t="n">
+        <v>26.13333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>26.16000000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +4245,27 @@
         <v>1853.4351</v>
       </c>
       <c r="G88" t="n">
+        <v>26.13333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>26.16000000000001</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +4289,27 @@
         <v>2319</v>
       </c>
       <c r="G89" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="H89" t="n">
         <v>26.16166666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +4333,27 @@
         <v>18702.5995</v>
       </c>
       <c r="G90" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="H90" t="n">
         <v>26.16166666666668</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +4377,27 @@
         <v>5984.2766</v>
       </c>
       <c r="G91" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="H91" t="n">
         <v>26.16333333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +4421,27 @@
         <v>10800</v>
       </c>
       <c r="G92" t="n">
+        <v>26.17333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>26.16500000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +4465,27 @@
         <v>11733.057</v>
       </c>
       <c r="G93" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="H93" t="n">
         <v>26.16666666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +4509,27 @@
         <v>120730.1447</v>
       </c>
       <c r="G94" t="n">
+        <v>26.20666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>26.17000000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +4553,27 @@
         <v>132168.6644</v>
       </c>
       <c r="G95" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="H95" t="n">
         <v>26.18000000000001</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4597,27 @@
         <v>26149.6506</v>
       </c>
       <c r="G96" t="n">
+        <v>26.25333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>26.18333333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4641,27 @@
         <v>21942.4207</v>
       </c>
       <c r="G97" t="n">
+        <v>26.28666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>26.19666666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4685,27 @@
         <v>93202.1786</v>
       </c>
       <c r="G98" t="n">
+        <v>26.33333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>26.21333333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4729,27 @@
         <v>93328.1542</v>
       </c>
       <c r="G99" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="H99" t="n">
         <v>26.23500000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4773,27 @@
         <v>1000</v>
       </c>
       <c r="G100" t="n">
+        <v>26.48666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>26.26000000000001</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4817,27 @@
         <v>24446.7444</v>
       </c>
       <c r="G101" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="H101" t="n">
         <v>26.28500000000001</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4861,27 @@
         <v>10626</v>
       </c>
       <c r="G102" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="H102" t="n">
         <v>26.30500000000001</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4905,27 @@
         <v>14041.0763</v>
       </c>
       <c r="G103" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="H103" t="n">
         <v>26.32500000000001</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4949,27 @@
         <v>1000</v>
       </c>
       <c r="G104" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="H104" t="n">
         <v>26.34500000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4993,27 @@
         <v>4439.5668</v>
       </c>
       <c r="G105" t="n">
+        <v>26.88666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>26.36666666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +5037,27 @@
         <v>699.3454</v>
       </c>
       <c r="G106" t="n">
+        <v>26.97333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>26.38666666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +5081,27 @@
         <v>174803.4438</v>
       </c>
       <c r="G107" t="n">
+        <v>27.05333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>26.41500000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +5125,27 @@
         <v>24.779</v>
       </c>
       <c r="G108" t="n">
+        <v>27.13333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>26.43666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +5169,27 @@
         <v>125264.8699</v>
       </c>
       <c r="G109" t="n">
+        <v>27.19333333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>26.45333333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +5213,27 @@
         <v>11</v>
       </c>
       <c r="G110" t="n">
+        <v>27.25333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>26.47000000000001</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +5257,27 @@
         <v>29100</v>
       </c>
       <c r="G111" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="H111" t="n">
         <v>26.49166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +5301,27 @@
         <v>6154.7007</v>
       </c>
       <c r="G112" t="n">
+        <v>27.37333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>26.51333333333334</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +5345,27 @@
         <v>8900</v>
       </c>
       <c r="G113" t="n">
+        <v>27.41333333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>26.53333333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +5389,27 @@
         <v>6132.4742</v>
       </c>
       <c r="G114" t="n">
+        <v>27.43333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>26.55333333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +5433,27 @@
         <v>48791.6762</v>
       </c>
       <c r="G115" t="n">
+        <v>27.44</v>
+      </c>
+      <c r="H115" t="n">
         <v>26.56500000000001</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +5477,27 @@
         <v>64070.0505</v>
       </c>
       <c r="G116" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="H116" t="n">
         <v>26.58333333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +5521,27 @@
         <v>27765.6738</v>
       </c>
       <c r="G117" t="n">
+        <v>27.47333333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>26.60833333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,19 +5565,28 @@
         <v>13347.7712</v>
       </c>
       <c r="G118" t="n">
+        <v>27.48666666666668</v>
+      </c>
+      <c r="H118" t="n">
         <v>26.63333333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
+      <c r="L118" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>1.048435114503817</v>
       </c>
     </row>
     <row r="119">
@@ -4561,18 +5609,21 @@
         <v>66993.10460000001</v>
       </c>
       <c r="G119" t="n">
+        <v>27.50666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>26.65500000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +5647,21 @@
         <v>9464.0568</v>
       </c>
       <c r="G120" t="n">
+        <v>27.52666666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>26.67833333333334</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +5685,21 @@
         <v>2232.6508</v>
       </c>
       <c r="G121" t="n">
+        <v>27.54666666666668</v>
+      </c>
+      <c r="H121" t="n">
         <v>26.705</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5723,21 @@
         <v>18000</v>
       </c>
       <c r="G122" t="n">
+        <v>27.54666666666668</v>
+      </c>
+      <c r="H122" t="n">
         <v>26.72666666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5761,21 @@
         <v>3779.5379</v>
       </c>
       <c r="G123" t="n">
+        <v>27.55333333333335</v>
+      </c>
+      <c r="H123" t="n">
         <v>26.75</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5799,21 @@
         <v>2547.5543</v>
       </c>
       <c r="G124" t="n">
+        <v>27.57333333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>26.77333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5837,21 @@
         <v>100</v>
       </c>
       <c r="G125" t="n">
+        <v>27.58666666666668</v>
+      </c>
+      <c r="H125" t="n">
         <v>26.8</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5875,21 @@
         <v>1562.7479</v>
       </c>
       <c r="G126" t="n">
+        <v>27.58666666666668</v>
+      </c>
+      <c r="H126" t="n">
         <v>26.82166666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5913,21 @@
         <v>2196.936517090909</v>
       </c>
       <c r="G127" t="n">
+        <v>27.58666666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>26.84333333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5951,21 @@
         <v>10673.3906</v>
       </c>
       <c r="G128" t="n">
+        <v>27.58666666666668</v>
+      </c>
+      <c r="H128" t="n">
         <v>26.86499999999999</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5989,21 @@
         <v>9049.4818</v>
       </c>
       <c r="G129" t="n">
+        <v>27.59333333333335</v>
+      </c>
+      <c r="H129" t="n">
         <v>26.88833333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +6027,21 @@
         <v>631</v>
       </c>
       <c r="G130" t="n">
+        <v>27.59333333333335</v>
+      </c>
+      <c r="H130" t="n">
         <v>26.91333333333332</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +6065,21 @@
         <v>58373.1356</v>
       </c>
       <c r="G131" t="n">
+        <v>27.59333333333335</v>
+      </c>
+      <c r="H131" t="n">
         <v>26.93666666666666</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +6103,21 @@
         <v>146300.3623</v>
       </c>
       <c r="G132" t="n">
+        <v>27.59333333333335</v>
+      </c>
+      <c r="H132" t="n">
         <v>26.95999999999999</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +6141,21 @@
         <v>2010</v>
       </c>
       <c r="G133" t="n">
+        <v>27.58000000000002</v>
+      </c>
+      <c r="H133" t="n">
         <v>26.97999999999999</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +6179,21 @@
         <v>67160.1375</v>
       </c>
       <c r="G134" t="n">
+        <v>27.57333333333335</v>
+      </c>
+      <c r="H134" t="n">
         <v>27.00499999999999</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +6217,21 @@
         <v>6806.0581</v>
       </c>
       <c r="G135" t="n">
+        <v>27.56000000000002</v>
+      </c>
+      <c r="H135" t="n">
         <v>27.03333333333332</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +6255,21 @@
         <v>20436</v>
       </c>
       <c r="G136" t="n">
+        <v>27.55333333333335</v>
+      </c>
+      <c r="H136" t="n">
         <v>27.05833333333332</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +6293,21 @@
         <v>849.7851000000001</v>
       </c>
       <c r="G137" t="n">
+        <v>27.56000000000002</v>
+      </c>
+      <c r="H137" t="n">
         <v>27.08333333333332</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +6331,21 @@
         <v>26877.8057</v>
       </c>
       <c r="G138" t="n">
+        <v>27.57333333333335</v>
+      </c>
+      <c r="H138" t="n">
         <v>27.10999999999998</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +6369,21 @@
         <v>7241.0071</v>
       </c>
       <c r="G139" t="n">
+        <v>27.58666666666668</v>
+      </c>
+      <c r="H139" t="n">
         <v>27.13999999999998</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +6407,21 @@
         <v>903.0546000000001</v>
       </c>
       <c r="G140" t="n">
+        <v>27.59333333333335</v>
+      </c>
+      <c r="H140" t="n">
         <v>27.16333333333332</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +6445,21 @@
         <v>18004.5255</v>
       </c>
       <c r="G141" t="n">
+        <v>27.60000000000002</v>
+      </c>
+      <c r="H141" t="n">
         <v>27.18999999999998</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +6483,21 @@
         <v>17000</v>
       </c>
       <c r="G142" t="n">
+        <v>27.60666666666668</v>
+      </c>
+      <c r="H142" t="n">
         <v>27.21333333333331</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +6521,21 @@
         <v>93069.4918</v>
       </c>
       <c r="G143" t="n">
+        <v>27.60666666666668</v>
+      </c>
+      <c r="H143" t="n">
         <v>27.23499999999998</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +6559,401 @@
         <v>20660.5077</v>
       </c>
       <c r="G144" t="n">
+        <v>27.60000000000002</v>
+      </c>
+      <c r="H144" t="n">
         <v>27.25666666666665</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>269368.6388</v>
+      </c>
+      <c r="G145" t="n">
+        <v>27.62000000000002</v>
+      </c>
+      <c r="H145" t="n">
+        <v>27.28499999999998</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E146" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3767</v>
+      </c>
+      <c r="G146" t="n">
+        <v>27.60666666666668</v>
+      </c>
+      <c r="H146" t="n">
+        <v>27.30499999999998</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>18249.8813</v>
+      </c>
+      <c r="G147" t="n">
+        <v>27.60666666666668</v>
+      </c>
+      <c r="H147" t="n">
+        <v>27.32833333333331</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C148" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3611.1111</v>
+      </c>
+      <c r="G148" t="n">
+        <v>27.62000000000002</v>
+      </c>
+      <c r="H148" t="n">
+        <v>27.35166666666664</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C149" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D149" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E149" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>28054.6875</v>
+      </c>
+      <c r="G149" t="n">
+        <v>27.60666666666668</v>
+      </c>
+      <c r="H149" t="n">
+        <v>27.37166666666664</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E150" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1111.7205</v>
+      </c>
+      <c r="G150" t="n">
+        <v>27.59333333333334</v>
+      </c>
+      <c r="H150" t="n">
+        <v>27.39166666666664</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D151" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F151" t="n">
+        <v>28054.6875</v>
+      </c>
+      <c r="G151" t="n">
+        <v>27.57333333333334</v>
+      </c>
+      <c r="H151" t="n">
+        <v>27.41166666666664</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C152" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F152" t="n">
+        <v>623.0228</v>
+      </c>
+      <c r="G152" t="n">
+        <v>27.57333333333334</v>
+      </c>
+      <c r="H152" t="n">
+        <v>27.43333333333331</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>689.1529</v>
+      </c>
+      <c r="G153" t="n">
+        <v>27.55333333333334</v>
+      </c>
+      <c r="H153" t="n">
+        <v>27.45333333333331</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E154" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3133.0798</v>
+      </c>
+      <c r="G154" t="n">
+        <v>27.54000000000001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>27.47333333333331</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-17 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>92995.0414</v>
+        <v>371.4957</v>
       </c>
       <c r="G2" t="n">
-        <v>26.23333333333334</v>
+        <v>-2052469.0143</v>
       </c>
       <c r="H2" t="n">
-        <v>26.02499999999998</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -488,28 +480,21 @@
         <v>26.2</v>
       </c>
       <c r="F3" t="n">
-        <v>7019</v>
+        <v>4800</v>
       </c>
       <c r="G3" t="n">
-        <v>26.22000000000001</v>
+        <v>-2047669.0143</v>
       </c>
       <c r="H3" t="n">
-        <v>26.02999999999998</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -521,41 +506,30 @@
         <v>26.2</v>
       </c>
       <c r="C4" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="D4" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E4" t="n">
         <v>26.2</v>
       </c>
       <c r="F4" t="n">
-        <v>7377.4427</v>
+        <v>2100</v>
       </c>
       <c r="G4" t="n">
-        <v>26.20666666666667</v>
+        <v>-2045569.0143</v>
       </c>
       <c r="H4" t="n">
-        <v>26.03666666666665</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C5" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="D5" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E5" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="F5" t="n">
-        <v>49449.2358</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>26.20000000000001</v>
+        <v>-2045569.0143</v>
       </c>
       <c r="H5" t="n">
-        <v>26.03833333333332</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="F6" t="n">
-        <v>7604.8484</v>
+        <v>47211.1837</v>
       </c>
       <c r="G6" t="n">
-        <v>26.18666666666667</v>
+        <v>-1998357.8306</v>
       </c>
       <c r="H6" t="n">
-        <v>26.04166666666665</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="C7" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="D7" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E7" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1657.1293</v>
+        <v>942.2071</v>
       </c>
       <c r="G7" t="n">
-        <v>26.17333333333334</v>
+        <v>-1999300.0377</v>
       </c>
       <c r="H7" t="n">
-        <v>26.04666666666665</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -708,30 +655,21 @@
         <v>26.1</v>
       </c>
       <c r="F8" t="n">
-        <v>50837.2466</v>
+        <v>942.2071</v>
       </c>
       <c r="G8" t="n">
-        <v>26.16666666666668</v>
+        <v>-2000242.2448</v>
       </c>
       <c r="H8" t="n">
-        <v>26.05166666666665</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -752,30 +690,21 @@
         <v>26.2</v>
       </c>
       <c r="F9" t="n">
-        <v>2579.6772</v>
+        <v>19.0458</v>
       </c>
       <c r="G9" t="n">
-        <v>26.15333333333335</v>
+        <v>-2000223.199</v>
       </c>
       <c r="H9" t="n">
-        <v>26.06333333333332</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -784,42 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C10" t="n">
         <v>26.2</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E10" t="n">
         <v>26.2</v>
       </c>
       <c r="F10" t="n">
-        <v>266702.0166</v>
+        <v>1000</v>
       </c>
       <c r="G10" t="n">
-        <v>26.15333333333335</v>
+        <v>-2000223.199</v>
       </c>
       <c r="H10" t="n">
-        <v>26.07333333333332</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -840,30 +760,21 @@
         <v>26.2</v>
       </c>
       <c r="F11" t="n">
-        <v>16913.0534</v>
+        <v>12962.8349</v>
       </c>
       <c r="G11" t="n">
-        <v>26.14666666666668</v>
+        <v>-2000223.199</v>
       </c>
       <c r="H11" t="n">
-        <v>26.07833333333332</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -884,30 +795,21 @@
         <v>26.2</v>
       </c>
       <c r="F12" t="n">
-        <v>16457.8467</v>
+        <v>1666.9517</v>
       </c>
       <c r="G12" t="n">
-        <v>26.15333333333334</v>
+        <v>-2000223.199</v>
       </c>
       <c r="H12" t="n">
-        <v>26.08333333333332</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -916,42 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C13" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="D13" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E13" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>8194.1785</v>
       </c>
       <c r="G13" t="n">
-        <v>26.17333333333334</v>
+        <v>-2008417.3775</v>
       </c>
       <c r="H13" t="n">
-        <v>26.09166666666665</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -963,39 +856,30 @@
         <v>26.2</v>
       </c>
       <c r="C14" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D14" t="n">
         <v>26.2</v>
       </c>
       <c r="E14" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F14" t="n">
-        <v>3772.1894</v>
+        <v>6600</v>
       </c>
       <c r="G14" t="n">
-        <v>26.17333333333334</v>
+        <v>-2008417.3775</v>
       </c>
       <c r="H14" t="n">
-        <v>26.09499999999998</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1004,42 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D15" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E15" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F15" t="n">
-        <v>6888.0424</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>26.17333333333334</v>
+        <v>-2008417.3775</v>
       </c>
       <c r="H15" t="n">
-        <v>26.09833333333332</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1048,42 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C16" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D16" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E16" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F16" t="n">
-        <v>1289.9176</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>26.18</v>
+        <v>-2008407.3775</v>
       </c>
       <c r="H16" t="n">
-        <v>26.10166666666665</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1092,44 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C17" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D17" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E17" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F17" t="n">
-        <v>4401.7891</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>26.18</v>
+        <v>-2008407.3775</v>
       </c>
       <c r="H17" t="n">
-        <v>26.10833333333332</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1138,44 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="C18" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="D18" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="E18" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="F18" t="n">
-        <v>13988.0292</v>
+        <v>18939.39393939394</v>
       </c>
       <c r="G18" t="n">
-        <v>26.17333333333334</v>
+        <v>-2008407.3775</v>
       </c>
       <c r="H18" t="n">
-        <v>26.11333333333332</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1184,44 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E19" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F19" t="n">
-        <v>7900</v>
+        <v>1697.1494</v>
       </c>
       <c r="G19" t="n">
-        <v>26.16000000000001</v>
+        <v>-2010104.5269</v>
       </c>
       <c r="H19" t="n">
-        <v>26.11666666666666</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1230,44 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C20" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D20" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E20" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F20" t="n">
-        <v>992.8325</v>
+        <v>6699.3713</v>
       </c>
       <c r="G20" t="n">
-        <v>26.16000000000001</v>
+        <v>-2010104.5269</v>
       </c>
       <c r="H20" t="n">
-        <v>26.12166666666666</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>26</v>
-      </c>
-      <c r="L20" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1276,44 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="C21" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="D21" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E21" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="F21" t="n">
-        <v>5762.4328</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>26.16666666666667</v>
+        <v>-2010094.5269</v>
       </c>
       <c r="H21" t="n">
-        <v>26.12666666666665</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1322,44 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C22" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D22" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E22" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F22" t="n">
-        <v>3244.7347</v>
+        <v>369.9027</v>
       </c>
       <c r="G22" t="n">
-        <v>26.16666666666667</v>
+        <v>-2010464.4296</v>
       </c>
       <c r="H22" t="n">
-        <v>26.13333333333332</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1368,44 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="C23" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="D23" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="E23" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="F23" t="n">
-        <v>30472.2393</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>26.16666666666667</v>
+        <v>-2010454.4296</v>
       </c>
       <c r="H23" t="n">
-        <v>26.13999999999998</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1414,42 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C24" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D24" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E24" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F24" t="n">
-        <v>3287.2598</v>
+        <v>6529</v>
       </c>
       <c r="G24" t="n">
-        <v>26.16000000000001</v>
+        <v>-2016983.4296</v>
       </c>
       <c r="H24" t="n">
-        <v>26.14666666666665</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1458,42 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="C25" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="D25" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E25" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="F25" t="n">
-        <v>769.0613</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>26.15333333333335</v>
+        <v>-2016971.4296</v>
       </c>
       <c r="H25" t="n">
-        <v>26.15333333333331</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,42 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C26" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D26" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E26" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>5177.7212</v>
       </c>
       <c r="G26" t="n">
-        <v>26.15333333333335</v>
+        <v>-2022149.1508</v>
       </c>
       <c r="H26" t="n">
-        <v>26.15999999999998</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1546,42 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C27" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D27" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E27" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F27" t="n">
-        <v>132</v>
+        <v>1447.7999</v>
       </c>
       <c r="G27" t="n">
-        <v>26.15333333333335</v>
+        <v>-2022149.1508</v>
       </c>
       <c r="H27" t="n">
-        <v>26.16666666666665</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1602,30 +1355,21 @@
         <v>26.2</v>
       </c>
       <c r="F28" t="n">
-        <v>76.53870000000001</v>
+        <v>320.0292</v>
       </c>
       <c r="G28" t="n">
-        <v>26.14000000000001</v>
+        <v>-2021829.1216</v>
       </c>
       <c r="H28" t="n">
-        <v>26.17333333333331</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1634,42 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C29" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D29" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E29" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F29" t="n">
-        <v>2212.4251</v>
+        <v>10200</v>
       </c>
       <c r="G29" t="n">
-        <v>26.13333333333335</v>
+        <v>-2021829.1216</v>
       </c>
       <c r="H29" t="n">
-        <v>26.17833333333332</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,42 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C30" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D30" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E30" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F30" t="n">
-        <v>23361.1284</v>
+        <v>2826.7979</v>
       </c>
       <c r="G30" t="n">
-        <v>26.13333333333335</v>
+        <v>-2024655.9195</v>
       </c>
       <c r="H30" t="n">
-        <v>26.18166666666665</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1725,39 +1451,30 @@
         <v>26.1</v>
       </c>
       <c r="C31" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D31" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E31" t="n">
         <v>26.1</v>
       </c>
       <c r="F31" t="n">
-        <v>7816</v>
+        <v>92995.0414</v>
       </c>
       <c r="G31" t="n">
-        <v>26.12666666666668</v>
+        <v>-1931660.8781</v>
       </c>
       <c r="H31" t="n">
-        <v>26.18333333333332</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,30 +1495,21 @@
         <v>26.2</v>
       </c>
       <c r="F32" t="n">
-        <v>3550.3458</v>
+        <v>7019</v>
       </c>
       <c r="G32" t="n">
-        <v>26.12666666666668</v>
+        <v>-1931660.8781</v>
       </c>
       <c r="H32" t="n">
-        <v>26.18666666666665</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,30 +1530,21 @@
         <v>26.2</v>
       </c>
       <c r="F33" t="n">
-        <v>1570</v>
+        <v>7377.4427</v>
       </c>
       <c r="G33" t="n">
-        <v>26.13333333333335</v>
+        <v>-1931660.8781</v>
       </c>
       <c r="H33" t="n">
-        <v>26.18999999999998</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1857,39 +1556,30 @@
         <v>26.2</v>
       </c>
       <c r="C34" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D34" t="n">
         <v>26.2</v>
       </c>
       <c r="E34" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F34" t="n">
-        <v>3657.5</v>
+        <v>49449.2358</v>
       </c>
       <c r="G34" t="n">
-        <v>26.14666666666668</v>
+        <v>-1981110.1139</v>
       </c>
       <c r="H34" t="n">
-        <v>26.18999999999998</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,39 +1591,30 @@
         <v>26</v>
       </c>
       <c r="C35" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D35" t="n">
         <v>26</v>
       </c>
       <c r="E35" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F35" t="n">
-        <v>17200</v>
+        <v>7604.8484</v>
       </c>
       <c r="G35" t="n">
-        <v>26.13333333333334</v>
+        <v>-1988714.9623</v>
       </c>
       <c r="H35" t="n">
-        <v>26.18333333333332</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1942,42 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C36" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D36" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="E36" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F36" t="n">
-        <v>11</v>
+        <v>1657.1293</v>
       </c>
       <c r="G36" t="n">
-        <v>26.14666666666668</v>
+        <v>-1987057.833</v>
       </c>
       <c r="H36" t="n">
-        <v>26.18333333333332</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1986,42 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C37" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="D37" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E37" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="F37" t="n">
-        <v>46300</v>
+        <v>50837.2466</v>
       </c>
       <c r="G37" t="n">
-        <v>26.13333333333334</v>
+        <v>-1987057.833</v>
       </c>
       <c r="H37" t="n">
-        <v>26.17499999999999</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2030,42 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="C38" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="D38" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="E38" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F38" t="n">
-        <v>845.2079</v>
+        <v>2579.6772</v>
       </c>
       <c r="G38" t="n">
-        <v>26.12</v>
+        <v>-1984478.1558</v>
       </c>
       <c r="H38" t="n">
-        <v>26.16833333333332</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,42 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="C39" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="D39" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="E39" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F39" t="n">
-        <v>482.0125</v>
+        <v>266702.0166</v>
       </c>
       <c r="G39" t="n">
-        <v>26.10666666666667</v>
+        <v>-1984478.1558</v>
       </c>
       <c r="H39" t="n">
-        <v>26.16499999999999</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2118,42 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="C40" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="D40" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="E40" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="F40" t="n">
-        <v>12594.7547</v>
+        <v>16913.0534</v>
       </c>
       <c r="G40" t="n">
-        <v>26.08666666666667</v>
+        <v>-1984478.1558</v>
       </c>
       <c r="H40" t="n">
-        <v>26.15833333333332</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2162,42 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="C41" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="D41" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="E41" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="F41" t="n">
-        <v>90484.5039</v>
+        <v>16457.8467</v>
       </c>
       <c r="G41" t="n">
-        <v>26.06</v>
+        <v>-1984478.1558</v>
       </c>
       <c r="H41" t="n">
-        <v>26.15166666666665</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2206,42 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C42" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D42" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E42" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>26.06</v>
+        <v>-1984468.1558</v>
       </c>
       <c r="H42" t="n">
-        <v>26.15166666666665</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,30 +1880,21 @@
         <v>26.2</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>3772.1894</v>
       </c>
       <c r="G43" t="n">
-        <v>26.06</v>
+        <v>-1988240.3452</v>
       </c>
       <c r="H43" t="n">
-        <v>26.15166666666665</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2306,30 +1915,21 @@
         <v>26.2</v>
       </c>
       <c r="F44" t="n">
-        <v>124742.29</v>
+        <v>6888.0424</v>
       </c>
       <c r="G44" t="n">
-        <v>26.06666666666667</v>
+        <v>-1988240.3452</v>
       </c>
       <c r="H44" t="n">
-        <v>26.15333333333332</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C45" t="n">
         <v>26.2</v>
@@ -2347,33 +1947,24 @@
         <v>26.2</v>
       </c>
       <c r="E45" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F45" t="n">
-        <v>113920.477</v>
+        <v>1289.9176</v>
       </c>
       <c r="G45" t="n">
-        <v>26.06666666666667</v>
+        <v>-1988240.3452</v>
       </c>
       <c r="H45" t="n">
-        <v>26.15499999999999</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2385,39 +1976,30 @@
         <v>26.2</v>
       </c>
       <c r="C46" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D46" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E46" t="n">
         <v>26.2</v>
       </c>
       <c r="F46" t="n">
-        <v>38</v>
+        <v>4401.7891</v>
       </c>
       <c r="G46" t="n">
-        <v>26.08</v>
+        <v>-1988240.3452</v>
       </c>
       <c r="H46" t="n">
-        <v>26.15833333333332</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,42 +2008,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C47" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="D47" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E47" t="n">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
       <c r="F47" t="n">
-        <v>81518.26489999999</v>
+        <v>13988.0292</v>
       </c>
       <c r="G47" t="n">
-        <v>26.05333333333333</v>
+        <v>-2002228.3744</v>
       </c>
       <c r="H47" t="n">
-        <v>26.14833333333332</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,42 +2047,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C48" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D48" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E48" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F48" t="n">
-        <v>12</v>
+        <v>7900</v>
       </c>
       <c r="G48" t="n">
-        <v>26.05333333333333</v>
+        <v>-2010128.3744</v>
       </c>
       <c r="H48" t="n">
-        <v>26.14499999999999</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,42 +2090,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C49" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D49" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="E49" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F49" t="n">
-        <v>9000</v>
+        <v>992.8325</v>
       </c>
       <c r="G49" t="n">
-        <v>26.06</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H49" t="n">
-        <v>26.14333333333332</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2558,42 +2131,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C50" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="D50" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E50" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F50" t="n">
-        <v>258</v>
+        <v>5762.4328</v>
       </c>
       <c r="G50" t="n">
-        <v>26.09333333333334</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H50" t="n">
-        <v>26.14666666666665</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2602,42 +2166,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C51" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D51" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E51" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F51" t="n">
-        <v>2605.5942</v>
+        <v>3244.7347</v>
       </c>
       <c r="G51" t="n">
-        <v>26.08666666666667</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H51" t="n">
-        <v>26.14666666666665</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2646,42 +2201,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C52" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D52" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E52" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F52" t="n">
-        <v>43463.6553</v>
+        <v>30472.2393</v>
       </c>
       <c r="G52" t="n">
-        <v>26.10666666666667</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H52" t="n">
-        <v>26.14499999999999</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2690,42 +2236,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C53" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D53" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="E53" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F53" t="n">
-        <v>25269.8763</v>
+        <v>3287.2598</v>
       </c>
       <c r="G53" t="n">
-        <v>26.13333333333334</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H53" t="n">
-        <v>26.14666666666665</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,42 +2271,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C54" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D54" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="E54" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F54" t="n">
-        <v>3583.4942</v>
+        <v>769.0613</v>
       </c>
       <c r="G54" t="n">
-        <v>26.16000000000001</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H54" t="n">
-        <v>26.14499999999999</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,42 +2310,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C55" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="D55" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="E55" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F55" t="n">
-        <v>25176.3238</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>26.22000000000001</v>
+        <v>-2009125.5419</v>
       </c>
       <c r="H55" t="n">
-        <v>26.15333333333332</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2822,42 +2353,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="C56" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="D56" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="E56" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="F56" t="n">
-        <v>12.456</v>
+        <v>132</v>
       </c>
       <c r="G56" t="n">
-        <v>26.26666666666667</v>
+        <v>-2009125.5419</v>
       </c>
       <c r="H56" t="n">
-        <v>26.15666666666665</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2866,42 +2396,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="C57" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D57" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E57" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F57" t="n">
-        <v>157674.7586</v>
+        <v>76.53870000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>26.26000000000001</v>
+        <v>-2009125.5419</v>
       </c>
       <c r="H57" t="n">
-        <v>26.15666666666665</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2922,30 +2443,21 @@
         <v>26.1</v>
       </c>
       <c r="F58" t="n">
-        <v>333.867</v>
+        <v>2212.4251</v>
       </c>
       <c r="G58" t="n">
-        <v>26.25333333333334</v>
+        <v>-2011337.967</v>
       </c>
       <c r="H58" t="n">
-        <v>26.15666666666665</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2954,42 +2466,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="C59" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D59" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E59" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>23361.1284</v>
       </c>
       <c r="G59" t="n">
-        <v>26.26666666666667</v>
+        <v>-1987976.8386</v>
       </c>
       <c r="H59" t="n">
-        <v>26.15999999999999</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,42 +2501,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C60" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="D60" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E60" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F60" t="n">
-        <v>88032.87880000001</v>
+        <v>7816</v>
       </c>
       <c r="G60" t="n">
-        <v>26.28000000000001</v>
+        <v>-1995792.8386</v>
       </c>
       <c r="H60" t="n">
-        <v>26.16333333333332</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,30 +2548,21 @@
         <v>26.2</v>
       </c>
       <c r="F61" t="n">
-        <v>27958.3091</v>
+        <v>3550.3458</v>
       </c>
       <c r="G61" t="n">
-        <v>26.27333333333334</v>
+        <v>-1992242.4928</v>
       </c>
       <c r="H61" t="n">
-        <v>26.16499999999999</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,30 +2583,21 @@
         <v>26.2</v>
       </c>
       <c r="F62" t="n">
-        <v>27958.309</v>
+        <v>1570</v>
       </c>
       <c r="G62" t="n">
-        <v>26.3</v>
+        <v>-1992242.4928</v>
       </c>
       <c r="H62" t="n">
-        <v>26.16499999999999</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,30 +2618,21 @@
         <v>26.2</v>
       </c>
       <c r="F63" t="n">
-        <v>17555.8039</v>
+        <v>3657.5</v>
       </c>
       <c r="G63" t="n">
-        <v>26.3</v>
+        <v>-1992242.4928</v>
       </c>
       <c r="H63" t="n">
-        <v>26.16499999999999</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,42 +2641,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C64" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D64" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E64" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>17200</v>
       </c>
       <c r="G64" t="n">
-        <v>26.29333333333334</v>
+        <v>-2009442.4928</v>
       </c>
       <c r="H64" t="n">
-        <v>26.16499999999999</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3218,42 +2676,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="C65" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="D65" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="E65" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="F65" t="n">
-        <v>52567.4118</v>
+        <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>26.26666666666667</v>
+        <v>-2009431.4928</v>
       </c>
       <c r="H65" t="n">
-        <v>26.16333333333332</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K65" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3262,42 +2715,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="C66" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D66" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="E66" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F66" t="n">
-        <v>11804.5846</v>
+        <v>46300</v>
       </c>
       <c r="G66" t="n">
-        <v>26.26666666666667</v>
+        <v>-2055731.4928</v>
       </c>
       <c r="H66" t="n">
-        <v>26.16666666666666</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,42 +2756,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="C67" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D67" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="E67" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F67" t="n">
-        <v>10581.8345</v>
+        <v>845.2079</v>
       </c>
       <c r="G67" t="n">
-        <v>26.26666666666667</v>
+        <v>-2055731.4928</v>
       </c>
       <c r="H67" t="n">
-        <v>26.16833333333333</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3350,42 +2797,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C68" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D68" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="E68" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="F68" t="n">
-        <v>4168.7808</v>
+        <v>482.0125</v>
       </c>
       <c r="G68" t="n">
-        <v>26.26</v>
+        <v>-2055731.4928</v>
       </c>
       <c r="H68" t="n">
-        <v>26.17</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,42 +2838,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="C69" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D69" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="E69" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F69" t="n">
-        <v>12889.2372</v>
+        <v>12594.7547</v>
       </c>
       <c r="G69" t="n">
-        <v>26.25333333333333</v>
+        <v>-2068326.2475</v>
       </c>
       <c r="H69" t="n">
-        <v>26.17</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,42 +2879,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="C70" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="D70" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="E70" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="F70" t="n">
-        <v>67979.9651</v>
+        <v>90484.5039</v>
       </c>
       <c r="G70" t="n">
-        <v>26.2</v>
+        <v>-2068326.2475</v>
       </c>
       <c r="H70" t="n">
-        <v>26.165</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,30 +2932,27 @@
         <v>26.2</v>
       </c>
       <c r="F71" t="n">
-        <v>7115.8695</v>
+        <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>26.18</v>
+        <v>-2068315.2475</v>
       </c>
       <c r="H71" t="n">
-        <v>26.165</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,30 +2973,27 @@
         <v>26.2</v>
       </c>
       <c r="F72" t="n">
-        <v>33140.9999</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>26.18666666666666</v>
+        <v>-2068315.2475</v>
       </c>
       <c r="H72" t="n">
-        <v>26.165</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,7 +3002,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="C73" t="n">
         <v>26.2</v>
@@ -3579,33 +3011,30 @@
         <v>26.2</v>
       </c>
       <c r="E73" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F73" t="n">
-        <v>270090.57</v>
+        <v>124742.29</v>
       </c>
       <c r="G73" t="n">
-        <v>26.19333333333333</v>
+        <v>-2068315.2475</v>
       </c>
       <c r="H73" t="n">
-        <v>26.16166666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3617,39 +3046,36 @@
         <v>26.1</v>
       </c>
       <c r="C74" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D74" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E74" t="n">
         <v>26.1</v>
       </c>
       <c r="F74" t="n">
-        <v>3823</v>
+        <v>113920.477</v>
       </c>
       <c r="G74" t="n">
-        <v>26.17333333333333</v>
+        <v>-2068315.2475</v>
       </c>
       <c r="H74" t="n">
-        <v>26.15999999999999</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,42 +3084,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="C75" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="D75" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="E75" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F75" t="n">
-        <v>9975.5</v>
+        <v>38</v>
       </c>
       <c r="G75" t="n">
-        <v>26.14</v>
+        <v>-2068277.2475</v>
       </c>
       <c r="H75" t="n">
-        <v>26.15499999999999</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,42 +3125,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="C76" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D76" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E76" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="F76" t="n">
-        <v>33945.879</v>
+        <v>81518.26489999999</v>
       </c>
       <c r="G76" t="n">
-        <v>26.14</v>
+        <v>-2149795.5124</v>
       </c>
       <c r="H76" t="n">
-        <v>26.15499999999999</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3746,42 +3166,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C77" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D77" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E77" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F77" t="n">
-        <v>19066.7553</v>
+        <v>12</v>
       </c>
       <c r="G77" t="n">
-        <v>26.13333333333333</v>
+        <v>-2149783.5124</v>
       </c>
       <c r="H77" t="n">
-        <v>26.15333333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,39 +3210,36 @@
         <v>26.2</v>
       </c>
       <c r="C78" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="D78" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E78" t="n">
         <v>26.2</v>
       </c>
       <c r="F78" t="n">
-        <v>10227.6675</v>
+        <v>9000</v>
       </c>
       <c r="G78" t="n">
-        <v>26.13333333333333</v>
+        <v>-2140783.5124</v>
       </c>
       <c r="H78" t="n">
-        <v>26.15499999999999</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3834,42 +3248,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="C79" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="D79" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="E79" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="F79" t="n">
-        <v>27431</v>
+        <v>258</v>
       </c>
       <c r="G79" t="n">
-        <v>26.12</v>
+        <v>-2140525.5124</v>
       </c>
       <c r="H79" t="n">
-        <v>26.15499999999999</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,42 +3289,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C80" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D80" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E80" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F80" t="n">
-        <v>5543</v>
+        <v>2605.5942</v>
       </c>
       <c r="G80" t="n">
-        <v>26.14</v>
+        <v>-2143131.1066</v>
       </c>
       <c r="H80" t="n">
-        <v>26.15833333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,42 +3330,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="C81" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D81" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="E81" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F81" t="n">
-        <v>16870.7708</v>
+        <v>43463.6553</v>
       </c>
       <c r="G81" t="n">
-        <v>26.12666666666667</v>
+        <v>-2143131.1066</v>
       </c>
       <c r="H81" t="n">
-        <v>26.15666666666666</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3969,39 +3374,36 @@
         <v>26.2</v>
       </c>
       <c r="C82" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="D82" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E82" t="n">
         <v>26.2</v>
       </c>
       <c r="F82" t="n">
-        <v>11127.222</v>
+        <v>25269.8763</v>
       </c>
       <c r="G82" t="n">
-        <v>26.12666666666667</v>
+        <v>-2117861.2303</v>
       </c>
       <c r="H82" t="n">
-        <v>26.15833333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,42 +3412,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C83" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="D83" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E83" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F83" t="n">
-        <v>9000</v>
+        <v>3583.4942</v>
       </c>
       <c r="G83" t="n">
-        <v>26.12666666666667</v>
+        <v>-2117861.2303</v>
       </c>
       <c r="H83" t="n">
-        <v>26.16</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,42 +3453,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="C84" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="D84" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="E84" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="F84" t="n">
-        <v>32131.8581</v>
+        <v>25176.3238</v>
       </c>
       <c r="G84" t="n">
-        <v>26.12666666666667</v>
+        <v>-2092684.9065</v>
       </c>
       <c r="H84" t="n">
-        <v>26.16166666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4098,42 +3494,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="C85" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="D85" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="E85" t="n">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="F85" t="n">
-        <v>20164.3474</v>
+        <v>12.456</v>
       </c>
       <c r="G85" t="n">
-        <v>26.13333333333334</v>
+        <v>-2092697.3625</v>
       </c>
       <c r="H85" t="n">
-        <v>26.16000000000001</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,42 +3535,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C86" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D86" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E86" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>157674.7586</v>
       </c>
       <c r="G86" t="n">
-        <v>26.13333333333334</v>
+        <v>-2250372.1211</v>
       </c>
       <c r="H86" t="n">
-        <v>26.16000000000001</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4186,42 +3576,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C87" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D87" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E87" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F87" t="n">
-        <v>14415.601</v>
+        <v>333.867</v>
       </c>
       <c r="G87" t="n">
-        <v>26.13333333333334</v>
+        <v>-2250372.1211</v>
       </c>
       <c r="H87" t="n">
-        <v>26.16000000000001</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4230,42 +3617,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C88" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D88" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E88" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F88" t="n">
-        <v>1853.4351</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>26.13333333333334</v>
+        <v>-2250362.1211</v>
       </c>
       <c r="H88" t="n">
-        <v>26.16000000000001</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,42 +3658,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C89" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D89" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E89" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F89" t="n">
-        <v>2319</v>
+        <v>88032.87880000001</v>
       </c>
       <c r="G89" t="n">
-        <v>26.14</v>
+        <v>-2250362.1211</v>
       </c>
       <c r="H89" t="n">
-        <v>26.16166666666668</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,30 +3711,27 @@
         <v>26.2</v>
       </c>
       <c r="F90" t="n">
-        <v>18702.5995</v>
+        <v>27958.3091</v>
       </c>
       <c r="G90" t="n">
-        <v>26.16</v>
+        <v>-2278320.4302</v>
       </c>
       <c r="H90" t="n">
-        <v>26.16166666666668</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,30 +3752,27 @@
         <v>26.2</v>
       </c>
       <c r="F91" t="n">
-        <v>5984.2766</v>
+        <v>27958.309</v>
       </c>
       <c r="G91" t="n">
-        <v>26.16</v>
+        <v>-2278320.4302</v>
       </c>
       <c r="H91" t="n">
-        <v>26.16333333333334</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4409,39 +3784,36 @@
         <v>26.2</v>
       </c>
       <c r="C92" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D92" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E92" t="n">
         <v>26.2</v>
       </c>
       <c r="F92" t="n">
-        <v>10800</v>
+        <v>17555.8039</v>
       </c>
       <c r="G92" t="n">
-        <v>26.17333333333334</v>
+        <v>-2278320.4302</v>
       </c>
       <c r="H92" t="n">
-        <v>26.16500000000001</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4450,42 +3822,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C93" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D93" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E93" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F93" t="n">
-        <v>11733.057</v>
+        <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>26.18</v>
+        <v>-2278320.4302</v>
       </c>
       <c r="H93" t="n">
-        <v>26.16666666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,42 +3863,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="C94" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="D94" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="E94" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="F94" t="n">
-        <v>120730.1447</v>
+        <v>52567.4118</v>
       </c>
       <c r="G94" t="n">
-        <v>26.20666666666667</v>
+        <v>-2330887.842</v>
       </c>
       <c r="H94" t="n">
-        <v>26.17000000000001</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,42 +3904,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="C95" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="D95" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="E95" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F95" t="n">
-        <v>132168.6644</v>
+        <v>11804.5846</v>
       </c>
       <c r="G95" t="n">
-        <v>26.22</v>
+        <v>-2319083.2574</v>
       </c>
       <c r="H95" t="n">
-        <v>26.18000000000001</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>26</v>
+      </c>
+      <c r="K95" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,42 +3947,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="C96" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="D96" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="E96" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="F96" t="n">
-        <v>26149.6506</v>
+        <v>10581.8345</v>
       </c>
       <c r="G96" t="n">
-        <v>26.25333333333333</v>
+        <v>-2319083.2574</v>
       </c>
       <c r="H96" t="n">
-        <v>26.18333333333334</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,42 +3988,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="C97" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="D97" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="E97" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="F97" t="n">
-        <v>21942.4207</v>
+        <v>4168.7808</v>
       </c>
       <c r="G97" t="n">
-        <v>26.28666666666667</v>
+        <v>-2319083.2574</v>
       </c>
       <c r="H97" t="n">
-        <v>26.19666666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4670,42 +4029,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="C98" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="D98" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="E98" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="F98" t="n">
-        <v>93202.1786</v>
+        <v>12889.2372</v>
       </c>
       <c r="G98" t="n">
-        <v>26.33333333333333</v>
+        <v>-2319083.2574</v>
       </c>
       <c r="H98" t="n">
-        <v>26.21333333333334</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,42 +4070,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26.9</v>
+        <v>26.1</v>
       </c>
       <c r="C99" t="n">
-        <v>27.2</v>
+        <v>25.9</v>
       </c>
       <c r="D99" t="n">
-        <v>27.2</v>
+        <v>26.1</v>
       </c>
       <c r="E99" t="n">
-        <v>26.9</v>
+        <v>25.9</v>
       </c>
       <c r="F99" t="n">
-        <v>93328.1542</v>
+        <v>67979.9651</v>
       </c>
       <c r="G99" t="n">
-        <v>26.4</v>
+        <v>-2387063.2225</v>
       </c>
       <c r="H99" t="n">
-        <v>26.23500000000001</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,42 +4111,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="C100" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="D100" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="E100" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>7115.8695</v>
       </c>
       <c r="G100" t="n">
-        <v>26.48666666666667</v>
+        <v>-2379947.353</v>
       </c>
       <c r="H100" t="n">
-        <v>26.26000000000001</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K100" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4802,42 +4154,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="C101" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="D101" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="E101" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="F101" t="n">
-        <v>24446.7444</v>
+        <v>33140.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>26.56</v>
+        <v>-2379947.353</v>
       </c>
       <c r="H101" t="n">
-        <v>26.28500000000001</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,42 +4195,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.3</v>
+        <v>25.9</v>
       </c>
       <c r="C102" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="D102" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="E102" t="n">
-        <v>27.3</v>
+        <v>25.9</v>
       </c>
       <c r="F102" t="n">
-        <v>10626</v>
+        <v>270090.57</v>
       </c>
       <c r="G102" t="n">
-        <v>26.64</v>
+        <v>-2379947.353</v>
       </c>
       <c r="H102" t="n">
-        <v>26.30500000000001</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4890,42 +4238,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.4</v>
+        <v>26.1</v>
       </c>
       <c r="C103" t="n">
-        <v>27.4</v>
+        <v>26.1</v>
       </c>
       <c r="D103" t="n">
-        <v>27.4</v>
+        <v>26.1</v>
       </c>
       <c r="E103" t="n">
-        <v>27.4</v>
+        <v>26.1</v>
       </c>
       <c r="F103" t="n">
-        <v>14041.0763</v>
+        <v>3823</v>
       </c>
       <c r="G103" t="n">
-        <v>26.72</v>
+        <v>-2383770.353</v>
       </c>
       <c r="H103" t="n">
-        <v>26.32500000000001</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4934,42 +4279,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="C104" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="D104" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="E104" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="F104" t="n">
-        <v>1000</v>
+        <v>9975.5</v>
       </c>
       <c r="G104" t="n">
-        <v>26.8</v>
+        <v>-2393745.853</v>
       </c>
       <c r="H104" t="n">
-        <v>26.34500000000001</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4978,42 +4322,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="C105" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D105" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E105" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="F105" t="n">
-        <v>4439.5668</v>
+        <v>33945.879</v>
       </c>
       <c r="G105" t="n">
-        <v>26.88666666666667</v>
+        <v>-2359799.974</v>
       </c>
       <c r="H105" t="n">
-        <v>26.36666666666667</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K105" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5022,42 +4365,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="C106" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="D106" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="E106" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="F106" t="n">
-        <v>699.3454</v>
+        <v>19066.7553</v>
       </c>
       <c r="G106" t="n">
-        <v>26.97333333333334</v>
+        <v>-2378866.7293</v>
       </c>
       <c r="H106" t="n">
-        <v>26.38666666666667</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5066,42 +4408,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.2</v>
+        <v>26.2</v>
       </c>
       <c r="C107" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D107" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E107" t="n">
-        <v>27.2</v>
+        <v>26.2</v>
       </c>
       <c r="F107" t="n">
-        <v>174803.4438</v>
+        <v>10227.6675</v>
       </c>
       <c r="G107" t="n">
-        <v>27.05333333333333</v>
+        <v>-2368639.0618</v>
       </c>
       <c r="H107" t="n">
-        <v>26.41500000000001</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,42 +4451,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="C108" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="D108" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="E108" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="F108" t="n">
-        <v>24.779</v>
+        <v>27431</v>
       </c>
       <c r="G108" t="n">
-        <v>27.13333333333333</v>
+        <v>-2396070.0618</v>
       </c>
       <c r="H108" t="n">
-        <v>26.43666666666667</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,42 +4494,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="C109" t="n">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="D109" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="E109" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="F109" t="n">
-        <v>125264.8699</v>
+        <v>5543</v>
       </c>
       <c r="G109" t="n">
-        <v>27.19333333333334</v>
+        <v>-2390527.0618</v>
       </c>
       <c r="H109" t="n">
-        <v>26.45333333333334</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,42 +4535,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.4</v>
+        <v>26.1</v>
       </c>
       <c r="C110" t="n">
-        <v>27.4</v>
+        <v>26</v>
       </c>
       <c r="D110" t="n">
-        <v>27.4</v>
+        <v>26.1</v>
       </c>
       <c r="E110" t="n">
-        <v>27.4</v>
+        <v>26</v>
       </c>
       <c r="F110" t="n">
-        <v>11</v>
+        <v>16870.7708</v>
       </c>
       <c r="G110" t="n">
-        <v>27.25333333333333</v>
+        <v>-2407397.8326</v>
       </c>
       <c r="H110" t="n">
-        <v>26.47000000000001</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,42 +4576,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="C111" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D111" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E111" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="F111" t="n">
-        <v>29100</v>
+        <v>11127.222</v>
       </c>
       <c r="G111" t="n">
-        <v>27.32</v>
+        <v>-2396270.6106</v>
       </c>
       <c r="H111" t="n">
-        <v>26.49166666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5286,42 +4617,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="C112" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D112" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E112" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="F112" t="n">
-        <v>6154.7007</v>
+        <v>9000</v>
       </c>
       <c r="G112" t="n">
-        <v>27.37333333333333</v>
+        <v>-2396270.6106</v>
       </c>
       <c r="H112" t="n">
-        <v>26.51333333333334</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5330,42 +4658,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="C113" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D113" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E113" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="F113" t="n">
-        <v>8900</v>
+        <v>32131.8581</v>
       </c>
       <c r="G113" t="n">
-        <v>27.41333333333334</v>
+        <v>-2396270.6106</v>
       </c>
       <c r="H113" t="n">
-        <v>26.53333333333334</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5374,42 +4699,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="C114" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="D114" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="E114" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="F114" t="n">
-        <v>6132.4742</v>
+        <v>20164.3474</v>
       </c>
       <c r="G114" t="n">
-        <v>27.43333333333334</v>
+        <v>-2416434.958</v>
       </c>
       <c r="H114" t="n">
-        <v>26.55333333333334</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,42 +4740,41 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="C115" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="D115" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="E115" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="F115" t="n">
-        <v>48791.6762</v>
+        <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>27.44</v>
+        <v>-2416424.958</v>
       </c>
       <c r="H115" t="n">
-        <v>26.56500000000001</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+        <v>26</v>
+      </c>
+      <c r="K115" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5462,42 +4783,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="C116" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="D116" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E116" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F116" t="n">
-        <v>64070.0505</v>
+        <v>14415.601</v>
       </c>
       <c r="G116" t="n">
-        <v>27.46</v>
+        <v>-2416424.958</v>
       </c>
       <c r="H116" t="n">
-        <v>26.58333333333334</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,42 +4824,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="C117" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="D117" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E117" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F117" t="n">
-        <v>27765.6738</v>
+        <v>1853.4351</v>
       </c>
       <c r="G117" t="n">
-        <v>27.47333333333334</v>
+        <v>-2416424.958</v>
       </c>
       <c r="H117" t="n">
-        <v>26.60833333333334</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5550,43 +4865,40 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="C118" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="D118" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E118" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="F118" t="n">
-        <v>13347.7712</v>
+        <v>2319</v>
       </c>
       <c r="G118" t="n">
-        <v>27.48666666666668</v>
+        <v>-2416424.958</v>
       </c>
       <c r="H118" t="n">
-        <v>26.63333333333334</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
-        <v>1.048435114503817</v>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -5594,36 +4906,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="C119" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="D119" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="E119" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="F119" t="n">
-        <v>66993.10460000001</v>
+        <v>18702.5995</v>
       </c>
       <c r="G119" t="n">
-        <v>27.50666666666667</v>
+        <v>-2416424.958</v>
       </c>
       <c r="H119" t="n">
-        <v>26.65500000000001</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5632,36 +4947,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="C120" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="D120" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="E120" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="F120" t="n">
-        <v>9464.0568</v>
+        <v>5984.2766</v>
       </c>
       <c r="G120" t="n">
-        <v>27.52666666666668</v>
+        <v>-2416424.958</v>
       </c>
       <c r="H120" t="n">
-        <v>26.67833333333334</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5670,36 +4988,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="C121" t="n">
-        <v>27.8</v>
+        <v>26.3</v>
       </c>
       <c r="D121" t="n">
-        <v>27.8</v>
+        <v>26.3</v>
       </c>
       <c r="E121" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="F121" t="n">
-        <v>2232.6508</v>
+        <v>10800</v>
       </c>
       <c r="G121" t="n">
-        <v>27.54666666666668</v>
+        <v>-2405624.958</v>
       </c>
       <c r="H121" t="n">
-        <v>26.705</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5708,36 +5029,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="C122" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="D122" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="E122" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="F122" t="n">
-        <v>18000</v>
+        <v>11733.057</v>
       </c>
       <c r="G122" t="n">
-        <v>27.54666666666668</v>
+        <v>-2405624.958</v>
       </c>
       <c r="H122" t="n">
-        <v>26.72666666666667</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5746,36 +5070,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>27.4</v>
+        <v>26.3</v>
       </c>
       <c r="C123" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="D123" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="E123" t="n">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="F123" t="n">
-        <v>3779.5379</v>
+        <v>120730.1447</v>
       </c>
       <c r="G123" t="n">
-        <v>27.55333333333335</v>
+        <v>-2284894.8133</v>
       </c>
       <c r="H123" t="n">
-        <v>26.75</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,36 +5111,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="C124" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="D124" t="n">
-        <v>27.6</v>
+        <v>26.6</v>
       </c>
       <c r="E124" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="F124" t="n">
-        <v>2547.5543</v>
+        <v>132168.6644</v>
       </c>
       <c r="G124" t="n">
-        <v>27.57333333333334</v>
+        <v>-2152726.148899999</v>
       </c>
       <c r="H124" t="n">
-        <v>26.77333333333333</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>1</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5822,36 +5152,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="C125" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="D125" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="E125" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="F125" t="n">
-        <v>100</v>
+        <v>26149.6506</v>
       </c>
       <c r="G125" t="n">
-        <v>27.58666666666668</v>
+        <v>-2152726.148899999</v>
       </c>
       <c r="H125" t="n">
-        <v>26.8</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5860,36 +5193,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="C126" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="D126" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="E126" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="F126" t="n">
-        <v>1562.7479</v>
+        <v>21942.4207</v>
       </c>
       <c r="G126" t="n">
-        <v>27.58666666666668</v>
+        <v>-2130783.728199999</v>
       </c>
       <c r="H126" t="n">
-        <v>26.82166666666666</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5898,36 +5234,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="C127" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="D127" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="E127" t="n">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="F127" t="n">
-        <v>2196.936517090909</v>
+        <v>93202.1786</v>
       </c>
       <c r="G127" t="n">
-        <v>27.58666666666668</v>
+        <v>-2037581.549599999</v>
       </c>
       <c r="H127" t="n">
-        <v>26.84333333333333</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>1</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5936,36 +5275,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="C128" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="D128" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="E128" t="n">
-        <v>27.4</v>
+        <v>26.9</v>
       </c>
       <c r="F128" t="n">
-        <v>10673.3906</v>
+        <v>93328.1542</v>
       </c>
       <c r="G128" t="n">
-        <v>27.58666666666668</v>
+        <v>-1944253.395399999</v>
       </c>
       <c r="H128" t="n">
-        <v>26.86499999999999</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5974,36 +5316,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="C129" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="D129" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="E129" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F129" t="n">
-        <v>9049.4818</v>
+        <v>1000</v>
       </c>
       <c r="G129" t="n">
-        <v>27.59333333333335</v>
+        <v>-1943253.395399999</v>
       </c>
       <c r="H129" t="n">
-        <v>26.88833333333332</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,36 +5357,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C130" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D130" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E130" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F130" t="n">
-        <v>631</v>
+        <v>24446.7444</v>
       </c>
       <c r="G130" t="n">
-        <v>27.59333333333335</v>
+        <v>-1943253.395399999</v>
       </c>
       <c r="H130" t="n">
-        <v>26.91333333333332</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6050,36 +5398,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="C131" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D131" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E131" t="n">
         <v>27.3</v>
       </c>
       <c r="F131" t="n">
-        <v>58373.1356</v>
+        <v>10626</v>
       </c>
       <c r="G131" t="n">
-        <v>27.59333333333335</v>
+        <v>-1932627.395399999</v>
       </c>
       <c r="H131" t="n">
-        <v>26.93666666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6088,36 +5439,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C132" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D132" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E132" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F132" t="n">
-        <v>146300.3623</v>
+        <v>14041.0763</v>
       </c>
       <c r="G132" t="n">
-        <v>27.59333333333335</v>
+        <v>-1932627.395399999</v>
       </c>
       <c r="H132" t="n">
-        <v>26.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6126,36 +5480,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C133" t="n">
         <v>27.4</v>
       </c>
       <c r="D133" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E133" t="n">
         <v>27.4</v>
       </c>
       <c r="F133" t="n">
-        <v>2010</v>
+        <v>1000</v>
       </c>
       <c r="G133" t="n">
-        <v>27.58000000000002</v>
+        <v>-1932627.395399999</v>
       </c>
       <c r="H133" t="n">
-        <v>26.97999999999999</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6164,36 +5521,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C134" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D134" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E134" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F134" t="n">
-        <v>67160.1375</v>
+        <v>4439.5668</v>
       </c>
       <c r="G134" t="n">
-        <v>27.57333333333335</v>
+        <v>-1928187.828599999</v>
       </c>
       <c r="H134" t="n">
-        <v>27.00499999999999</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>1</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6202,36 +5562,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C135" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D135" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E135" t="n">
         <v>27.5</v>
       </c>
       <c r="F135" t="n">
-        <v>6806.0581</v>
+        <v>699.3454</v>
       </c>
       <c r="G135" t="n">
-        <v>27.56000000000002</v>
+        <v>-1928187.828599999</v>
       </c>
       <c r="H135" t="n">
-        <v>27.03333333333332</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>1</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6240,36 +5603,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C136" t="n">
         <v>27.5</v>
       </c>
-      <c r="C136" t="n">
-        <v>27.7</v>
-      </c>
       <c r="D136" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E136" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F136" t="n">
-        <v>20436</v>
+        <v>174803.4438</v>
       </c>
       <c r="G136" t="n">
-        <v>27.55333333333335</v>
+        <v>-1928187.828599999</v>
       </c>
       <c r="H136" t="n">
-        <v>27.05833333333332</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>1</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6281,33 +5647,36 @@
         <v>27.6</v>
       </c>
       <c r="C137" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D137" t="n">
         <v>27.6</v>
       </c>
       <c r="E137" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F137" t="n">
-        <v>849.7851000000001</v>
+        <v>24.779</v>
       </c>
       <c r="G137" t="n">
-        <v>27.56000000000002</v>
+        <v>-1928187.828599999</v>
       </c>
       <c r="H137" t="n">
-        <v>27.08333333333332</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>1</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6316,36 +5685,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="C138" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
       <c r="D138" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="E138" t="n">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="F138" t="n">
-        <v>26877.8057</v>
+        <v>125264.8699</v>
       </c>
       <c r="G138" t="n">
-        <v>27.57333333333335</v>
+        <v>-2053452.698499999</v>
       </c>
       <c r="H138" t="n">
-        <v>27.10999999999998</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6354,36 +5726,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="C139" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D139" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="E139" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F139" t="n">
-        <v>7241.0071</v>
+        <v>11</v>
       </c>
       <c r="G139" t="n">
-        <v>27.58666666666668</v>
+        <v>-2053441.698499999</v>
       </c>
       <c r="H139" t="n">
-        <v>27.13999999999998</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>1</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6392,36 +5767,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="C140" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D140" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E140" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="F140" t="n">
-        <v>903.0546000000001</v>
+        <v>29100</v>
       </c>
       <c r="G140" t="n">
-        <v>27.59333333333335</v>
+        <v>-2024341.698499999</v>
       </c>
       <c r="H140" t="n">
-        <v>27.16333333333332</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>1</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6430,36 +5808,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C141" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D141" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E141" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F141" t="n">
-        <v>18004.5255</v>
+        <v>6154.7007</v>
       </c>
       <c r="G141" t="n">
-        <v>27.60000000000002</v>
+        <v>-2024341.698499999</v>
       </c>
       <c r="H141" t="n">
-        <v>27.18999999999998</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>1</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,36 +5849,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C142" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D142" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E142" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F142" t="n">
-        <v>17000</v>
+        <v>8900</v>
       </c>
       <c r="G142" t="n">
-        <v>27.60666666666668</v>
+        <v>-2024341.698499999</v>
       </c>
       <c r="H142" t="n">
-        <v>27.21333333333331</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>1</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6506,36 +5890,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C143" t="n">
         <v>27.5</v>
       </c>
       <c r="D143" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E143" t="n">
         <v>27.5</v>
       </c>
       <c r="F143" t="n">
-        <v>93069.4918</v>
+        <v>6132.4742</v>
       </c>
       <c r="G143" t="n">
-        <v>27.60666666666668</v>
+        <v>-2024341.698499999</v>
       </c>
       <c r="H143" t="n">
-        <v>27.23499999999998</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>1</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6544,36 +5931,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C144" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D144" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E144" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F144" t="n">
-        <v>20660.5077</v>
+        <v>48791.6762</v>
       </c>
       <c r="G144" t="n">
-        <v>27.60000000000002</v>
+        <v>-2073133.3747</v>
       </c>
       <c r="H144" t="n">
-        <v>27.25666666666665</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6585,33 +5975,36 @@
         <v>27.5</v>
       </c>
       <c r="C145" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D145" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E145" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F145" t="n">
-        <v>269368.6388</v>
+        <v>64070.0505</v>
       </c>
       <c r="G145" t="n">
-        <v>27.62000000000002</v>
+        <v>-2009063.3242</v>
       </c>
       <c r="H145" t="n">
-        <v>27.28499999999998</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6620,36 +6013,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C146" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D146" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E146" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F146" t="n">
-        <v>3767</v>
+        <v>27765.6738</v>
       </c>
       <c r="G146" t="n">
-        <v>27.60666666666668</v>
+        <v>-2009063.3242</v>
       </c>
       <c r="H146" t="n">
-        <v>27.30499999999998</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,24 +6066,27 @@
         <v>27.6</v>
       </c>
       <c r="F147" t="n">
-        <v>18249.8813</v>
+        <v>13347.7712</v>
       </c>
       <c r="G147" t="n">
-        <v>27.60666666666668</v>
+        <v>-2009063.3242</v>
       </c>
       <c r="H147" t="n">
-        <v>27.32833333333331</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,36 +6095,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C148" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D148" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E148" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F148" t="n">
-        <v>3611.1111</v>
+        <v>66993.10460000001</v>
       </c>
       <c r="G148" t="n">
-        <v>27.62000000000002</v>
+        <v>-1942070.2196</v>
       </c>
       <c r="H148" t="n">
-        <v>27.35166666666664</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6734,36 +6136,39 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C149" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D149" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E149" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F149" t="n">
-        <v>28054.6875</v>
+        <v>9464.0568</v>
       </c>
       <c r="G149" t="n">
-        <v>27.60666666666668</v>
+        <v>-1932606.1628</v>
       </c>
       <c r="H149" t="n">
-        <v>27.37166666666664</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,36 +6177,39 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="C150" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="D150" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="E150" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F150" t="n">
-        <v>1111.7205</v>
+        <v>2232.6508</v>
       </c>
       <c r="G150" t="n">
-        <v>27.59333333333334</v>
+        <v>-1932606.1628</v>
       </c>
       <c r="H150" t="n">
-        <v>27.39166666666664</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6810,36 +6218,39 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C151" t="n">
         <v>27.5</v>
       </c>
-      <c r="C151" t="n">
-        <v>27.4</v>
-      </c>
       <c r="D151" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E151" t="n">
         <v>27.5</v>
       </c>
-      <c r="E151" t="n">
-        <v>27.4</v>
-      </c>
       <c r="F151" t="n">
-        <v>28054.6875</v>
+        <v>18000</v>
       </c>
       <c r="G151" t="n">
-        <v>27.57333333333334</v>
+        <v>-1950606.1628</v>
       </c>
       <c r="H151" t="n">
-        <v>27.41166666666664</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6848,7 +6259,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C152" t="n">
         <v>27.6</v>
@@ -6857,27 +6268,30 @@
         <v>27.6</v>
       </c>
       <c r="E152" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F152" t="n">
-        <v>623.0228</v>
+        <v>3779.5379</v>
       </c>
       <c r="G152" t="n">
-        <v>27.57333333333334</v>
+        <v>-1946826.6249</v>
       </c>
       <c r="H152" t="n">
-        <v>27.43333333333331</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6886,36 +6300,39 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C153" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D153" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E153" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F153" t="n">
-        <v>689.1529</v>
+        <v>2547.5543</v>
       </c>
       <c r="G153" t="n">
-        <v>27.55333333333334</v>
+        <v>-1946826.6249</v>
       </c>
       <c r="H153" t="n">
-        <v>27.45333333333331</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6924,7 +6341,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C154" t="n">
         <v>27.6</v>
@@ -6933,27 +6350,1129 @@
         <v>27.6</v>
       </c>
       <c r="E154" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F154" t="n">
+        <v>100</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1946826.6249</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
         <v>27.5</v>
       </c>
-      <c r="F154" t="n">
+      <c r="C155" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E155" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1562.7479</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1948389.3728</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C156" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2196.936517090909</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1948389.3728</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C157" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10673.3906</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-1948389.3728</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F158" t="n">
+        <v>9049.4818</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-1939339.891</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C159" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E159" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>631</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-1939970.891</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D160" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>58373.1356</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-1881597.7554</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C161" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D161" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E161" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F161" t="n">
+        <v>146300.3623</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-1881597.7554</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-1883607.7554</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C163" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F163" t="n">
+        <v>67160.1375</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-1816447.6179</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C164" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E164" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6806.0581</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-1816447.6179</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C165" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>20436</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1796011.6179</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D166" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E166" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>849.7851000000001</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1796861.403</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C167" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D167" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E167" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>26877.8057</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1769983.5973</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C168" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D168" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E168" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F168" t="n">
+        <v>7241.0071</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1769983.5973</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1.068359073359074</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>903.0546000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-1770886.6519</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C170" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D170" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E170" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F170" t="n">
+        <v>18004.5255</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1788891.1774</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E171" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>17000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1788891.1774</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C172" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>93069.4918</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1881960.6692</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C173" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>20660.5077</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1881960.6692</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F174" t="n">
+        <v>269368.6388</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1612592.0304</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C175" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D175" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E175" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3767</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1616359.0304</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C176" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18249.8813</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1598109.1491</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C177" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D177" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E177" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3611.1111</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1598109.1491</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C178" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D178" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E178" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F178" t="n">
+        <v>28054.6875</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1626163.8366</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C179" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D179" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E179" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1111.7205</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1626163.8366</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C180" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D180" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F180" t="n">
+        <v>28054.6875</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1626163.8366</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C181" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D181" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E181" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F181" t="n">
+        <v>623.0228</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1625540.8138</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>689.1529</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1626229.9667</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D183" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E183" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F183" t="n">
         <v>3133.0798</v>
       </c>
-      <c r="G154" t="n">
-        <v>27.54000000000001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>27.47333333333331</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="G183" t="n">
+        <v>-1623096.8869</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-17 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F2" t="n">
-        <v>371.4957</v>
+        <v>6888.0424</v>
       </c>
       <c r="G2" t="n">
-        <v>-2052469.0143</v>
+        <v>-1988240.3452</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -480,10 +486,10 @@
         <v>26.2</v>
       </c>
       <c r="F3" t="n">
-        <v>4800</v>
+        <v>1289.9176</v>
       </c>
       <c r="G3" t="n">
-        <v>-2047669.0143</v>
+        <v>-1988240.3452</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -506,19 +513,19 @@
         <v>26.2</v>
       </c>
       <c r="C4" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D4" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E4" t="n">
         <v>26.2</v>
       </c>
       <c r="F4" t="n">
-        <v>2100</v>
+        <v>4401.7891</v>
       </c>
       <c r="G4" t="n">
-        <v>-2045569.0143</v>
+        <v>-1988240.3452</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,111 +539,135 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C5" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D5" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="E5" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>13988.0292</v>
       </c>
       <c r="G5" t="n">
-        <v>-2045569.0143</v>
+        <v>-2002228.3744</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>26.2</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>47211.1837</v>
+        <v>7900</v>
       </c>
       <c r="G6" t="n">
-        <v>-1998357.8306</v>
+        <v>-2010128.3744</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C7" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D7" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="E7" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F7" t="n">
-        <v>942.2071</v>
+        <v>992.8325</v>
       </c>
       <c r="G7" t="n">
-        <v>-1999300.0377</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>26</v>
+      </c>
+      <c r="K7" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -655,45 +686,50 @@
         <v>26.1</v>
       </c>
       <c r="F8" t="n">
-        <v>942.2071</v>
+        <v>5762.4328</v>
       </c>
       <c r="G8" t="n">
-        <v>-2000242.2448</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26.1</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C9" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D9" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E9" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F9" t="n">
-        <v>19.0458</v>
+        <v>3244.7347</v>
       </c>
       <c r="G9" t="n">
-        <v>-2000223.199</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -702,33 +738,40 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C10" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D10" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E10" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>30472.2393</v>
       </c>
       <c r="G10" t="n">
-        <v>-2000223.199</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -737,116 +780,146 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C11" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D11" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E11" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F11" t="n">
-        <v>12962.8349</v>
+        <v>3287.2598</v>
       </c>
       <c r="G11" t="n">
-        <v>-2000223.199</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>26.1</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C12" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D12" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E12" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F12" t="n">
-        <v>1666.9517</v>
+        <v>769.0613</v>
       </c>
       <c r="G12" t="n">
-        <v>-2000223.199</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D13" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E13" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F13" t="n">
-        <v>8194.1785</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-2008417.3775</v>
+        <v>-2009125.5419</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -856,54 +929,59 @@
         <v>26.2</v>
       </c>
       <c r="C14" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D14" t="n">
         <v>26.2</v>
       </c>
       <c r="E14" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F14" t="n">
-        <v>6600</v>
+        <v>132</v>
       </c>
       <c r="G14" t="n">
-        <v>-2008417.3775</v>
+        <v>-2009125.5419</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>26.2</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D15" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E15" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>76.53870000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>-2008417.3775</v>
+        <v>-2009125.5419</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,33 +990,40 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C16" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="D16" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E16" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>2212.4251</v>
       </c>
       <c r="G16" t="n">
-        <v>-2008407.3775</v>
+        <v>-2011337.967</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,33 +1032,40 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D17" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E17" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>23361.1284</v>
       </c>
       <c r="G17" t="n">
-        <v>-2008407.3775</v>
+        <v>-1987976.8386</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1079,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C18" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="D18" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E18" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="F18" t="n">
-        <v>18939.39393939394</v>
+        <v>7816</v>
       </c>
       <c r="G18" t="n">
-        <v>-2008407.3775</v>
+        <v>-1995792.8386</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1115,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1040,23 +1134,28 @@
         <v>26.2</v>
       </c>
       <c r="F19" t="n">
-        <v>1697.1494</v>
+        <v>3550.3458</v>
       </c>
       <c r="G19" t="n">
-        <v>-2010104.5269</v>
+        <v>-1992242.4928</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>26.1</v>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1075,80 +1174,98 @@
         <v>26.2</v>
       </c>
       <c r="F20" t="n">
-        <v>6699.3713</v>
+        <v>1570</v>
       </c>
       <c r="G20" t="n">
-        <v>-2010104.5269</v>
+        <v>-1992242.4928</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C21" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D21" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E21" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>3657.5</v>
       </c>
       <c r="G21" t="n">
-        <v>-2010094.5269</v>
+        <v>-1992242.4928</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D22" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E22" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F22" t="n">
-        <v>369.9027</v>
+        <v>17200</v>
       </c>
       <c r="G22" t="n">
-        <v>-2010464.4296</v>
+        <v>-2009442.4928</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,63 +1279,69 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C23" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="D23" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E23" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>-2010454.4296</v>
+        <v>-2009431.4928</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>25.9</v>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="C24" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D24" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="E24" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F24" t="n">
-        <v>6529</v>
+        <v>46300</v>
       </c>
       <c r="G24" t="n">
-        <v>-2016983.4296</v>
+        <v>-2055731.4928</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1350,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="C25" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="D25" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="E25" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>845.2079</v>
       </c>
       <c r="G25" t="n">
-        <v>-2016971.4296</v>
+        <v>-2055731.4928</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,116 +1392,150 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C26" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="D26" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="E26" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="F26" t="n">
-        <v>5177.7212</v>
+        <v>482.0125</v>
       </c>
       <c r="G26" t="n">
-        <v>-2022149.1508</v>
+        <v>-2055731.4928</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C27" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="D27" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="E27" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="F27" t="n">
-        <v>1447.7999</v>
+        <v>12594.7547</v>
       </c>
       <c r="G27" t="n">
-        <v>-2022149.1508</v>
+        <v>-2068326.2475</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K27" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="C28" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D28" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E28" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F28" t="n">
-        <v>320.0292</v>
+        <v>90484.5039</v>
       </c>
       <c r="G28" t="n">
-        <v>-2021829.1216</v>
+        <v>-2068326.2475</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K28" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1390,65 +1554,83 @@
         <v>26.2</v>
       </c>
       <c r="F29" t="n">
-        <v>10200</v>
+        <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>-2021829.1216</v>
+        <v>-2068315.2475</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C30" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D30" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E30" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F30" t="n">
-        <v>2826.7979</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-2024655.9195</v>
+        <v>-2068315.2475</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C31" t="n">
         <v>26.2</v>
@@ -1457,13 +1639,13 @@
         <v>26.2</v>
       </c>
       <c r="E31" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F31" t="n">
-        <v>92995.0414</v>
+        <v>124742.29</v>
       </c>
       <c r="G31" t="n">
-        <v>-1931660.8781</v>
+        <v>-2068315.2475</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,18 +1654,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C32" t="n">
         <v>26.2</v>
@@ -1492,13 +1681,13 @@
         <v>26.2</v>
       </c>
       <c r="E32" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F32" t="n">
-        <v>7019</v>
+        <v>113920.477</v>
       </c>
       <c r="G32" t="n">
-        <v>-1931660.8781</v>
+        <v>-2068315.2475</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,11 +1696,18 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1521,19 +1717,19 @@
         <v>26.2</v>
       </c>
       <c r="C33" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="D33" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E33" t="n">
         <v>26.2</v>
       </c>
       <c r="F33" t="n">
-        <v>7377.4427</v>
+        <v>38</v>
       </c>
       <c r="G33" t="n">
-        <v>-1931660.8781</v>
+        <v>-2068277.2475</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1738,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C34" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="D34" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E34" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="F34" t="n">
-        <v>49449.2358</v>
+        <v>81518.26489999999</v>
       </c>
       <c r="G34" t="n">
-        <v>-1981110.1139</v>
+        <v>-2149795.5124</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1780,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C35" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D35" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E35" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F35" t="n">
-        <v>7604.8484</v>
+        <v>12</v>
       </c>
       <c r="G35" t="n">
-        <v>-1988714.9623</v>
+        <v>-2149783.5124</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1822,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C36" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="D36" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E36" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F36" t="n">
-        <v>1657.1293</v>
+        <v>9000</v>
       </c>
       <c r="G36" t="n">
-        <v>-1987057.833</v>
+        <v>-2140783.5124</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,33 +1864,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="C37" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="D37" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="E37" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="F37" t="n">
-        <v>50837.2466</v>
+        <v>258</v>
       </c>
       <c r="G37" t="n">
-        <v>-1987057.833</v>
+        <v>-2140525.5124</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,11 +1906,18 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1705,10 +1936,10 @@
         <v>26.2</v>
       </c>
       <c r="F38" t="n">
-        <v>2579.6772</v>
+        <v>2605.5942</v>
       </c>
       <c r="G38" t="n">
-        <v>-1984478.1558</v>
+        <v>-2143131.1066</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,33 +1948,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="C39" t="n">
         <v>26.2</v>
       </c>
       <c r="D39" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E39" t="n">
         <v>26.2</v>
       </c>
       <c r="F39" t="n">
-        <v>266702.0166</v>
+        <v>43463.6553</v>
       </c>
       <c r="G39" t="n">
-        <v>-1984478.1558</v>
+        <v>-2143131.1066</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,11 +1990,18 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1766,19 +2011,19 @@
         <v>26.2</v>
       </c>
       <c r="C40" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="D40" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E40" t="n">
         <v>26.2</v>
       </c>
       <c r="F40" t="n">
-        <v>16913.0534</v>
+        <v>25269.8763</v>
       </c>
       <c r="G40" t="n">
-        <v>-1984478.1558</v>
+        <v>-2117861.2303</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,33 +2032,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C41" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="D41" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E41" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F41" t="n">
-        <v>16457.8467</v>
+        <v>3583.4942</v>
       </c>
       <c r="G41" t="n">
-        <v>-1984478.1558</v>
+        <v>-2117861.2303</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,68 +2074,84 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C42" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="D42" t="n">
-        <v>26.4</v>
+        <v>26.7</v>
       </c>
       <c r="E42" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>25176.3238</v>
       </c>
       <c r="G42" t="n">
-        <v>-1984468.1558</v>
+        <v>-2092684.9065</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="C43" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="D43" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="E43" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="F43" t="n">
-        <v>3772.1894</v>
+        <v>12.456</v>
       </c>
       <c r="G43" t="n">
-        <v>-1988240.3452</v>
+        <v>-2092697.3625</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,33 +2160,40 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C44" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D44" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E44" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F44" t="n">
-        <v>6888.0424</v>
+        <v>157674.7586</v>
       </c>
       <c r="G44" t="n">
-        <v>-1988240.3452</v>
+        <v>-2250372.1211</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,103 +2202,128 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C45" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D45" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E45" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F45" t="n">
-        <v>1289.9176</v>
+        <v>333.867</v>
       </c>
       <c r="G45" t="n">
-        <v>-1988240.3452</v>
+        <v>-2250372.1211</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C46" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D46" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E46" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F46" t="n">
-        <v>4401.7891</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-1988240.3452</v>
+        <v>-2250362.1211</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="C47" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="D47" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="E47" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="F47" t="n">
-        <v>13988.0292</v>
+        <v>88032.87880000001</v>
       </c>
       <c r="G47" t="n">
-        <v>-2002228.3744</v>
+        <v>-2250362.1211</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2032,37 +2332,42 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K47" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C48" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D48" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E48" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F48" t="n">
-        <v>7900</v>
+        <v>27958.3091</v>
       </c>
       <c r="G48" t="n">
-        <v>-2010128.3744</v>
+        <v>-2278320.4302</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2071,152 +2376,174 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="K48" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C49" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D49" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E49" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F49" t="n">
-        <v>992.8325</v>
+        <v>27958.309</v>
       </c>
       <c r="G49" t="n">
-        <v>-2009135.5419</v>
+        <v>-2278320.4302</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K49" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C50" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D50" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E50" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F50" t="n">
-        <v>5762.4328</v>
+        <v>17555.8039</v>
       </c>
       <c r="G50" t="n">
-        <v>-2009135.5419</v>
+        <v>-2278320.4302</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C51" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D51" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E51" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F51" t="n">
-        <v>3244.7347</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>-2009135.5419</v>
+        <v>-2278320.4302</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C52" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="D52" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E52" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F52" t="n">
-        <v>30472.2393</v>
+        <v>52567.4118</v>
       </c>
       <c r="G52" t="n">
-        <v>-2009135.5419</v>
+        <v>-2330887.842</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2225,92 +2552,111 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C53" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D53" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E53" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F53" t="n">
-        <v>3287.2598</v>
+        <v>11804.5846</v>
       </c>
       <c r="G53" t="n">
-        <v>-2009135.5419</v>
+        <v>-2319083.2574</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>26</v>
+      </c>
+      <c r="K53" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C54" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D54" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E54" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F54" t="n">
-        <v>769.0613</v>
+        <v>10581.8345</v>
       </c>
       <c r="G54" t="n">
-        <v>-2009135.5419</v>
+        <v>-2319083.2574</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
+        <v>25.9</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C55" t="n">
         <v>26.2</v>
@@ -2319,34 +2665,33 @@
         <v>26.2</v>
       </c>
       <c r="E55" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>4168.7808</v>
       </c>
       <c r="G55" t="n">
-        <v>-2009125.5419</v>
+        <v>-2319083.2574</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2365,53 +2710,52 @@
         <v>26.2</v>
       </c>
       <c r="F56" t="n">
-        <v>132</v>
+        <v>12889.2372</v>
       </c>
       <c r="G56" t="n">
-        <v>-2009125.5419</v>
+        <v>-2319083.2574</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C57" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D57" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E57" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F57" t="n">
-        <v>76.53870000000001</v>
+        <v>67979.9651</v>
       </c>
       <c r="G57" t="n">
-        <v>-2009125.5419</v>
+        <v>-2387063.2225</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2420,53 +2764,69 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C58" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D58" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E58" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F58" t="n">
-        <v>2212.4251</v>
+        <v>7115.8695</v>
       </c>
       <c r="G58" t="n">
-        <v>-2011337.967</v>
+        <v>-2379947.353</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K58" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C59" t="n">
         <v>26.2</v>
@@ -2475,138 +2835,174 @@
         <v>26.2</v>
       </c>
       <c r="E59" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F59" t="n">
-        <v>23361.1284</v>
+        <v>33140.9999</v>
       </c>
       <c r="G59" t="n">
-        <v>-1987976.8386</v>
+        <v>-2379947.353</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C60" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D60" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E60" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="F60" t="n">
-        <v>7816</v>
+        <v>270090.57</v>
       </c>
       <c r="G60" t="n">
-        <v>-1995792.8386</v>
+        <v>-2379947.353</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C61" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D61" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E61" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F61" t="n">
-        <v>3550.3458</v>
+        <v>3823</v>
       </c>
       <c r="G61" t="n">
-        <v>-1992242.4928</v>
+        <v>-2383770.353</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="C62" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D62" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="E62" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F62" t="n">
-        <v>1570</v>
+        <v>9975.5</v>
       </c>
       <c r="G62" t="n">
-        <v>-1992242.4928</v>
+        <v>-2393745.853</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C63" t="n">
         <v>26.2</v>
@@ -2615,83 +3011,101 @@
         <v>26.2</v>
       </c>
       <c r="E63" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F63" t="n">
-        <v>3657.5</v>
+        <v>33945.879</v>
       </c>
       <c r="G63" t="n">
-        <v>-1992242.4928</v>
+        <v>-2359799.974</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K63" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C64" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="D64" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E64" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="F64" t="n">
-        <v>17200</v>
+        <v>19066.7553</v>
       </c>
       <c r="G64" t="n">
-        <v>-2009442.4928</v>
+        <v>-2378866.7293</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K64" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C65" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D65" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E65" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>10227.6675</v>
       </c>
       <c r="G65" t="n">
-        <v>-2009431.4928</v>
+        <v>-2368639.0618</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -2700,86 +3114,96 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="K65" t="n">
         <v>25.9</v>
       </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C66" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D66" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E66" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="F66" t="n">
-        <v>46300</v>
+        <v>27431</v>
       </c>
       <c r="G66" t="n">
-        <v>-2055731.4928</v>
+        <v>-2396070.0618</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K66" t="n">
         <v>25.9</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="C67" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="D67" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="E67" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="F67" t="n">
-        <v>845.2079</v>
+        <v>5543</v>
       </c>
       <c r="G67" t="n">
-        <v>-2055731.4928</v>
+        <v>-2390527.0618</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>26</v>
+      </c>
       <c r="K67" t="n">
         <v>25.9</v>
       </c>
@@ -2791,28 +3215,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C68" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="D68" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E68" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="F68" t="n">
-        <v>482.0125</v>
+        <v>16870.7708</v>
       </c>
       <c r="G68" t="n">
-        <v>-2055731.4928</v>
+        <v>-2407397.8326</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2832,36 +3257,39 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="C69" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="D69" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="E69" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="F69" t="n">
-        <v>12594.7547</v>
+        <v>11127.222</v>
       </c>
       <c r="G69" t="n">
-        <v>-2068326.2475</v>
+        <v>-2396270.6106</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>26</v>
+      </c>
       <c r="K69" t="n">
         <v>25.9</v>
       </c>
@@ -2873,28 +3301,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="C70" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="D70" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="E70" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="F70" t="n">
-        <v>90484.5039</v>
+        <v>9000</v>
       </c>
       <c r="G70" t="n">
-        <v>-2068326.2475</v>
+        <v>-2396270.6106</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2914,13 +3343,14 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C71" t="n">
         <v>26.2</v>
@@ -2929,21 +3359,23 @@
         <v>26.2</v>
       </c>
       <c r="E71" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>32131.8581</v>
       </c>
       <c r="G71" t="n">
-        <v>-2068315.2475</v>
+        <v>-2396270.6106</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K71" t="n">
         <v>25.9</v>
       </c>
@@ -2955,28 +3387,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C72" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D72" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E72" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>20164.3474</v>
       </c>
       <c r="G72" t="n">
-        <v>-2068315.2475</v>
+        <v>-2416434.958</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2996,6 +3429,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,18 +3448,20 @@
         <v>26.2</v>
       </c>
       <c r="F73" t="n">
-        <v>124742.29</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>-2068315.2475</v>
+        <v>-2416424.958</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>26</v>
+      </c>
       <c r="K73" t="n">
         <v>25.9</v>
       </c>
@@ -3037,13 +3473,14 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C74" t="n">
         <v>26.2</v>
@@ -3052,21 +3489,23 @@
         <v>26.2</v>
       </c>
       <c r="E74" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F74" t="n">
-        <v>113920.477</v>
+        <v>14415.601</v>
       </c>
       <c r="G74" t="n">
-        <v>-2068315.2475</v>
+        <v>-2416424.958</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K74" t="n">
         <v>25.9</v>
       </c>
@@ -3078,6 +3517,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3087,27 +3527,29 @@
         <v>26.2</v>
       </c>
       <c r="C75" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D75" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E75" t="n">
         <v>26.2</v>
       </c>
       <c r="F75" t="n">
-        <v>38</v>
+        <v>1853.4351</v>
       </c>
       <c r="G75" t="n">
-        <v>-2068277.2475</v>
+        <v>-2416424.958</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K75" t="n">
         <v>25.9</v>
       </c>
@@ -3119,28 +3561,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C76" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="D76" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E76" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="F76" t="n">
-        <v>81518.26489999999</v>
+        <v>2319</v>
       </c>
       <c r="G76" t="n">
-        <v>-2149795.5124</v>
+        <v>-2416424.958</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3160,6 +3603,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3178,18 +3622,20 @@
         <v>26.2</v>
       </c>
       <c r="F77" t="n">
-        <v>12</v>
+        <v>18702.5995</v>
       </c>
       <c r="G77" t="n">
-        <v>-2149783.5124</v>
+        <v>-2416424.958</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K77" t="n">
         <v>25.9</v>
       </c>
@@ -3201,6 +3647,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3210,27 +3657,29 @@
         <v>26.2</v>
       </c>
       <c r="C78" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D78" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E78" t="n">
         <v>26.2</v>
       </c>
       <c r="F78" t="n">
-        <v>9000</v>
+        <v>5984.2766</v>
       </c>
       <c r="G78" t="n">
-        <v>-2140783.5124</v>
+        <v>-2416424.958</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K78" t="n">
         <v>25.9</v>
       </c>
@@ -3242,36 +3691,39 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C79" t="n">
         <v>26.3</v>
       </c>
-      <c r="C79" t="n">
-        <v>26.4</v>
-      </c>
       <c r="D79" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E79" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F79" t="n">
-        <v>258</v>
+        <v>10800</v>
       </c>
       <c r="G79" t="n">
-        <v>-2140525.5124</v>
+        <v>-2405624.958</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K79" t="n">
         <v>25.9</v>
       </c>
@@ -3283,36 +3735,39 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C80" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="D80" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E80" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F80" t="n">
-        <v>2605.5942</v>
+        <v>11733.057</v>
       </c>
       <c r="G80" t="n">
-        <v>-2143131.1066</v>
+        <v>-2405624.958</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>26.3</v>
+      </c>
       <c r="K80" t="n">
         <v>25.9</v>
       </c>
@@ -3324,36 +3779,39 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C81" t="n">
         <v>26.4</v>
-      </c>
-      <c r="C81" t="n">
-        <v>26.2</v>
       </c>
       <c r="D81" t="n">
         <v>26.4</v>
       </c>
       <c r="E81" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F81" t="n">
-        <v>43463.6553</v>
+        <v>120730.1447</v>
       </c>
       <c r="G81" t="n">
-        <v>-2143131.1066</v>
+        <v>-2284894.8133</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>26.3</v>
+      </c>
       <c r="K81" t="n">
         <v>25.9</v>
       </c>
@@ -3365,28 +3823,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C82" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="D82" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="E82" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F82" t="n">
-        <v>25269.8763</v>
+        <v>132168.6644</v>
       </c>
       <c r="G82" t="n">
-        <v>-2117861.2303</v>
+        <v>-2152726.148899999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3406,28 +3865,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="C83" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="D83" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="E83" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="F83" t="n">
-        <v>3583.4942</v>
+        <v>26149.6506</v>
       </c>
       <c r="G83" t="n">
-        <v>-2117861.2303</v>
+        <v>-2152726.148899999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3447,13 +3907,14 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="C84" t="n">
         <v>26.7</v>
@@ -3462,13 +3923,13 @@
         <v>26.7</v>
       </c>
       <c r="E84" t="n">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="F84" t="n">
-        <v>25176.3238</v>
+        <v>21942.4207</v>
       </c>
       <c r="G84" t="n">
-        <v>-2092684.9065</v>
+        <v>-2130783.728199999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3488,28 +3949,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="C85" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="D85" t="n">
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="E85" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="F85" t="n">
-        <v>12.456</v>
+        <v>93202.1786</v>
       </c>
       <c r="G85" t="n">
-        <v>-2092697.3625</v>
+        <v>-2037581.549599999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3529,28 +3991,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>26.4</v>
+        <v>26.9</v>
       </c>
       <c r="C86" t="n">
-        <v>26.1</v>
+        <v>27.2</v>
       </c>
       <c r="D86" t="n">
-        <v>26.4</v>
+        <v>27.2</v>
       </c>
       <c r="E86" t="n">
-        <v>26.1</v>
+        <v>26.9</v>
       </c>
       <c r="F86" t="n">
-        <v>157674.7586</v>
+        <v>93328.1542</v>
       </c>
       <c r="G86" t="n">
-        <v>-2250372.1211</v>
+        <v>-1944253.395399999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3570,28 +4033,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="C87" t="n">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="D87" t="n">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="E87" t="n">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="F87" t="n">
-        <v>333.867</v>
+        <v>1000</v>
       </c>
       <c r="G87" t="n">
-        <v>-2250372.1211</v>
+        <v>-1943253.395399999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3611,28 +4075,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="C88" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="D88" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="E88" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>24446.7444</v>
       </c>
       <c r="G88" t="n">
-        <v>-2250362.1211</v>
+        <v>-1943253.395399999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3652,28 +4117,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="C89" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="D89" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="E89" t="n">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="F89" t="n">
-        <v>88032.87880000001</v>
+        <v>10626</v>
       </c>
       <c r="G89" t="n">
-        <v>-2250362.1211</v>
+        <v>-1932627.395399999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3693,28 +4159,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="C90" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="D90" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="E90" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="F90" t="n">
-        <v>27958.3091</v>
+        <v>14041.0763</v>
       </c>
       <c r="G90" t="n">
-        <v>-2278320.4302</v>
+        <v>-1932627.395399999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3734,28 +4201,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="C91" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="D91" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="E91" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="F91" t="n">
-        <v>27958.309</v>
+        <v>1000</v>
       </c>
       <c r="G91" t="n">
-        <v>-2278320.4302</v>
+        <v>-1932627.395399999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3775,28 +4243,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="C92" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="D92" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="E92" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="F92" t="n">
-        <v>17555.8039</v>
+        <v>4439.5668</v>
       </c>
       <c r="G92" t="n">
-        <v>-2278320.4302</v>
+        <v>-1928187.828599999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3816,28 +4285,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="C93" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="D93" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="E93" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="F93" t="n">
-        <v>100</v>
+        <v>699.3454</v>
       </c>
       <c r="G93" t="n">
-        <v>-2278320.4302</v>
+        <v>-1928187.828599999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3857,28 +4327,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26</v>
+        <v>27.2</v>
       </c>
       <c r="C94" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="D94" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="E94" t="n">
-        <v>26</v>
+        <v>27.2</v>
       </c>
       <c r="F94" t="n">
-        <v>52567.4118</v>
+        <v>174803.4438</v>
       </c>
       <c r="G94" t="n">
-        <v>-2330887.842</v>
+        <v>-1928187.828599999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3898,38 +4369,37 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="C95" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="D95" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="E95" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="F95" t="n">
-        <v>11804.5846</v>
+        <v>24.779</v>
       </c>
       <c r="G95" t="n">
-        <v>-2319083.2574</v>
+        <v>-1928187.828599999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>26</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>25.9</v>
       </c>
@@ -3941,28 +4411,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26.2</v>
+        <v>27.3</v>
       </c>
       <c r="C96" t="n">
-        <v>26.2</v>
+        <v>27.3</v>
       </c>
       <c r="D96" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="E96" t="n">
-        <v>26.2</v>
+        <v>27.2</v>
       </c>
       <c r="F96" t="n">
-        <v>10581.8345</v>
+        <v>125264.8699</v>
       </c>
       <c r="G96" t="n">
-        <v>-2319083.2574</v>
+        <v>-2053452.698499999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3982,28 +4453,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>26.1</v>
+        <v>27.4</v>
       </c>
       <c r="C97" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="D97" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="E97" t="n">
-        <v>26.1</v>
+        <v>27.4</v>
       </c>
       <c r="F97" t="n">
-        <v>4168.7808</v>
+        <v>11</v>
       </c>
       <c r="G97" t="n">
-        <v>-2319083.2574</v>
+        <v>-2053441.698499999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4023,28 +4495,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="C98" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="D98" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="E98" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="F98" t="n">
-        <v>12889.2372</v>
+        <v>29100</v>
       </c>
       <c r="G98" t="n">
-        <v>-2319083.2574</v>
+        <v>-2024341.698499999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4064,28 +4537,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>26.1</v>
+        <v>27.4</v>
       </c>
       <c r="C99" t="n">
-        <v>25.9</v>
+        <v>27.5</v>
       </c>
       <c r="D99" t="n">
-        <v>26.1</v>
+        <v>27.5</v>
       </c>
       <c r="E99" t="n">
-        <v>25.9</v>
+        <v>27.4</v>
       </c>
       <c r="F99" t="n">
-        <v>67979.9651</v>
+        <v>6154.7007</v>
       </c>
       <c r="G99" t="n">
-        <v>-2387063.2225</v>
+        <v>-2024341.698499999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4105,38 +4579,37 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="C100" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="D100" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="E100" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="F100" t="n">
-        <v>7115.8695</v>
+        <v>8900</v>
       </c>
       <c r="G100" t="n">
-        <v>-2379947.353</v>
+        <v>-2024341.698499999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>25.9</v>
       </c>
@@ -4148,28 +4621,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="C101" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="D101" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="E101" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="F101" t="n">
-        <v>33140.9999</v>
+        <v>6132.4742</v>
       </c>
       <c r="G101" t="n">
-        <v>-2379947.353</v>
+        <v>-2024341.698499999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4189,38 +4663,37 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>25.9</v>
+        <v>27.4</v>
       </c>
       <c r="C102" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="D102" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="E102" t="n">
-        <v>25.9</v>
+        <v>27.4</v>
       </c>
       <c r="F102" t="n">
-        <v>270090.57</v>
+        <v>48791.6762</v>
       </c>
       <c r="G102" t="n">
-        <v>-2379947.353</v>
+        <v>-2073133.3747</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
         <v>25.9</v>
       </c>
@@ -4232,28 +4705,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>26.1</v>
+        <v>27.5</v>
       </c>
       <c r="C103" t="n">
-        <v>26.1</v>
+        <v>27.6</v>
       </c>
       <c r="D103" t="n">
-        <v>26.1</v>
+        <v>27.6</v>
       </c>
       <c r="E103" t="n">
-        <v>26.1</v>
+        <v>27.5</v>
       </c>
       <c r="F103" t="n">
-        <v>3823</v>
+        <v>64070.0505</v>
       </c>
       <c r="G103" t="n">
-        <v>-2383770.353</v>
+        <v>-2009063.3242</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4273,38 +4747,37 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="C104" t="n">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="D104" t="n">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="E104" t="n">
-        <v>25.9</v>
+        <v>27.5</v>
       </c>
       <c r="F104" t="n">
-        <v>9975.5</v>
+        <v>27765.6738</v>
       </c>
       <c r="G104" t="n">
-        <v>-2393745.853</v>
+        <v>-2009063.3242</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
         <v>25.9</v>
       </c>
@@ -4316,38 +4789,37 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>26.1</v>
+        <v>27.6</v>
       </c>
       <c r="C105" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="D105" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="E105" t="n">
-        <v>26.1</v>
+        <v>27.6</v>
       </c>
       <c r="F105" t="n">
-        <v>33945.879</v>
+        <v>13347.7712</v>
       </c>
       <c r="G105" t="n">
-        <v>-2359799.974</v>
+        <v>-2009063.3242</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
         <v>25.9</v>
       </c>
@@ -4359,38 +4831,37 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>26.1</v>
+        <v>27.7</v>
       </c>
       <c r="C106" t="n">
-        <v>26.1</v>
+        <v>27.7</v>
       </c>
       <c r="D106" t="n">
-        <v>26.1</v>
+        <v>27.7</v>
       </c>
       <c r="E106" t="n">
-        <v>26.1</v>
+        <v>27.7</v>
       </c>
       <c r="F106" t="n">
-        <v>19066.7553</v>
+        <v>66993.10460000001</v>
       </c>
       <c r="G106" t="n">
-        <v>-2378866.7293</v>
+        <v>-1942070.2196</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
         <v>25.9</v>
       </c>
@@ -4402,38 +4873,37 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>26.2</v>
+        <v>27.7</v>
       </c>
       <c r="C107" t="n">
-        <v>26.2</v>
+        <v>27.8</v>
       </c>
       <c r="D107" t="n">
-        <v>26.2</v>
+        <v>27.8</v>
       </c>
       <c r="E107" t="n">
-        <v>26.2</v>
+        <v>27.7</v>
       </c>
       <c r="F107" t="n">
-        <v>10227.6675</v>
+        <v>9464.0568</v>
       </c>
       <c r="G107" t="n">
-        <v>-2368639.0618</v>
+        <v>-1932606.1628</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
         <v>25.9</v>
       </c>
@@ -4445,38 +4915,37 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>26.1</v>
+        <v>27.8</v>
       </c>
       <c r="C108" t="n">
-        <v>26</v>
+        <v>27.8</v>
       </c>
       <c r="D108" t="n">
-        <v>26.1</v>
+        <v>27.8</v>
       </c>
       <c r="E108" t="n">
-        <v>26</v>
+        <v>27.8</v>
       </c>
       <c r="F108" t="n">
-        <v>27431</v>
+        <v>2232.6508</v>
       </c>
       <c r="G108" t="n">
-        <v>-2396070.0618</v>
+        <v>-1932606.1628</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
         <v>25.9</v>
       </c>
@@ -4488,28 +4957,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="C109" t="n">
-        <v>26.3</v>
+        <v>27.5</v>
       </c>
       <c r="D109" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="E109" t="n">
-        <v>26.3</v>
+        <v>27.5</v>
       </c>
       <c r="F109" t="n">
-        <v>5543</v>
+        <v>18000</v>
       </c>
       <c r="G109" t="n">
-        <v>-2390527.0618</v>
+        <v>-1950606.1628</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4529,28 +4999,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26.1</v>
+        <v>27.4</v>
       </c>
       <c r="C110" t="n">
-        <v>26</v>
+        <v>27.6</v>
       </c>
       <c r="D110" t="n">
-        <v>26.1</v>
+        <v>27.6</v>
       </c>
       <c r="E110" t="n">
-        <v>26</v>
+        <v>27.3</v>
       </c>
       <c r="F110" t="n">
-        <v>16870.7708</v>
+        <v>3779.5379</v>
       </c>
       <c r="G110" t="n">
-        <v>-2407397.8326</v>
+        <v>-1946826.6249</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4570,28 +5041,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="C111" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="D111" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="E111" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="F111" t="n">
-        <v>11127.222</v>
+        <v>2547.5543</v>
       </c>
       <c r="G111" t="n">
-        <v>-2396270.6106</v>
+        <v>-1946826.6249</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4611,28 +5083,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="C112" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="D112" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="E112" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="F112" t="n">
-        <v>9000</v>
+        <v>100</v>
       </c>
       <c r="G112" t="n">
-        <v>-2396270.6106</v>
+        <v>-1946826.6249</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4652,28 +5125,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>26.1</v>
+        <v>27.5</v>
       </c>
       <c r="C113" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="D113" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="E113" t="n">
-        <v>26.1</v>
+        <v>27.5</v>
       </c>
       <c r="F113" t="n">
-        <v>32131.8581</v>
+        <v>1562.7479</v>
       </c>
       <c r="G113" t="n">
-        <v>-2396270.6106</v>
+        <v>-1948389.3728</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4693,28 +5167,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26</v>
+        <v>27.4</v>
       </c>
       <c r="C114" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="D114" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="E114" t="n">
-        <v>26</v>
+        <v>27.4</v>
       </c>
       <c r="F114" t="n">
-        <v>20164.3474</v>
+        <v>2196.936517090909</v>
       </c>
       <c r="G114" t="n">
-        <v>-2416434.958</v>
+        <v>-1948389.3728</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4734,38 +5209,37 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="C115" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="D115" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="E115" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>10673.3906</v>
       </c>
       <c r="G115" t="n">
-        <v>-2416424.958</v>
+        <v>-1948389.3728</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>26</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
         <v>25.9</v>
       </c>
@@ -4777,28 +5251,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="C116" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="D116" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="E116" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="F116" t="n">
-        <v>14415.601</v>
+        <v>9049.4818</v>
       </c>
       <c r="G116" t="n">
-        <v>-2416424.958</v>
+        <v>-1939339.891</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4818,28 +5293,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="C117" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="D117" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="E117" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="F117" t="n">
-        <v>1853.4351</v>
+        <v>631</v>
       </c>
       <c r="G117" t="n">
-        <v>-2416424.958</v>
+        <v>-1939970.891</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4859,28 +5335,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>26.2</v>
+        <v>27.5</v>
       </c>
       <c r="C118" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="D118" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="E118" t="n">
-        <v>26.2</v>
+        <v>27.3</v>
       </c>
       <c r="F118" t="n">
-        <v>2319</v>
+        <v>58373.1356</v>
       </c>
       <c r="G118" t="n">
-        <v>-2416424.958</v>
+        <v>-1881597.7554</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4900,28 +5377,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="C119" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="D119" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="E119" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="F119" t="n">
-        <v>18702.5995</v>
+        <v>146300.3623</v>
       </c>
       <c r="G119" t="n">
-        <v>-2416424.958</v>
+        <v>-1881597.7554</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4941,28 +5419,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="C120" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="D120" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="E120" t="n">
-        <v>26.2</v>
+        <v>27.4</v>
       </c>
       <c r="F120" t="n">
-        <v>5984.2766</v>
+        <v>2010</v>
       </c>
       <c r="G120" t="n">
-        <v>-2416424.958</v>
+        <v>-1883607.7554</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4982,28 +5461,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="C121" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="D121" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="E121" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="F121" t="n">
-        <v>10800</v>
+        <v>67160.1375</v>
       </c>
       <c r="G121" t="n">
-        <v>-2405624.958</v>
+        <v>-1816447.6179</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5023,28 +5503,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="C122" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="D122" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="E122" t="n">
-        <v>26.3</v>
+        <v>27.5</v>
       </c>
       <c r="F122" t="n">
-        <v>11733.057</v>
+        <v>6806.0581</v>
       </c>
       <c r="G122" t="n">
-        <v>-2405624.958</v>
+        <v>-1816447.6179</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5064,28 +5545,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>26.3</v>
+        <v>27.5</v>
       </c>
       <c r="C123" t="n">
-        <v>26.4</v>
+        <v>27.7</v>
       </c>
       <c r="D123" t="n">
-        <v>26.4</v>
+        <v>27.7</v>
       </c>
       <c r="E123" t="n">
-        <v>26.3</v>
+        <v>27.5</v>
       </c>
       <c r="F123" t="n">
-        <v>120730.1447</v>
+        <v>20436</v>
       </c>
       <c r="G123" t="n">
-        <v>-2284894.8133</v>
+        <v>-1796011.6179</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5105,28 +5587,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="C124" t="n">
-        <v>26.5</v>
+        <v>27.6</v>
       </c>
       <c r="D124" t="n">
-        <v>26.6</v>
+        <v>27.6</v>
       </c>
       <c r="E124" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
       <c r="F124" t="n">
-        <v>132168.6644</v>
+        <v>849.7851000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>-2152726.148899999</v>
+        <v>-1796861.403</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5146,28 +5629,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>26.5</v>
+        <v>27.8</v>
       </c>
       <c r="C125" t="n">
-        <v>26.5</v>
+        <v>27.8</v>
       </c>
       <c r="D125" t="n">
-        <v>26.5</v>
+        <v>27.8</v>
       </c>
       <c r="E125" t="n">
-        <v>26.5</v>
+        <v>27.8</v>
       </c>
       <c r="F125" t="n">
-        <v>26149.6506</v>
+        <v>26877.8057</v>
       </c>
       <c r="G125" t="n">
-        <v>-2152726.148899999</v>
+        <v>-1769983.5973</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5187,34 +5671,35 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="C126" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="D126" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="E126" t="n">
-        <v>26.6</v>
+        <v>27.8</v>
       </c>
       <c r="F126" t="n">
-        <v>21942.4207</v>
+        <v>7241.0071</v>
       </c>
       <c r="G126" t="n">
-        <v>-2130783.728199999</v>
+        <v>-1769983.5973</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
@@ -5222,11 +5707,14 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>1</v>
+        <v>1.068359073359074</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1.015444015444016</v>
       </c>
     </row>
     <row r="127">
@@ -5234,246 +5722,216 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>26.7</v>
+        <v>27.7</v>
       </c>
       <c r="C127" t="n">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="D127" t="n">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="E127" t="n">
-        <v>26.7</v>
+        <v>27.7</v>
       </c>
       <c r="F127" t="n">
-        <v>93202.1786</v>
+        <v>903.0546000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>-2037581.549599999</v>
+        <v>-1770886.6519</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="C128" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="D128" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="E128" t="n">
-        <v>26.9</v>
+        <v>27.6</v>
       </c>
       <c r="F128" t="n">
-        <v>93328.1542</v>
+        <v>18004.5255</v>
       </c>
       <c r="G128" t="n">
-        <v>-1944253.395399999</v>
+        <v>-1788891.1774</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C129" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="D129" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E129" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F129" t="n">
-        <v>1000</v>
+        <v>17000</v>
       </c>
       <c r="G129" t="n">
-        <v>-1943253.395399999</v>
+        <v>-1788891.1774</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C130" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D130" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="E130" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F130" t="n">
-        <v>24446.7444</v>
+        <v>93069.4918</v>
       </c>
       <c r="G130" t="n">
-        <v>-1943253.395399999</v>
+        <v>-1881960.6692</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C131" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D131" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E131" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F131" t="n">
-        <v>10626</v>
+        <v>20660.5077</v>
       </c>
       <c r="G131" t="n">
-        <v>-1932627.395399999</v>
+        <v>-1881960.6692</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C132" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="D132" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="E132" t="n">
         <v>27.4</v>
       </c>
       <c r="F132" t="n">
-        <v>14041.0763</v>
+        <v>269368.6388</v>
       </c>
       <c r="G132" t="n">
-        <v>-1932627.395399999</v>
+        <v>-1612592.0304</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5492,282 +5950,247 @@
         <v>27.4</v>
       </c>
       <c r="F133" t="n">
-        <v>1000</v>
+        <v>3767</v>
       </c>
       <c r="G133" t="n">
-        <v>-1932627.395399999</v>
+        <v>-1616359.0304</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C134" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D134" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E134" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F134" t="n">
-        <v>4439.5668</v>
+        <v>18249.8813</v>
       </c>
       <c r="G134" t="n">
-        <v>-1928187.828599999</v>
+        <v>-1598109.1491</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C135" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D135" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E135" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F135" t="n">
-        <v>699.3454</v>
+        <v>3611.1111</v>
       </c>
       <c r="G135" t="n">
-        <v>-1928187.828599999</v>
+        <v>-1598109.1491</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="C136" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D136" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E136" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F136" t="n">
-        <v>174803.4438</v>
+        <v>28054.6875</v>
       </c>
       <c r="G136" t="n">
-        <v>-1928187.828599999</v>
+        <v>-1626163.8366</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C137" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D137" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E137" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F137" t="n">
-        <v>24.779</v>
+        <v>1111.7205</v>
       </c>
       <c r="G137" t="n">
-        <v>-1928187.828599999</v>
+        <v>-1626163.8366</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="C138" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="D138" t="n">
         <v>27.5</v>
       </c>
       <c r="E138" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="F138" t="n">
-        <v>125264.8699</v>
+        <v>28054.6875</v>
       </c>
       <c r="G138" t="n">
-        <v>-2053452.698499999</v>
+        <v>-1626163.8366</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C139" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D139" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E139" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F139" t="n">
-        <v>11</v>
+        <v>623.0228</v>
       </c>
       <c r="G139" t="n">
-        <v>-2053441.698499999</v>
+        <v>-1625540.8138</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C140" t="n">
         <v>27.5</v>
@@ -5776,1705 +6199,63 @@
         <v>27.5</v>
       </c>
       <c r="E140" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F140" t="n">
-        <v>29100</v>
+        <v>689.1529</v>
       </c>
       <c r="G140" t="n">
-        <v>-2024341.698499999</v>
+        <v>-1626229.9667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C141" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D141" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E141" t="n">
         <v>27.5</v>
       </c>
-      <c r="D141" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E141" t="n">
-        <v>27.4</v>
-      </c>
       <c r="F141" t="n">
-        <v>6154.7007</v>
+        <v>3133.0798</v>
       </c>
       <c r="G141" t="n">
-        <v>-2024341.698499999</v>
+        <v>-1623096.8869</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C142" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D142" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F142" t="n">
-        <v>8900</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-2024341.698499999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C143" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D143" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E143" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F143" t="n">
-        <v>6132.4742</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-2024341.698499999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C144" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D144" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E144" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F144" t="n">
-        <v>48791.6762</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-2073133.3747</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>64070.0505</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-2009063.3242</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E146" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F146" t="n">
-        <v>27765.6738</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-2009063.3242</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F147" t="n">
-        <v>13347.7712</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-2009063.3242</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C148" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D148" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E148" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>66993.10460000001</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-1942070.2196</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D149" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F149" t="n">
-        <v>9464.0568</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-1932606.1628</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C150" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D150" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E150" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2232.6508</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-1932606.1628</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C151" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D151" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E151" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F151" t="n">
-        <v>18000</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-1950606.1628</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C152" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D152" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E152" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3779.5379</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-1946826.6249</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C153" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D153" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E153" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2547.5543</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-1946826.6249</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F154" t="n">
-        <v>100</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-1946826.6249</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C155" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D155" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E155" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1562.7479</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-1948389.3728</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C156" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D156" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E156" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>2196.936517090909</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-1948389.3728</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C157" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D157" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E157" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F157" t="n">
-        <v>10673.3906</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-1948389.3728</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C158" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D158" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E158" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F158" t="n">
-        <v>9049.4818</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-1939339.891</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C159" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D159" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E159" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F159" t="n">
-        <v>631</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-1939970.891</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C160" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D160" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E160" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F160" t="n">
-        <v>58373.1356</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-1881597.7554</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C161" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D161" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E161" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F161" t="n">
-        <v>146300.3623</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-1881597.7554</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C162" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D162" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E162" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2010</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-1883607.7554</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C163" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D163" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E163" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F163" t="n">
-        <v>67160.1375</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-1816447.6179</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E164" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F164" t="n">
-        <v>6806.0581</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-1816447.6179</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C165" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D165" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E165" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F165" t="n">
-        <v>20436</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-1796011.6179</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C166" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D166" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E166" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F166" t="n">
-        <v>849.7851000000001</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-1796861.403</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C167" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D167" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E167" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F167" t="n">
-        <v>26877.8057</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-1769983.5973</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C168" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D168" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E168" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F168" t="n">
-        <v>7241.0071</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-1769983.5973</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1.068359073359074</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C169" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D169" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E169" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F169" t="n">
-        <v>903.0546000000001</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-1770886.6519</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C170" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D170" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E170" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F170" t="n">
-        <v>18004.5255</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-1788891.1774</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C171" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D171" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E171" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F171" t="n">
-        <v>17000</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-1788891.1774</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C172" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D172" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E172" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F172" t="n">
-        <v>93069.4918</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-1881960.6692</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C173" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D173" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E173" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F173" t="n">
-        <v>20660.5077</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1881960.6692</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C174" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D174" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E174" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F174" t="n">
-        <v>269368.6388</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1612592.0304</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E175" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F175" t="n">
-        <v>3767</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1616359.0304</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C176" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D176" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E176" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F176" t="n">
-        <v>18249.8813</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1598109.1491</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C177" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D177" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E177" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3611.1111</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-1598109.1491</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C178" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D178" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E178" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F178" t="n">
-        <v>28054.6875</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-1626163.8366</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C179" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D179" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E179" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1111.7205</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-1626163.8366</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C180" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D180" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E180" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F180" t="n">
-        <v>28054.6875</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1626163.8366</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C181" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D181" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E181" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F181" t="n">
-        <v>623.0228</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-1625540.8138</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C182" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D182" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E182" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F182" t="n">
-        <v>689.1529</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-1626229.9667</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C183" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D183" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E183" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F183" t="n">
-        <v>3133.0798</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-1623096.8869</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
+      <c r="N141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-17 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-17 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="C2" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D2" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E2" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F2" t="n">
-        <v>6888.0424</v>
+        <v>15085.9679</v>
       </c>
       <c r="G2" t="n">
-        <v>-1988240.3452</v>
+        <v>-521946.0444</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>1289.9176</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>-1988240.3452</v>
+        <v>-521936.0444</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="C4" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D4" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E4" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F4" t="n">
-        <v>4401.7891</v>
+        <v>2207.1017</v>
       </c>
       <c r="G4" t="n">
-        <v>-1988240.3452</v>
+        <v>-524143.1461</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,35 +546,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="C5" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="D5" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="E5" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="F5" t="n">
-        <v>13988.0292</v>
+        <v>1103.5508</v>
       </c>
       <c r="G5" t="n">
-        <v>-2002228.3744</v>
+        <v>-524143.1461</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -586,40 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="F6" t="n">
-        <v>7900</v>
+        <v>35060.8307</v>
       </c>
       <c r="G6" t="n">
-        <v>-2010128.3744</v>
+        <v>-524143.1461</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -630,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="C7" t="n">
-        <v>26.1</v>
+        <v>25.5</v>
       </c>
       <c r="D7" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="E7" t="n">
-        <v>26.1</v>
+        <v>25.5</v>
       </c>
       <c r="F7" t="n">
-        <v>992.8325</v>
+        <v>26154.7834</v>
       </c>
       <c r="G7" t="n">
-        <v>-2009135.5419</v>
+        <v>-550297.9295</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>26</v>
-      </c>
-      <c r="K7" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -674,35 +654,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.1</v>
+        <v>25.6</v>
       </c>
       <c r="C8" t="n">
-        <v>26.1</v>
+        <v>25.6</v>
       </c>
       <c r="D8" t="n">
-        <v>26.1</v>
+        <v>25.6</v>
       </c>
       <c r="E8" t="n">
-        <v>26.1</v>
+        <v>25.6</v>
       </c>
       <c r="F8" t="n">
-        <v>5762.4328</v>
+        <v>2417.8035</v>
       </c>
       <c r="G8" t="n">
-        <v>-2009135.5419</v>
+        <v>-547880.1259999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -714,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C9" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="D9" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="E9" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="F9" t="n">
-        <v>3244.7347</v>
+        <v>1488.6447</v>
       </c>
       <c r="G9" t="n">
-        <v>-2009135.5419</v>
+        <v>-546391.4813</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -738,14 +714,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -756,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C10" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="D10" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="E10" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="F10" t="n">
-        <v>30472.2393</v>
+        <v>1414.2123</v>
       </c>
       <c r="G10" t="n">
-        <v>-2009135.5419</v>
+        <v>-546391.4813</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -780,14 +750,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -798,35 +762,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C11" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="D11" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="E11" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="F11" t="n">
-        <v>3287.2598</v>
+        <v>2868.0321</v>
       </c>
       <c r="G11" t="n">
-        <v>-2009135.5419</v>
+        <v>-546391.4813</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -838,40 +798,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F12" t="n">
-        <v>769.0613</v>
+        <v>6900</v>
       </c>
       <c r="G12" t="n">
-        <v>-2009135.5419</v>
+        <v>-539491.4813</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -882,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>12000</v>
       </c>
       <c r="G13" t="n">
-        <v>-2009125.5419</v>
+        <v>-539491.4813</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -926,35 +870,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="C14" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="F14" t="n">
-        <v>132</v>
+        <v>118.5445</v>
       </c>
       <c r="G14" t="n">
-        <v>-2009125.5419</v>
+        <v>-539491.4813</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -966,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D15" t="n">
         <v>26.2</v>
       </c>
       <c r="E15" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F15" t="n">
-        <v>76.53870000000001</v>
+        <v>1158923.1401</v>
       </c>
       <c r="G15" t="n">
-        <v>-2009125.5419</v>
+        <v>-1698414.6214</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -990,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1008,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="C16" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="D16" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="E16" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="F16" t="n">
-        <v>2212.4251</v>
+        <v>65535.9892</v>
       </c>
       <c r="G16" t="n">
-        <v>-2011337.967</v>
+        <v>-1698414.6214</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1032,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="C17" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D17" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E17" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="F17" t="n">
-        <v>23361.1284</v>
+        <v>167765.6537</v>
       </c>
       <c r="G17" t="n">
-        <v>-1987976.8386</v>
+        <v>-1698414.6214</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1086,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="C18" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="D18" t="n">
         <v>26.1</v>
       </c>
       <c r="E18" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="F18" t="n">
-        <v>7816</v>
+        <v>364420.1581</v>
       </c>
       <c r="G18" t="n">
-        <v>-1995792.8386</v>
+        <v>-1698414.6214</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1122,35 +1050,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="C19" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D19" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E19" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F19" t="n">
-        <v>3550.3458</v>
+        <v>322161.822</v>
       </c>
       <c r="G19" t="n">
-        <v>-1992242.4928</v>
+        <v>-1698414.6214</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
@@ -1162,40 +1086,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="C20" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="D20" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E20" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="F20" t="n">
-        <v>1570</v>
+        <v>354457.9313</v>
       </c>
       <c r="G20" t="n">
-        <v>-1992242.4928</v>
+        <v>-2052872.5527</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1206,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="C21" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="D21" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="E21" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="F21" t="n">
-        <v>3657.5</v>
+        <v>878787.9665</v>
       </c>
       <c r="G21" t="n">
-        <v>-1992242.4928</v>
+        <v>-2052872.5527</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1230,16 +1146,12 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="K21" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>25.7</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1250,22 +1162,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="C22" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="E22" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="F22" t="n">
-        <v>17200</v>
+        <v>42635.6856</v>
       </c>
       <c r="G22" t="n">
-        <v>-2009442.4928</v>
+        <v>-2052872.5527</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1274,8 +1186,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1286,22 +1204,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
       <c r="C23" t="n">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
       <c r="D23" t="n">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
       <c r="E23" t="n">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>23794.6828</v>
       </c>
       <c r="G23" t="n">
-        <v>-2009431.4928</v>
+        <v>-2052872.5527</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1310,12 +1228,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="K23" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+        <v>25.7</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1326,38 +1248,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="C24" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="D24" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="E24" t="n">
         <v>25.8</v>
       </c>
       <c r="F24" t="n">
-        <v>46300</v>
+        <v>66</v>
       </c>
       <c r="G24" t="n">
-        <v>-2055731.4928</v>
+        <v>-2052806.5527</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>25.7</v>
+      </c>
       <c r="K24" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>25.7</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1368,36 +1288,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="C25" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="D25" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="E25" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="F25" t="n">
-        <v>845.2079</v>
+        <v>99</v>
       </c>
       <c r="G25" t="n">
-        <v>-2055731.4928</v>
+        <v>-2052806.5527</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>25.8</v>
+      </c>
       <c r="K25" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1410,22 +1332,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="C26" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="D26" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="E26" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="F26" t="n">
-        <v>482.0125</v>
+        <v>165</v>
       </c>
       <c r="G26" t="n">
-        <v>-2055731.4928</v>
+        <v>-2052806.5527</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1434,14 +1356,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="K26" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1454,22 +1376,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="C27" t="n">
         <v>25.8</v>
       </c>
       <c r="D27" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="E27" t="n">
         <v>25.8</v>
       </c>
       <c r="F27" t="n">
-        <v>12594.7547</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>-2068326.2475</v>
+        <v>-2052806.5527</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1478,16 +1400,12 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="K27" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>25.8</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1498,22 +1416,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="D28" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="E28" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="F28" t="n">
-        <v>90484.5039</v>
+        <v>337.5384</v>
       </c>
       <c r="G28" t="n">
-        <v>-2068326.2475</v>
+        <v>-2052469.0143</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1525,11 +1443,11 @@
         <v>25.8</v>
       </c>
       <c r="K28" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1542,22 +1460,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C29" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E29" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>-2068315.2475</v>
+        <v>-2052469.0143</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1566,14 +1484,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>26</v>
+      </c>
+      <c r="K29" t="n">
         <v>25.8</v>
       </c>
-      <c r="K29" t="n">
-        <v>25.9</v>
-      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M29" t="n">
@@ -1586,40 +1504,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C30" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D30" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E30" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>1679.395</v>
       </c>
       <c r="G30" t="n">
-        <v>-2068315.2475</v>
+        <v>-2052469.0143</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K30" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1630,38 +1540,36 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C31" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D31" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E31" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F31" t="n">
-        <v>124742.29</v>
+        <v>371.4957</v>
       </c>
       <c r="G31" t="n">
-        <v>-2068315.2475</v>
+        <v>-2052469.0143</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>26</v>
+      </c>
       <c r="K31" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1672,7 +1580,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C32" t="n">
         <v>26.2</v>
@@ -1681,27 +1589,29 @@
         <v>26.2</v>
       </c>
       <c r="E32" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F32" t="n">
-        <v>113920.477</v>
+        <v>4800</v>
       </c>
       <c r="G32" t="n">
-        <v>-2068315.2475</v>
+        <v>-2047669.0143</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>26</v>
+      </c>
       <c r="K32" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -1726,10 +1636,10 @@
         <v>26.2</v>
       </c>
       <c r="F33" t="n">
-        <v>38</v>
+        <v>2100</v>
       </c>
       <c r="G33" t="n">
-        <v>-2068277.2475</v>
+        <v>-2045569.0143</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1739,11 +1649,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -1759,19 +1669,19 @@
         <v>26.3</v>
       </c>
       <c r="C34" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="D34" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E34" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="F34" t="n">
-        <v>81518.26489999999</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>-2149795.5124</v>
+        <v>-2045569.0143</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1780,14 +1690,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1798,36 +1702,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C35" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D35" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E35" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F35" t="n">
-        <v>12</v>
+        <v>47211.1837</v>
       </c>
       <c r="G35" t="n">
-        <v>-2149783.5124</v>
+        <v>-1998357.8306</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J35" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -1840,7 +1744,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C36" t="n">
         <v>26.3</v>
@@ -1849,13 +1753,13 @@
         <v>26.3</v>
       </c>
       <c r="E36" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F36" t="n">
-        <v>9000</v>
+        <v>942.2071</v>
       </c>
       <c r="G36" t="n">
-        <v>-2140783.5124</v>
+        <v>-1999300.0377</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1864,9 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1882,22 +1784,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C37" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="D37" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E37" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F37" t="n">
-        <v>258</v>
+        <v>942.2071</v>
       </c>
       <c r="G37" t="n">
-        <v>-2140525.5124</v>
+        <v>-2000242.2448</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1906,9 +1808,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1936,10 +1836,10 @@
         <v>26.2</v>
       </c>
       <c r="F38" t="n">
-        <v>2605.5942</v>
+        <v>19.0458</v>
       </c>
       <c r="G38" t="n">
-        <v>-2143131.1066</v>
+        <v>-2000223.199</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1948,9 +1848,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1966,22 +1864,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="C39" t="n">
         <v>26.2</v>
       </c>
       <c r="D39" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E39" t="n">
         <v>26.2</v>
       </c>
       <c r="F39" t="n">
-        <v>43463.6553</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="n">
-        <v>-2143131.1066</v>
+        <v>-2000223.199</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1990,9 +1888,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2011,19 +1907,19 @@
         <v>26.2</v>
       </c>
       <c r="C40" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D40" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E40" t="n">
         <v>26.2</v>
       </c>
       <c r="F40" t="n">
-        <v>25269.8763</v>
+        <v>12962.8349</v>
       </c>
       <c r="G40" t="n">
-        <v>-2117861.2303</v>
+        <v>-2000223.199</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2032,9 +1928,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2050,22 +1944,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C41" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D41" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E41" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F41" t="n">
-        <v>3583.4942</v>
+        <v>1666.9517</v>
       </c>
       <c r="G41" t="n">
-        <v>-2117861.2303</v>
+        <v>-2000223.199</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2074,9 +1968,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2092,35 +1984,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C42" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="D42" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="E42" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F42" t="n">
-        <v>25176.3238</v>
+        <v>8194.1785</v>
       </c>
       <c r="G42" t="n">
-        <v>-2092684.9065</v>
+        <v>-2008417.3775</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2136,33 +2024,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="C43" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="D43" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="E43" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="F43" t="n">
-        <v>12.456</v>
+        <v>6600</v>
       </c>
       <c r="G43" t="n">
-        <v>-2092697.3625</v>
+        <v>-2008417.3775</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J43" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2178,22 +2066,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C44" t="n">
         <v>26.1</v>
       </c>
       <c r="D44" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E44" t="n">
         <v>26.1</v>
       </c>
       <c r="F44" t="n">
-        <v>157674.7586</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>-2250372.1211</v>
+        <v>-2008417.3775</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2202,9 +2090,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2220,35 +2106,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="C45" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="D45" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="E45" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="F45" t="n">
-        <v>333.867</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>-2250372.1211</v>
+        <v>-2008407.3775</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2279,20 +2161,16 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-2250362.1211</v>
+        <v>-2008407.3775</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2317,26 +2195,22 @@
         <v>26.4</v>
       </c>
       <c r="E47" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="F47" t="n">
-        <v>88032.87880000001</v>
+        <v>18939.39393939394</v>
       </c>
       <c r="G47" t="n">
-        <v>-2250362.1211</v>
+        <v>-2008407.3775</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K47" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2364,23 +2238,19 @@
         <v>26.2</v>
       </c>
       <c r="F48" t="n">
-        <v>27958.3091</v>
+        <v>1697.1494</v>
       </c>
       <c r="G48" t="n">
-        <v>-2278320.4302</v>
+        <v>-2010104.5269</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K48" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2408,23 +2278,19 @@
         <v>26.2</v>
       </c>
       <c r="F49" t="n">
-        <v>27958.309</v>
+        <v>6699.3713</v>
       </c>
       <c r="G49" t="n">
-        <v>-2278320.4302</v>
+        <v>-2010104.5269</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2440,35 +2306,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C50" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="D50" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E50" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F50" t="n">
-        <v>17555.8039</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>-2278320.4302</v>
+        <v>-2010094.5269</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2496,23 +2358,19 @@
         <v>26.2</v>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>369.9027</v>
       </c>
       <c r="G51" t="n">
-        <v>-2278320.4302</v>
+        <v>-2010464.4296</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K51" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,22 +2386,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="C52" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="D52" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="E52" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="F52" t="n">
-        <v>52567.4118</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>-2330887.842</v>
+        <v>-2010454.4296</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2552,9 +2410,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2582,23 +2438,19 @@
         <v>26.2</v>
       </c>
       <c r="F53" t="n">
-        <v>11804.5846</v>
+        <v>6529</v>
       </c>
       <c r="G53" t="n">
-        <v>-2319083.2574</v>
+        <v>-2016983.4296</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>26</v>
-      </c>
-      <c r="K53" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2614,22 +2466,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C54" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="D54" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E54" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F54" t="n">
-        <v>10581.8345</v>
+        <v>12</v>
       </c>
       <c r="G54" t="n">
-        <v>-2319083.2574</v>
+        <v>-2016971.4296</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2638,9 +2490,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2659,30 +2509,30 @@
         <v>26.1</v>
       </c>
       <c r="C55" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D55" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E55" t="n">
         <v>26.1</v>
       </c>
       <c r="F55" t="n">
-        <v>4168.7808</v>
+        <v>5177.7212</v>
       </c>
       <c r="G55" t="n">
-        <v>-2319083.2574</v>
+        <v>-2022149.1508</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J55" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2698,33 +2548,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C56" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D56" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E56" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F56" t="n">
-        <v>12889.2372</v>
+        <v>1447.7999</v>
       </c>
       <c r="G56" t="n">
-        <v>-2319083.2574</v>
+        <v>-2022149.1508</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J56" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2740,33 +2590,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C57" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="D57" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E57" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F57" t="n">
-        <v>67979.9651</v>
+        <v>320.0292</v>
       </c>
       <c r="G57" t="n">
-        <v>-2387063.2225</v>
+        <v>-2021829.1216</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J57" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2794,10 +2644,10 @@
         <v>26.2</v>
       </c>
       <c r="F58" t="n">
-        <v>7115.8695</v>
+        <v>10200</v>
       </c>
       <c r="G58" t="n">
-        <v>-2379947.353</v>
+        <v>-2021829.1216</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2806,11 +2656,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K58" t="n">
-        <v>25.9</v>
-      </c>
+        <v>26.2</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2826,22 +2674,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C59" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D59" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E59" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F59" t="n">
-        <v>33140.9999</v>
+        <v>2826.7979</v>
       </c>
       <c r="G59" t="n">
-        <v>-2379947.353</v>
+        <v>-2024655.9195</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2852,9 +2700,7 @@
       <c r="J59" t="n">
         <v>26.2</v>
       </c>
-      <c r="K59" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2870,7 +2716,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C60" t="n">
         <v>26.2</v>
@@ -2879,13 +2725,13 @@
         <v>26.2</v>
       </c>
       <c r="E60" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="F60" t="n">
-        <v>270090.57</v>
+        <v>92995.0414</v>
       </c>
       <c r="G60" t="n">
-        <v>-2379947.353</v>
+        <v>-1931660.8781</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2894,11 +2740,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K60" t="n">
-        <v>25.9</v>
-      </c>
+        <v>26.1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2914,22 +2758,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C61" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D61" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E61" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F61" t="n">
-        <v>3823</v>
+        <v>7019</v>
       </c>
       <c r="G61" t="n">
-        <v>-2383770.353</v>
+        <v>-1931660.8781</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -2940,9 +2784,7 @@
       <c r="J61" t="n">
         <v>26.2</v>
       </c>
-      <c r="K61" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2958,22 +2800,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="C62" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="D62" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="E62" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F62" t="n">
-        <v>9975.5</v>
+        <v>7377.4427</v>
       </c>
       <c r="G62" t="n">
-        <v>-2393745.853</v>
+        <v>-1931660.8781</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2982,11 +2824,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K62" t="n">
-        <v>25.9</v>
-      </c>
+        <v>26.2</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3002,10 +2842,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C63" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D63" t="n">
         <v>26.2</v>
@@ -3014,23 +2854,19 @@
         <v>26.1</v>
       </c>
       <c r="F63" t="n">
-        <v>33945.879</v>
+        <v>49449.2358</v>
       </c>
       <c r="G63" t="n">
-        <v>-2359799.974</v>
+        <v>-1981110.1139</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K63" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3046,35 +2882,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C64" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="D64" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E64" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F64" t="n">
-        <v>19066.7553</v>
+        <v>7604.8484</v>
       </c>
       <c r="G64" t="n">
-        <v>-2378866.7293</v>
+        <v>-1988714.9623</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K64" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,35 +2922,31 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C65" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D65" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E65" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F65" t="n">
-        <v>10227.6675</v>
+        <v>1657.1293</v>
       </c>
       <c r="G65" t="n">
-        <v>-2368639.0618</v>
+        <v>-1987057.833</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3137,32 +2965,28 @@
         <v>26.1</v>
       </c>
       <c r="C66" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="D66" t="n">
         <v>26.1</v>
       </c>
       <c r="E66" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F66" t="n">
-        <v>27431</v>
+        <v>50837.2466</v>
       </c>
       <c r="G66" t="n">
-        <v>-2396070.0618</v>
+        <v>-1987057.833</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K66" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3178,35 +3002,31 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C67" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D67" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E67" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F67" t="n">
-        <v>5543</v>
+        <v>2579.6772</v>
       </c>
       <c r="G67" t="n">
-        <v>-2390527.0618</v>
+        <v>-1984478.1558</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>26</v>
-      </c>
-      <c r="K67" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3222,22 +3042,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="C68" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D68" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E68" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F68" t="n">
-        <v>16870.7708</v>
+        <v>266702.0166</v>
       </c>
       <c r="G68" t="n">
-        <v>-2407397.8326</v>
+        <v>-1984478.1558</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3246,9 +3066,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3276,23 +3094,19 @@
         <v>26.2</v>
       </c>
       <c r="F69" t="n">
-        <v>11127.222</v>
+        <v>16913.0534</v>
       </c>
       <c r="G69" t="n">
-        <v>-2396270.6106</v>
+        <v>-1984478.1558</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>26</v>
-      </c>
-      <c r="K69" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3320,10 +3134,10 @@
         <v>26.2</v>
       </c>
       <c r="F70" t="n">
-        <v>9000</v>
+        <v>16457.8467</v>
       </c>
       <c r="G70" t="n">
-        <v>-2396270.6106</v>
+        <v>-1984478.1558</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3332,9 +3146,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3350,35 +3162,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="C71" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D71" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E71" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="F71" t="n">
-        <v>32131.8581</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>-2396270.6106</v>
+        <v>-1984468.1558</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K71" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,22 +3202,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C72" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D72" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E72" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F72" t="n">
-        <v>20164.3474</v>
+        <v>3772.1894</v>
       </c>
       <c r="G72" t="n">
-        <v>-2416434.958</v>
+        <v>-1988240.3452</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3418,9 +3226,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,23 +3254,19 @@
         <v>26.2</v>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>6888.0424</v>
       </c>
       <c r="G73" t="n">
-        <v>-2416424.958</v>
+        <v>-1988240.3452</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>26</v>
-      </c>
-      <c r="K73" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3492,23 +3294,19 @@
         <v>26.2</v>
       </c>
       <c r="F74" t="n">
-        <v>14415.601</v>
+        <v>1289.9176</v>
       </c>
       <c r="G74" t="n">
-        <v>-2416424.958</v>
+        <v>-1988240.3452</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K74" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,23 +3334,19 @@
         <v>26.2</v>
       </c>
       <c r="F75" t="n">
-        <v>1853.4351</v>
+        <v>4401.7891</v>
       </c>
       <c r="G75" t="n">
-        <v>-2416424.958</v>
+        <v>-1988240.3452</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K75" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3568,33 +3362,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C76" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D76" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E76" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F76" t="n">
-        <v>2319</v>
+        <v>13988.0292</v>
       </c>
       <c r="G76" t="n">
-        <v>-2416424.958</v>
+        <v>-2002228.3744</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J76" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3610,22 +3404,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C77" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D77" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E77" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F77" t="n">
-        <v>18702.5995</v>
+        <v>7900</v>
       </c>
       <c r="G77" t="n">
-        <v>-2416424.958</v>
+        <v>-2010128.3744</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -3634,11 +3428,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K77" t="n">
-        <v>25.9</v>
-      </c>
+        <v>26.1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3654,22 +3446,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C78" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D78" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E78" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F78" t="n">
-        <v>5984.2766</v>
+        <v>992.8325</v>
       </c>
       <c r="G78" t="n">
-        <v>-2416424.958</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
@@ -3678,11 +3470,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K78" t="n">
-        <v>25.9</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3698,22 +3488,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C79" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D79" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="E79" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F79" t="n">
-        <v>10800</v>
+        <v>5762.4328</v>
       </c>
       <c r="G79" t="n">
-        <v>-2405624.958</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -3722,11 +3512,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K79" t="n">
-        <v>25.9</v>
-      </c>
+        <v>26.1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3742,22 +3530,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C80" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="D80" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="E80" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F80" t="n">
-        <v>11733.057</v>
+        <v>3244.7347</v>
       </c>
       <c r="G80" t="n">
-        <v>-2405624.958</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
@@ -3766,11 +3554,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K80" t="n">
-        <v>25.9</v>
-      </c>
+        <v>26.1</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3786,22 +3572,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C81" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="D81" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E81" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="F81" t="n">
-        <v>120730.1447</v>
+        <v>30472.2393</v>
       </c>
       <c r="G81" t="n">
-        <v>-2284894.8133</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -3810,11 +3596,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K81" t="n">
-        <v>25.9</v>
-      </c>
+        <v>26.1</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3830,33 +3614,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C82" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="D82" t="n">
-        <v>26.6</v>
+        <v>26.1</v>
       </c>
       <c r="E82" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="F82" t="n">
-        <v>132168.6644</v>
+        <v>3287.2598</v>
       </c>
       <c r="G82" t="n">
-        <v>-2152726.148899999</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J82" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,33 +3656,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="C83" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="D83" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="E83" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="F83" t="n">
-        <v>26149.6506</v>
+        <v>769.0613</v>
       </c>
       <c r="G83" t="n">
-        <v>-2152726.148899999</v>
+        <v>-2009135.5419</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J83" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,33 +3698,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="C84" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="D84" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="E84" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="F84" t="n">
-        <v>21942.4207</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>-2130783.728199999</v>
+        <v>-2009125.5419</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J84" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3956,22 +3740,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="C85" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="D85" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="E85" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="F85" t="n">
-        <v>93202.1786</v>
+        <v>132</v>
       </c>
       <c r="G85" t="n">
-        <v>-2037581.549599999</v>
+        <v>-2009125.5419</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3980,9 +3764,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3998,22 +3780,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="C86" t="n">
-        <v>27.2</v>
+        <v>26.2</v>
       </c>
       <c r="D86" t="n">
-        <v>27.2</v>
+        <v>26.2</v>
       </c>
       <c r="E86" t="n">
-        <v>26.9</v>
+        <v>26.2</v>
       </c>
       <c r="F86" t="n">
-        <v>93328.1542</v>
+        <v>76.53870000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>-1944253.395399999</v>
+        <v>-2009125.5419</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4022,9 +3804,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4040,22 +3820,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>27.3</v>
+        <v>26.1</v>
       </c>
       <c r="C87" t="n">
-        <v>27.3</v>
+        <v>26.1</v>
       </c>
       <c r="D87" t="n">
-        <v>27.3</v>
+        <v>26.1</v>
       </c>
       <c r="E87" t="n">
-        <v>27.3</v>
+        <v>26.1</v>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>2212.4251</v>
       </c>
       <c r="G87" t="n">
-        <v>-1943253.395399999</v>
+        <v>-2011337.967</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4064,9 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,22 +3860,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>27.3</v>
+        <v>26</v>
       </c>
       <c r="C88" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="D88" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="E88" t="n">
-        <v>27.3</v>
+        <v>26</v>
       </c>
       <c r="F88" t="n">
-        <v>24446.7444</v>
+        <v>23361.1284</v>
       </c>
       <c r="G88" t="n">
-        <v>-1943253.395399999</v>
+        <v>-1987976.8386</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4106,9 +3884,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,22 +3900,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>27.3</v>
+        <v>26.1</v>
       </c>
       <c r="C89" t="n">
-        <v>27.4</v>
+        <v>26.1</v>
       </c>
       <c r="D89" t="n">
-        <v>27.4</v>
+        <v>26.1</v>
       </c>
       <c r="E89" t="n">
-        <v>27.3</v>
+        <v>26.1</v>
       </c>
       <c r="F89" t="n">
-        <v>10626</v>
+        <v>7816</v>
       </c>
       <c r="G89" t="n">
-        <v>-1932627.395399999</v>
+        <v>-1995792.8386</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4148,9 +3924,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4166,22 +3940,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="C90" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="D90" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="E90" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="F90" t="n">
-        <v>14041.0763</v>
+        <v>3550.3458</v>
       </c>
       <c r="G90" t="n">
-        <v>-1932627.395399999</v>
+        <v>-1992242.4928</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4190,9 +3964,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4208,22 +3980,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="C91" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="D91" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="E91" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="F91" t="n">
-        <v>1000</v>
+        <v>1570</v>
       </c>
       <c r="G91" t="n">
-        <v>-1932627.395399999</v>
+        <v>-1992242.4928</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4232,9 +4004,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4250,22 +4020,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="C92" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D92" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E92" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F92" t="n">
-        <v>4439.5668</v>
+        <v>3657.5</v>
       </c>
       <c r="G92" t="n">
-        <v>-1928187.828599999</v>
+        <v>-1992242.4928</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4274,9 +4044,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4292,22 +4060,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="C93" t="n">
-        <v>27.5</v>
+        <v>25.9</v>
       </c>
       <c r="D93" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="E93" t="n">
-        <v>27.5</v>
+        <v>25.9</v>
       </c>
       <c r="F93" t="n">
-        <v>699.3454</v>
+        <v>17200</v>
       </c>
       <c r="G93" t="n">
-        <v>-1928187.828599999</v>
+        <v>-2009442.4928</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4316,9 +4084,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4334,22 +4100,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="C94" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="D94" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="E94" t="n">
-        <v>27.2</v>
+        <v>26.3</v>
       </c>
       <c r="F94" t="n">
-        <v>174803.4438</v>
+        <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>-1928187.828599999</v>
+        <v>-2009431.4928</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4358,9 +4124,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4376,22 +4140,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>27.6</v>
+        <v>25.9</v>
       </c>
       <c r="C95" t="n">
-        <v>27.5</v>
+        <v>25.9</v>
       </c>
       <c r="D95" t="n">
-        <v>27.6</v>
+        <v>25.9</v>
       </c>
       <c r="E95" t="n">
-        <v>27.5</v>
+        <v>25.8</v>
       </c>
       <c r="F95" t="n">
-        <v>24.779</v>
+        <v>46300</v>
       </c>
       <c r="G95" t="n">
-        <v>-1928187.828599999</v>
+        <v>-2055731.4928</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4400,9 +4164,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4418,22 +4180,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>27.3</v>
+        <v>25.9</v>
       </c>
       <c r="C96" t="n">
-        <v>27.3</v>
+        <v>25.9</v>
       </c>
       <c r="D96" t="n">
-        <v>27.5</v>
+        <v>25.9</v>
       </c>
       <c r="E96" t="n">
-        <v>27.2</v>
+        <v>25.9</v>
       </c>
       <c r="F96" t="n">
-        <v>125264.8699</v>
+        <v>845.2079</v>
       </c>
       <c r="G96" t="n">
-        <v>-2053452.698499999</v>
+        <v>-2055731.4928</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4442,9 +4204,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,22 +4220,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="C97" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="D97" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="E97" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="F97" t="n">
-        <v>11</v>
+        <v>482.0125</v>
       </c>
       <c r="G97" t="n">
-        <v>-2053441.698499999</v>
+        <v>-2055731.4928</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4484,9 +4244,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4502,22 +4260,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="C98" t="n">
-        <v>27.5</v>
+        <v>25.8</v>
       </c>
       <c r="D98" t="n">
-        <v>27.5</v>
+        <v>25.9</v>
       </c>
       <c r="E98" t="n">
-        <v>27.4</v>
+        <v>25.8</v>
       </c>
       <c r="F98" t="n">
-        <v>29100</v>
+        <v>12594.7547</v>
       </c>
       <c r="G98" t="n">
-        <v>-2024341.698499999</v>
+        <v>-2068326.2475</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4526,9 +4284,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4544,22 +4300,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.4</v>
+        <v>25.8</v>
       </c>
       <c r="C99" t="n">
-        <v>27.5</v>
+        <v>25.8</v>
       </c>
       <c r="D99" t="n">
-        <v>27.5</v>
+        <v>25.8</v>
       </c>
       <c r="E99" t="n">
-        <v>27.4</v>
+        <v>25.8</v>
       </c>
       <c r="F99" t="n">
-        <v>6154.7007</v>
+        <v>90484.5039</v>
       </c>
       <c r="G99" t="n">
-        <v>-2024341.698499999</v>
+        <v>-2068326.2475</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4568,9 +4324,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4586,33 +4340,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="C100" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D100" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E100" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F100" t="n">
-        <v>8900</v>
+        <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>-2024341.698499999</v>
+        <v>-2068315.2475</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="J100" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4628,22 +4382,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="C101" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D101" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E101" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F101" t="n">
-        <v>6132.4742</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>-2024341.698499999</v>
+        <v>-2068315.2475</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4652,9 +4406,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4670,22 +4422,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="C102" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="D102" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="E102" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="F102" t="n">
-        <v>48791.6762</v>
+        <v>124742.29</v>
       </c>
       <c r="G102" t="n">
-        <v>-2073133.3747</v>
+        <v>-2068315.2475</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4694,9 +4446,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4712,22 +4462,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="C103" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="D103" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E103" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="F103" t="n">
-        <v>64070.0505</v>
+        <v>113920.477</v>
       </c>
       <c r="G103" t="n">
-        <v>-2009063.3242</v>
+        <v>-2068315.2475</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4736,9 +4486,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4754,22 +4502,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="C104" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="D104" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="E104" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F104" t="n">
-        <v>27765.6738</v>
+        <v>38</v>
       </c>
       <c r="G104" t="n">
-        <v>-2009063.3242</v>
+        <v>-2068277.2475</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4778,9 +4526,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4796,22 +4542,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="C105" t="n">
-        <v>27.6</v>
+        <v>25.8</v>
       </c>
       <c r="D105" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="E105" t="n">
-        <v>27.6</v>
+        <v>25.8</v>
       </c>
       <c r="F105" t="n">
-        <v>13347.7712</v>
+        <v>81518.26489999999</v>
       </c>
       <c r="G105" t="n">
-        <v>-2009063.3242</v>
+        <v>-2149795.5124</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4820,9 +4566,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4838,22 +4582,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="C106" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="D106" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="E106" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="F106" t="n">
-        <v>66993.10460000001</v>
+        <v>12</v>
       </c>
       <c r="G106" t="n">
-        <v>-1942070.2196</v>
+        <v>-2149783.5124</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4862,9 +4606,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4880,22 +4622,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="C107" t="n">
-        <v>27.8</v>
+        <v>26.3</v>
       </c>
       <c r="D107" t="n">
-        <v>27.8</v>
+        <v>26.3</v>
       </c>
       <c r="E107" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="F107" t="n">
-        <v>9464.0568</v>
+        <v>9000</v>
       </c>
       <c r="G107" t="n">
-        <v>-1932606.1628</v>
+        <v>-2140783.5124</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4904,9 +4646,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4922,22 +4662,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.8</v>
+        <v>26.3</v>
       </c>
       <c r="C108" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="D108" t="n">
-        <v>27.8</v>
+        <v>26.4</v>
       </c>
       <c r="E108" t="n">
-        <v>27.8</v>
+        <v>26.3</v>
       </c>
       <c r="F108" t="n">
-        <v>2232.6508</v>
+        <v>258</v>
       </c>
       <c r="G108" t="n">
-        <v>-1932606.1628</v>
+        <v>-2140525.5124</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4946,9 +4686,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4964,22 +4702,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="C109" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D109" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E109" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F109" t="n">
-        <v>18000</v>
+        <v>2605.5942</v>
       </c>
       <c r="G109" t="n">
-        <v>-1950606.1628</v>
+        <v>-2143131.1066</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4988,9 +4726,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5006,22 +4742,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="C110" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="D110" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="E110" t="n">
-        <v>27.3</v>
+        <v>26.2</v>
       </c>
       <c r="F110" t="n">
-        <v>3779.5379</v>
+        <v>43463.6553</v>
       </c>
       <c r="G110" t="n">
-        <v>-1946826.6249</v>
+        <v>-2143131.1066</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -5030,9 +4766,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5048,22 +4782,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="C111" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="D111" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="E111" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="F111" t="n">
-        <v>2547.5543</v>
+        <v>25269.8763</v>
       </c>
       <c r="G111" t="n">
-        <v>-1946826.6249</v>
+        <v>-2117861.2303</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5072,9 +4806,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5090,22 +4822,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="C112" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="D112" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="E112" t="n">
-        <v>27.6</v>
+        <v>26.3</v>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>3583.4942</v>
       </c>
       <c r="G112" t="n">
-        <v>-1946826.6249</v>
+        <v>-2117861.2303</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5114,9 +4846,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5132,22 +4862,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="C113" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="D113" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="E113" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="F113" t="n">
-        <v>1562.7479</v>
+        <v>25176.3238</v>
       </c>
       <c r="G113" t="n">
-        <v>-1948389.3728</v>
+        <v>-2092684.9065</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5156,9 +4886,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5174,22 +4902,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.4</v>
+        <v>26.5</v>
       </c>
       <c r="C114" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="D114" t="n">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="E114" t="n">
-        <v>27.4</v>
+        <v>26.5</v>
       </c>
       <c r="F114" t="n">
-        <v>2196.936517090909</v>
+        <v>12.456</v>
       </c>
       <c r="G114" t="n">
-        <v>-1948389.3728</v>
+        <v>-2092697.3625</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5198,9 +4926,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5216,22 +4942,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="C115" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="D115" t="n">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="E115" t="n">
-        <v>27.4</v>
+        <v>26.1</v>
       </c>
       <c r="F115" t="n">
-        <v>10673.3906</v>
+        <v>157674.7586</v>
       </c>
       <c r="G115" t="n">
-        <v>-1948389.3728</v>
+        <v>-2250372.1211</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5240,9 +4966,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5258,22 +4982,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="C116" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="D116" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="E116" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="F116" t="n">
-        <v>9049.4818</v>
+        <v>333.867</v>
       </c>
       <c r="G116" t="n">
-        <v>-1939339.891</v>
+        <v>-2250372.1211</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5282,9 +5006,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5300,22 +5022,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="C117" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="D117" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="E117" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="F117" t="n">
-        <v>631</v>
+        <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>-1939970.891</v>
+        <v>-2250362.1211</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5324,9 +5046,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5342,22 +5062,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>27.5</v>
+        <v>26.4</v>
       </c>
       <c r="C118" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="D118" t="n">
-        <v>27.6</v>
+        <v>26.4</v>
       </c>
       <c r="E118" t="n">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="F118" t="n">
-        <v>58373.1356</v>
+        <v>88032.87880000001</v>
       </c>
       <c r="G118" t="n">
-        <v>-1881597.7554</v>
+        <v>-2250362.1211</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5366,9 +5086,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5384,22 +5102,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="C119" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="D119" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E119" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="F119" t="n">
-        <v>146300.3623</v>
+        <v>27958.3091</v>
       </c>
       <c r="G119" t="n">
-        <v>-1881597.7554</v>
+        <v>-2278320.4302</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5408,9 +5126,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5426,22 +5142,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="C120" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="D120" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E120" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="F120" t="n">
-        <v>2010</v>
+        <v>27958.309</v>
       </c>
       <c r="G120" t="n">
-        <v>-1883607.7554</v>
+        <v>-2278320.4302</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5450,9 +5166,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5468,22 +5182,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="C121" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="D121" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E121" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="F121" t="n">
-        <v>67160.1375</v>
+        <v>17555.8039</v>
       </c>
       <c r="G121" t="n">
-        <v>-1816447.6179</v>
+        <v>-2278320.4302</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5492,9 +5206,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5510,22 +5222,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="C122" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="D122" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E122" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F122" t="n">
-        <v>6806.0581</v>
+        <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>-1816447.6179</v>
+        <v>-2278320.4302</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5534,9 +5246,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5552,22 +5262,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="C123" t="n">
-        <v>27.7</v>
+        <v>26</v>
       </c>
       <c r="D123" t="n">
-        <v>27.7</v>
+        <v>26</v>
       </c>
       <c r="E123" t="n">
-        <v>27.5</v>
+        <v>26</v>
       </c>
       <c r="F123" t="n">
-        <v>20436</v>
+        <v>52567.4118</v>
       </c>
       <c r="G123" t="n">
-        <v>-1796011.6179</v>
+        <v>-2330887.842</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5576,9 +5286,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5594,22 +5302,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="C124" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="D124" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E124" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="F124" t="n">
-        <v>849.7851000000001</v>
+        <v>11804.5846</v>
       </c>
       <c r="G124" t="n">
-        <v>-1796861.403</v>
+        <v>-2319083.2574</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5618,9 +5326,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5636,22 +5342,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="C125" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="D125" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="E125" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="F125" t="n">
-        <v>26877.8057</v>
+        <v>10581.8345</v>
       </c>
       <c r="G125" t="n">
-        <v>-1769983.5973</v>
+        <v>-2319083.2574</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5660,9 +5366,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5678,76 +5382,76 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>27.8</v>
+        <v>26.1</v>
       </c>
       <c r="C126" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="D126" t="n">
-        <v>27.8</v>
+        <v>26.2</v>
       </c>
       <c r="E126" t="n">
-        <v>27.8</v>
+        <v>26.1</v>
       </c>
       <c r="F126" t="n">
-        <v>7241.0071</v>
+        <v>4168.7808</v>
       </c>
       <c r="G126" t="n">
-        <v>-1769983.5973</v>
+        <v>-2319083.2574</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>25.9</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>1.068359073359074</v>
-      </c>
-      <c r="N126" t="n">
-        <v>1.015444015444016</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="C127" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="D127" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="E127" t="n">
-        <v>27.7</v>
+        <v>26.2</v>
       </c>
       <c r="F127" t="n">
-        <v>903.0546000000001</v>
+        <v>12889.2372</v>
       </c>
       <c r="G127" t="n">
-        <v>-1770886.6519</v>
+        <v>-2319083.2574</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5758,32 +5462,36 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="C128" t="n">
-        <v>27.6</v>
+        <v>25.9</v>
       </c>
       <c r="D128" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="E128" t="n">
-        <v>27.6</v>
+        <v>25.9</v>
       </c>
       <c r="F128" t="n">
-        <v>18004.5255</v>
+        <v>67979.9651</v>
       </c>
       <c r="G128" t="n">
-        <v>-1788891.1774</v>
+        <v>-2387063.2225</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5794,32 +5502,36 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="C129" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="D129" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E129" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="F129" t="n">
-        <v>17000</v>
+        <v>7115.8695</v>
       </c>
       <c r="G129" t="n">
-        <v>-1788891.1774</v>
+        <v>-2379947.353</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5830,32 +5542,36 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="C130" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D130" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E130" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F130" t="n">
-        <v>93069.4918</v>
+        <v>33140.9999</v>
       </c>
       <c r="G130" t="n">
-        <v>-1881960.6692</v>
+        <v>-2379947.353</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5866,32 +5582,36 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.5</v>
+        <v>25.9</v>
       </c>
       <c r="C131" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D131" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E131" t="n">
-        <v>27.5</v>
+        <v>25.9</v>
       </c>
       <c r="F131" t="n">
-        <v>20660.5077</v>
+        <v>270090.57</v>
       </c>
       <c r="G131" t="n">
-        <v>-1881960.6692</v>
+        <v>-2379947.353</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5902,32 +5622,36 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>27.5</v>
+        <v>26.1</v>
       </c>
       <c r="C132" t="n">
-        <v>27.7</v>
+        <v>26.1</v>
       </c>
       <c r="D132" t="n">
-        <v>27.7</v>
+        <v>26.1</v>
       </c>
       <c r="E132" t="n">
-        <v>27.4</v>
+        <v>26.1</v>
       </c>
       <c r="F132" t="n">
-        <v>269368.6388</v>
+        <v>3823</v>
       </c>
       <c r="G132" t="n">
-        <v>-1612592.0304</v>
+        <v>-2383770.353</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5938,32 +5662,36 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="C133" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="D133" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="E133" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="F133" t="n">
-        <v>3767</v>
+        <v>9975.5</v>
       </c>
       <c r="G133" t="n">
-        <v>-1616359.0304</v>
+        <v>-2393745.853</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5974,32 +5702,36 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="C134" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="D134" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E134" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="F134" t="n">
-        <v>18249.8813</v>
+        <v>33945.879</v>
       </c>
       <c r="G134" t="n">
-        <v>-1598109.1491</v>
+        <v>-2359799.974</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -6010,32 +5742,36 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="C135" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="D135" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="E135" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="F135" t="n">
-        <v>3611.1111</v>
+        <v>19066.7553</v>
       </c>
       <c r="G135" t="n">
-        <v>-1598109.1491</v>
+        <v>-2378866.7293</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6046,32 +5782,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="C136" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="D136" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="E136" t="n">
-        <v>27.4</v>
+        <v>26.2</v>
       </c>
       <c r="F136" t="n">
-        <v>28054.6875</v>
+        <v>10227.6675</v>
       </c>
       <c r="G136" t="n">
-        <v>-1626163.8366</v>
+        <v>-2368639.0618</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6082,32 +5822,36 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>27.4</v>
+        <v>26.1</v>
       </c>
       <c r="C137" t="n">
-        <v>27.4</v>
+        <v>26</v>
       </c>
       <c r="D137" t="n">
-        <v>27.4</v>
+        <v>26.1</v>
       </c>
       <c r="E137" t="n">
-        <v>27.4</v>
+        <v>26</v>
       </c>
       <c r="F137" t="n">
-        <v>1111.7205</v>
+        <v>27431</v>
       </c>
       <c r="G137" t="n">
-        <v>-1626163.8366</v>
+        <v>-2396070.0618</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6118,32 +5862,36 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="C138" t="n">
-        <v>27.4</v>
+        <v>26.3</v>
       </c>
       <c r="D138" t="n">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="E138" t="n">
-        <v>27.4</v>
+        <v>26.3</v>
       </c>
       <c r="F138" t="n">
-        <v>28054.6875</v>
+        <v>5543</v>
       </c>
       <c r="G138" t="n">
-        <v>-1626163.8366</v>
+        <v>-2390527.0618</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6154,32 +5902,36 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="C139" t="n">
-        <v>27.6</v>
+        <v>26</v>
       </c>
       <c r="D139" t="n">
-        <v>27.6</v>
+        <v>26.1</v>
       </c>
       <c r="E139" t="n">
-        <v>27.6</v>
+        <v>26</v>
       </c>
       <c r="F139" t="n">
-        <v>623.0228</v>
+        <v>16870.7708</v>
       </c>
       <c r="G139" t="n">
-        <v>-1625540.8138</v>
+        <v>-2407397.8326</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6190,32 +5942,36 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="C140" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="D140" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="E140" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F140" t="n">
-        <v>689.1529</v>
+        <v>11127.222</v>
       </c>
       <c r="G140" t="n">
-        <v>-1626229.9667</v>
+        <v>-2396270.6106</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6226,36 +5982,2678 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="C141" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="D141" t="n">
-        <v>27.6</v>
+        <v>26.2</v>
       </c>
       <c r="E141" t="n">
-        <v>27.5</v>
+        <v>26.2</v>
       </c>
       <c r="F141" t="n">
-        <v>3133.0798</v>
+        <v>9000</v>
       </c>
       <c r="G141" t="n">
-        <v>-1623096.8869</v>
+        <v>-2396270.6106</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
       <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>32131.8581</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2396270.6106</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>26</v>
+      </c>
+      <c r="C143" t="n">
+        <v>26</v>
+      </c>
+      <c r="D143" t="n">
+        <v>26</v>
+      </c>
+      <c r="E143" t="n">
+        <v>26</v>
+      </c>
+      <c r="F143" t="n">
+        <v>20164.3474</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2416434.958</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-2416424.958</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>14415.601</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-2416424.958</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1853.4351</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-2416424.958</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2319</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-2416424.958</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>18702.5995</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-2416424.958</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5984.2766</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-2416424.958</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>10800</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2405624.958</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E151" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11733.057</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-2405624.958</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E152" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>120730.1447</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2284894.8133</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>132168.6644</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2152726.148899999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>26149.6506</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2152726.148899999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D155" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>21942.4207</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-2130783.728199999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C156" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E156" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>93202.1786</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2037581.549599999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C157" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="F157" t="n">
+        <v>93328.1542</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-1944253.395399999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-1943253.395399999</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>24446.7444</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-1943253.395399999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C160" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D160" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E160" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10626</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-1932627.395399999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D161" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>14041.0763</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-1932627.395399999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E162" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-1932627.395399999</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4439.5668</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-1928187.828599999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>699.3454</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-1928187.828599999</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E165" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>174803.4438</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1928187.828599999</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C166" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E166" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>24.779</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1928187.828599999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F167" t="n">
+        <v>125264.8699</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-2053452.698499999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C168" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D168" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E168" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F168" t="n">
+        <v>11</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-2053441.698499999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F169" t="n">
+        <v>29100</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-2024341.698499999</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C170" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6154.7007</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-2024341.698499999</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E171" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>8900</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-2024341.698499999</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E172" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6132.4742</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-2024341.698499999</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D173" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E173" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F173" t="n">
+        <v>48791.6762</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-2073133.3747</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D174" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E174" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>64070.0505</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-2009063.3242</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C175" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D175" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E175" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>27765.6738</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-2009063.3242</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C176" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>13347.7712</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-2009063.3242</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>66993.10460000001</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1942070.2196</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D178" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>9464.0568</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1932606.1628</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C179" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D179" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E179" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2232.6508</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1932606.1628</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C180" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E180" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1950606.1628</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C181" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D181" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E181" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3779.5379</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1946826.6249</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C182" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2547.5543</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1946826.6249</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C183" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D183" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E183" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F183" t="n">
+        <v>100</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1946826.6249</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C184" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1562.7479</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1948389.3728</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C185" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2196.936517090909</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1948389.3728</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C186" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F186" t="n">
+        <v>10673.3906</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1948389.3728</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>9049.4818</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1939339.891</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C188" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D188" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E188" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F188" t="n">
+        <v>631</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1939970.891</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D189" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>58373.1356</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1881597.7554</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C190" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D190" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E190" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F190" t="n">
+        <v>146300.3623</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1881597.7554</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C191" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D191" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E191" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2010</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1883607.7554</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C192" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E192" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F192" t="n">
+        <v>67160.1375</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1816447.6179</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C193" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E193" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>6806.0581</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1816447.6179</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C194" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D194" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E194" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20436</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1796011.6179</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C195" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E195" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F195" t="n">
+        <v>849.7851000000001</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1796861.403</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C196" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D196" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E196" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F196" t="n">
+        <v>26877.8057</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1769983.5973</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C197" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D197" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E197" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F197" t="n">
+        <v>7241.0071</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1769983.5973</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C198" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D198" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E198" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F198" t="n">
+        <v>903.0546000000001</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1770886.6519</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C199" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D199" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E199" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F199" t="n">
+        <v>18004.5255</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1788891.1774</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C200" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D200" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E200" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F200" t="n">
+        <v>17000</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1788891.1774</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C201" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E201" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>93069.4918</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1881960.6692</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C202" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E202" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>20660.5077</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1881960.6692</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C203" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D203" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E203" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F203" t="n">
+        <v>269368.6388</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1612592.0304</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C204" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D204" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E204" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3767</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1616359.0304</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C205" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D205" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E205" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F205" t="n">
+        <v>18249.8813</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1598109.1491</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C206" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D206" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E206" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3611.1111</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-1598109.1491</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C207" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D207" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E207" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F207" t="n">
+        <v>28054.6875</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1626163.8366</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C208" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D208" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="E208" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1111.7205</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1626163.8366</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C209" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D209" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E209" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="F209" t="n">
+        <v>28054.6875</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1626163.8366</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C210" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D210" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E210" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F210" t="n">
+        <v>623.0228</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1625540.8138</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C211" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D211" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E211" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F211" t="n">
+        <v>689.1529</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1626229.9667</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C212" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D212" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E212" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3133.0798</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1623096.8869</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-17 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-17 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N212"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,19 @@
         <v>-524143.1461</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +556,19 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>26</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +595,19 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>26</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +634,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>26</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +673,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>26</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +712,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>26</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +751,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>26</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +790,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>26</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +829,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>26</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +868,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>26</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +907,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>26</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +946,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>26</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +985,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>26</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +1024,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>26</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1063,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>26</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1102,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>26</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1141,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>26</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,22 +1178,21 @@
         <v>-2052872.5527</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="K21" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1182,22 +1219,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>26</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1222,26 +1256,21 @@
         <v>-2052872.5527</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1266,22 +1295,21 @@
         <v>-2052806.5527</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="K24" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1306,26 +1334,21 @@
         <v>-2052806.5527</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1350,26 +1373,21 @@
         <v>-2052806.5527</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1394,22 +1412,21 @@
         <v>-2052806.5527</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1434,26 +1451,21 @@
         <v>-2052469.0143</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1478,26 +1490,21 @@
         <v>-2052469.0143</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>26</v>
       </c>
-      <c r="K29" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1524,16 +1531,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>26</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1558,22 +1568,21 @@
         <v>-2052469.0143</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>26</v>
       </c>
-      <c r="K31" t="n">
-        <v>26</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1598,26 +1607,21 @@
         <v>-2047669.0143</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>26</v>
       </c>
-      <c r="K32" t="n">
-        <v>26</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1644,22 +1648,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>26</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>26</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1686,16 +1687,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>26</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1720,24 +1724,21 @@
         <v>-1998357.8306</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1764,20 +1765,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>26</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1804,20 +1804,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>26</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1844,20 +1843,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>26</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1884,20 +1882,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>26</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1924,20 +1921,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>26</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1964,20 +1960,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>26</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2004,20 +1999,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>26</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2042,24 +2036,21 @@
         <v>-2008417.3775</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2086,20 +2077,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>26</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2126,20 +2116,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>26</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2166,20 +2155,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>26</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2206,20 +2194,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>26</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2246,20 +2233,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>26</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2286,20 +2272,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>26</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2326,20 +2311,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>26</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2366,20 +2350,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>26</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2406,20 +2389,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>26</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2444,22 +2426,23 @@
         <v>-2016983.4296</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>26.4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>26</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2486,20 +2469,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>26</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2524,24 +2506,23 @@
         <v>-2022149.1508</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>26.3</v>
       </c>
       <c r="J55" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2566,24 +2547,23 @@
         <v>-2022149.1508</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="J56" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2608,24 +2588,23 @@
         <v>-2021829.1216</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="J57" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2650,24 +2629,23 @@
         <v>-2021829.1216</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="J58" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2692,24 +2670,23 @@
         <v>-2024655.9195</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="J59" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2734,24 +2711,23 @@
         <v>-1931660.8781</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="J60" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2776,24 +2752,23 @@
         <v>-1931660.8781</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="J61" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2818,24 +2793,23 @@
         <v>-1931660.8781</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="J62" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2860,22 +2834,23 @@
         <v>-1981110.1139</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>26</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2900,22 +2875,23 @@
         <v>-1988714.9623</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>26.1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>26</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2942,20 +2918,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>26</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2982,20 +2957,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>26</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3022,20 +2996,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>26</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3062,20 +3035,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>26</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3102,20 +3074,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>26</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3142,20 +3113,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>26</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3182,20 +3152,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>26</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3222,20 +3191,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>26</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3262,20 +3230,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>26</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3302,20 +3269,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>26</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3342,20 +3308,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>26</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3380,24 +3345,21 @@
         <v>-2002228.3744</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3422,24 +3384,21 @@
         <v>-2010128.3744</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3464,24 +3423,21 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>26</v>
       </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3506,24 +3462,21 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3548,24 +3501,21 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3590,24 +3540,21 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3632,24 +3579,21 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3674,24 +3618,21 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3716,24 +3657,21 @@
         <v>-2009125.5419</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3758,22 +3696,23 @@
         <v>-2009125.5419</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>26</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3800,20 +3739,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>26</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3840,20 +3778,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>26</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3880,20 +3817,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>26</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3920,20 +3856,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>26</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3960,20 +3895,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>26</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4000,20 +3934,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>26</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4040,20 +3973,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>26</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4080,20 +4012,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>26</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4120,20 +4051,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>26</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4160,20 +4090,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>26</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4200,20 +4129,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>26</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4240,20 +4168,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>26</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4280,20 +4207,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>26</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4320,20 +4246,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>26</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4358,24 +4283,21 @@
         <v>-2068315.2475</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4402,20 +4324,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>26</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4442,20 +4363,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>26</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4482,20 +4402,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>26</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4522,20 +4441,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>26</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4562,20 +4480,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>26</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4602,20 +4519,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>26</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4642,20 +4558,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>26</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4682,20 +4597,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>26</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4720,22 +4634,23 @@
         <v>-2143131.1066</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>26.4</v>
+      </c>
+      <c r="J109" t="n">
+        <v>26</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4760,22 +4675,23 @@
         <v>-2143131.1066</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>26</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4802,20 +4718,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>26</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4842,20 +4757,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>26</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4882,20 +4796,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>26</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4922,20 +4835,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>26</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4962,20 +4874,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>26</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5002,20 +4913,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>26</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5042,20 +4952,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>26</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5082,20 +4991,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>26</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5122,20 +5030,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>26</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5162,20 +5069,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>26</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5202,20 +5108,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>26</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5242,20 +5147,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>26</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5282,20 +5186,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>26</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5322,20 +5225,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>26</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5362,20 +5264,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>26</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5400,22 +5301,23 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>26</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5440,22 +5342,23 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>26</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5482,20 +5385,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>26</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5522,20 +5424,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>26</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5562,20 +5463,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>26</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5602,20 +5502,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>26</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5642,20 +5541,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>26</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5682,20 +5580,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>26</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5722,20 +5619,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>26</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5762,20 +5658,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>26</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5802,20 +5697,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>26</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5842,20 +5736,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>26</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5882,20 +5775,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>26</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5922,20 +5814,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>26</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5962,20 +5853,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>26</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6002,20 +5892,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>26</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6042,20 +5931,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>26</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6082,20 +5970,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>26</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6122,20 +6009,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>26</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6162,20 +6048,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>26</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6202,20 +6087,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>26</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6242,20 +6126,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>26</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6282,20 +6165,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>26</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6320,22 +6202,23 @@
         <v>-2416424.958</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="J149" t="n">
+        <v>26</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6362,20 +6245,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>26</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6400,22 +6282,23 @@
         <v>-2405624.958</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>26.3</v>
+      </c>
+      <c r="J151" t="n">
+        <v>26</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6442,20 +6325,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>26</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6480,22 +6362,23 @@
         <v>-2152726.148899999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>26.4</v>
+      </c>
+      <c r="J153" t="n">
+        <v>26</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6522,20 +6405,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>26</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6560,22 +6442,23 @@
         <v>-2130783.728199999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>26.5</v>
+      </c>
+      <c r="J155" t="n">
+        <v>26</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6602,20 +6485,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>26</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6642,20 +6524,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>26</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6682,20 +6563,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>26</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6722,20 +6602,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>26</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6762,20 +6641,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>26</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6802,20 +6680,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>26</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6840,20 +6717,21 @@
         <v>-1932627.395399999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>26</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
       </c>
       <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6878,18 +6756,21 @@
         <v>-1928187.828599999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>26</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6916,16 +6797,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>26</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6952,16 +6836,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>26</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6986,18 +6873,21 @@
         <v>-1928187.828599999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>26</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7022,18 +6912,21 @@
         <v>-2053452.698499999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>26</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7058,18 +6951,15 @@
         <v>-2053441.698499999</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7094,18 +6984,15 @@
         <v>-2024341.698499999</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7130,18 +7017,15 @@
         <v>-2024341.698499999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7166,18 +7050,15 @@
         <v>-2024341.698499999</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7202,18 +7083,15 @@
         <v>-2024341.698499999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7238,18 +7116,15 @@
         <v>-2073133.3747</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7274,18 +7149,15 @@
         <v>-2009063.3242</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7310,18 +7182,15 @@
         <v>-2009063.3242</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7346,18 +7215,15 @@
         <v>-2009063.3242</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7382,18 +7248,15 @@
         <v>-1942070.2196</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7418,18 +7281,15 @@
         <v>-1932606.1628</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7454,18 +7314,15 @@
         <v>-1932606.1628</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7490,18 +7347,15 @@
         <v>-1950606.1628</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7526,18 +7380,15 @@
         <v>-1946826.6249</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7562,18 +7413,15 @@
         <v>-1946826.6249</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7598,18 +7446,15 @@
         <v>-1946826.6249</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7636,16 +7481,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7672,16 +7514,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7706,18 +7545,15 @@
         <v>-1948389.3728</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7744,16 +7580,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7780,16 +7613,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7816,16 +7646,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7850,18 +7677,15 @@
         <v>-1881597.7554</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7888,16 +7712,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7924,16 +7745,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7960,16 +7778,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7996,16 +7811,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8032,16 +7844,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8068,16 +7877,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8104,16 +7910,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8140,16 +7943,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8176,16 +7976,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8212,16 +8009,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8248,16 +8042,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8284,16 +8075,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8320,16 +8108,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8356,16 +8141,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8392,16 +8174,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8428,16 +8207,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8464,16 +8240,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8500,16 +8273,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8536,16 +8306,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8572,16 +8339,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8608,16 +8372,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8644,18 +8405,15 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-17 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>-524143.1461</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -557,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>26</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -596,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>26</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -635,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>26</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -674,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>26</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -713,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>26</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -752,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>26</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -791,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>26</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -830,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>26</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -869,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>26</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -908,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>26</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -947,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>26</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -986,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>26</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1025,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>26</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1064,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>26</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1103,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>26</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1142,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>26</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1181,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>26</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1220,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>26</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1259,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>26</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1298,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>26</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1337,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>26</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1376,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>26</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1415,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>26</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1454,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>26</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1493,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>26</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1532,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>26</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1571,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>26</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1610,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>26</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1649,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>26</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1688,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>26</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1727,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>26</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1766,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>26</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1805,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>26</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1844,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>26</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1883,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>26</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1922,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>26</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1961,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>26</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2000,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>26</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2039,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>26</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2075,17 +1837,15 @@
         <v>-2008417.3775</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J44" t="n">
-        <v>26</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2118,11 +1878,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -2157,11 +1917,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2195,14 +1955,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>26</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2234,14 +1988,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>26</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2273,14 +2021,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>26</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2309,17 +2051,15 @@
         <v>-2010094.5269</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J50" t="n">
-        <v>26</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.2</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2348,15 +2088,17 @@
         <v>-2010464.4296</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J51" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2387,15 +2129,17 @@
         <v>-2010454.4296</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J52" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2426,19 +2170,15 @@
         <v>-2016983.4296</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>26.4</v>
       </c>
       <c r="J53" t="n">
-        <v>26</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.4</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2467,15 +2207,17 @@
         <v>-2016971.4296</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J54" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2506,17 +2248,15 @@
         <v>-2022149.1508</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2547,19 +2287,11 @@
         <v>-2022149.1508</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>26</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2588,19 +2320,11 @@
         <v>-2021829.1216</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>26</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2629,19 +2353,15 @@
         <v>-2021829.1216</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>26.2</v>
       </c>
       <c r="J58" t="n">
-        <v>26</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.2</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2670,17 +2390,17 @@
         <v>-2024655.9195</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>26.2</v>
       </c>
       <c r="J59" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2711,17 +2431,17 @@
         <v>-1931660.8781</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>26.1</v>
       </c>
       <c r="J60" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2752,13 +2472,11 @@
         <v>-1931660.8781</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2793,13 +2511,11 @@
         <v>-1931660.8781</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2834,13 +2550,11 @@
         <v>-1981110.1139</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2875,13 +2589,11 @@
         <v>-1988714.9623</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2920,7 +2632,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2959,7 +2671,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2998,7 +2710,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3037,7 +2749,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3076,7 +2788,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3111,11 +2823,13 @@
         <v>-1984478.1558</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J70" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3150,11 +2864,13 @@
         <v>-1984468.1558</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J71" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3189,11 +2905,13 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J72" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3228,11 +2946,13 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J73" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3267,11 +2987,13 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J74" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3306,11 +3028,13 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J75" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3345,11 +3069,13 @@
         <v>-2002228.3744</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J76" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3384,11 +3110,13 @@
         <v>-2010128.3744</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J77" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3423,11 +3151,13 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>26</v>
+      </c>
       <c r="J78" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3462,11 +3192,13 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J79" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3501,11 +3233,13 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J80" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3540,11 +3274,13 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J81" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3579,11 +3315,13 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J82" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3618,11 +3356,13 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J83" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3657,11 +3397,13 @@
         <v>-2009125.5419</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J84" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3696,13 +3438,13 @@
         <v>-2009125.5419</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>26.2</v>
       </c>
       <c r="J85" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3737,11 +3479,13 @@
         <v>-2009125.5419</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J86" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3776,11 +3520,13 @@
         <v>-2011337.967</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J87" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3815,11 +3561,13 @@
         <v>-1987976.8386</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J88" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3854,11 +3602,13 @@
         <v>-1995792.8386</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J89" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3893,11 +3643,13 @@
         <v>-1992242.4928</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J90" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3932,11 +3684,13 @@
         <v>-1992242.4928</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J91" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3971,11 +3725,13 @@
         <v>-1992242.4928</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J92" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4010,11 +3766,13 @@
         <v>-2009442.4928</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J93" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4049,11 +3807,13 @@
         <v>-2009431.4928</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J94" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4088,11 +3848,13 @@
         <v>-2055731.4928</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J95" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4127,11 +3889,13 @@
         <v>-2055731.4928</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J96" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4166,11 +3930,13 @@
         <v>-2055731.4928</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J97" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4205,11 +3971,13 @@
         <v>-2068326.2475</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J98" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4244,11 +4012,13 @@
         <v>-2068326.2475</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J99" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4283,11 +4053,13 @@
         <v>-2068315.2475</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J100" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4322,11 +4094,13 @@
         <v>-2068315.2475</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J101" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4361,11 +4135,13 @@
         <v>-2068315.2475</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J102" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4400,11 +4176,13 @@
         <v>-2068315.2475</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J103" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4439,11 +4217,13 @@
         <v>-2068277.2475</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J104" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4478,11 +4258,13 @@
         <v>-2149795.5124</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J105" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4517,11 +4299,13 @@
         <v>-2149783.5124</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J106" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4556,11 +4340,13 @@
         <v>-2140783.5124</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J107" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4595,11 +4381,13 @@
         <v>-2140525.5124</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J108" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4634,13 +4422,13 @@
         <v>-2143131.1066</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>26.4</v>
       </c>
       <c r="J109" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4675,13 +4463,13 @@
         <v>-2143131.1066</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>26.2</v>
       </c>
       <c r="J110" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4716,11 +4504,13 @@
         <v>-2117861.2303</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J111" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4755,11 +4545,13 @@
         <v>-2117861.2303</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J112" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4794,11 +4586,13 @@
         <v>-2092684.9065</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J113" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4833,11 +4627,13 @@
         <v>-2092697.3625</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>26.7</v>
+      </c>
       <c r="J114" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4872,11 +4668,13 @@
         <v>-2250372.1211</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>26.5</v>
+      </c>
       <c r="J115" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4911,11 +4709,13 @@
         <v>-2250372.1211</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J116" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4950,11 +4750,13 @@
         <v>-2250362.1211</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J117" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4989,11 +4791,13 @@
         <v>-2250362.1211</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J118" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5028,11 +4832,13 @@
         <v>-2278320.4302</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J119" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5067,11 +4873,13 @@
         <v>-2278320.4302</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J120" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5106,11 +4914,13 @@
         <v>-2278320.4302</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J121" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5145,11 +4955,13 @@
         <v>-2278320.4302</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J122" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5184,11 +4996,13 @@
         <v>-2330887.842</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J123" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5223,11 +5037,13 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>26</v>
+      </c>
       <c r="J124" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5262,11 +5078,13 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J125" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5301,13 +5119,13 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>26.2</v>
       </c>
       <c r="J126" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5342,13 +5160,13 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>26.2</v>
       </c>
       <c r="J127" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5383,11 +5201,13 @@
         <v>-2387063.2225</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J128" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5422,11 +5242,13 @@
         <v>-2379947.353</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J129" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5461,11 +5283,13 @@
         <v>-2379947.353</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J130" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5500,11 +5324,13 @@
         <v>-2379947.353</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J131" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5539,11 +5365,13 @@
         <v>-2383770.353</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J132" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5578,11 +5406,13 @@
         <v>-2393745.853</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J133" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5617,11 +5447,13 @@
         <v>-2359799.974</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J134" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5656,11 +5488,13 @@
         <v>-2378866.7293</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J135" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5695,11 +5529,13 @@
         <v>-2368639.0618</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J136" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5734,11 +5570,13 @@
         <v>-2396070.0618</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J137" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5773,11 +5611,13 @@
         <v>-2390527.0618</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>26</v>
+      </c>
       <c r="J138" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5812,11 +5652,13 @@
         <v>-2407397.8326</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J139" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5851,11 +5693,13 @@
         <v>-2396270.6106</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>26</v>
+      </c>
       <c r="J140" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5890,11 +5734,13 @@
         <v>-2396270.6106</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J141" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5929,11 +5775,13 @@
         <v>-2396270.6106</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J142" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5968,11 +5816,13 @@
         <v>-2416434.958</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J143" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6007,11 +5857,13 @@
         <v>-2416424.958</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>26</v>
+      </c>
       <c r="J144" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6046,11 +5898,13 @@
         <v>-2416424.958</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J145" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6085,11 +5939,13 @@
         <v>-2416424.958</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J146" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6124,11 +5980,13 @@
         <v>-2416424.958</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J147" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6163,11 +6021,13 @@
         <v>-2416424.958</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J148" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6202,13 +6062,13 @@
         <v>-2416424.958</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>26.2</v>
       </c>
       <c r="J149" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6243,11 +6103,13 @@
         <v>-2405624.958</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J150" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6282,13 +6144,13 @@
         <v>-2405624.958</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>26.3</v>
       </c>
       <c r="J151" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6323,11 +6185,13 @@
         <v>-2284894.8133</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J152" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6362,13 +6226,13 @@
         <v>-2152726.148899999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>26.4</v>
       </c>
       <c r="J153" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6403,11 +6267,13 @@
         <v>-2152726.148899999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>26.5</v>
+      </c>
       <c r="J154" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6442,13 +6308,11 @@
         <v>-2130783.728199999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6487,7 +6351,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6526,7 +6390,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6565,7 +6429,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6604,7 +6468,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6643,7 +6507,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6682,7 +6546,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6717,11 +6581,11 @@
         <v>-1932627.395399999</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6756,11 +6620,11 @@
         <v>-1928187.828599999</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6799,7 +6663,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6838,7 +6702,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6873,11 +6737,11 @@
         <v>-1928187.828599999</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6912,19 +6776,19 @@
         <v>-2053452.698499999</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>1.045</v>
+        <v>1</v>
       </c>
       <c r="M167" t="inlineStr"/>
     </row>
@@ -6951,11 +6815,17 @@
         <v>-2053441.698499999</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6984,11 +6854,17 @@
         <v>-2024341.698499999</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7017,11 +6893,17 @@
         <v>-2024341.698499999</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7050,11 +6932,17 @@
         <v>-2024341.698499999</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7083,11 +6971,17 @@
         <v>-2024341.698499999</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7116,11 +7010,17 @@
         <v>-2073133.3747</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7149,11 +7049,17 @@
         <v>-2009063.3242</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7182,11 +7088,17 @@
         <v>-2009063.3242</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7215,11 +7127,17 @@
         <v>-2009063.3242</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7248,11 +7166,17 @@
         <v>-1942070.2196</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7281,11 +7205,17 @@
         <v>-1932606.1628</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7314,11 +7244,17 @@
         <v>-1932606.1628</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7347,11 +7283,17 @@
         <v>-1950606.1628</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7380,11 +7322,17 @@
         <v>-1946826.6249</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7413,11 +7361,17 @@
         <v>-1946826.6249</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7446,11 +7400,17 @@
         <v>-1946826.6249</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7482,8 +7442,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7515,8 +7481,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7545,11 +7517,17 @@
         <v>-1948389.3728</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7581,8 +7559,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7614,8 +7598,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7647,8 +7637,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7677,11 +7673,17 @@
         <v>-1881597.7554</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7713,8 +7715,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7746,8 +7754,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7779,8 +7793,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7812,8 +7832,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7845,8 +7871,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7878,8 +7910,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7911,8 +7949,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7941,15 +7985,23 @@
         <v>-1770886.6519</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>1.052251908396947</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1.035294117647059</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8007,7 +8059,7 @@
         <v>-1788891.1774</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8040,7 +8092,7 @@
         <v>-1881960.6692</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8073,7 +8125,7 @@
         <v>-1881960.6692</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8106,7 +8158,7 @@
         <v>-1612592.0304</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8139,7 +8191,7 @@
         <v>-1616359.0304</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8172,7 +8224,7 @@
         <v>-1598109.1491</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8205,7 +8257,7 @@
         <v>-1598109.1491</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8238,7 +8290,7 @@
         <v>-1626163.8366</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8271,7 +8323,7 @@
         <v>-1626163.8366</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8304,7 +8356,7 @@
         <v>-1626163.8366</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8337,7 +8389,7 @@
         <v>-1625540.8138</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8370,7 +8422,7 @@
         <v>-1626229.9667</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8403,7 +8455,7 @@
         <v>-1623096.8869</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8414,6 +8466,6 @@
       <c r="M212" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-17 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1837,14 +1837,10 @@
         <v>-2008417.3775</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
@@ -1877,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1916,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1952,7 +1936,7 @@
         <v>-2008407.3775</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1985,7 +1969,7 @@
         <v>-2010104.5269</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2018,7 +2002,7 @@
         <v>-2010104.5269</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2051,14 +2035,10 @@
         <v>-2010094.5269</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
@@ -2088,19 +2068,11 @@
         <v>-2010464.4296</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2129,19 +2101,11 @@
         <v>-2010454.4296</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2170,14 +2134,10 @@
         <v>-2016983.4296</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2207,19 +2167,11 @@
         <v>-2016971.4296</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2251,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2353,14 +2299,10 @@
         <v>-2021829.1216</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
@@ -2390,19 +2332,11 @@
         <v>-2024655.9195</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2431,1436 +2365,1176 @@
         <v>-1931660.8781</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7019</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1931660.8781</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7377.4427</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1931660.8781</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>49449.2358</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-1981110.1139</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>26</v>
+      </c>
+      <c r="C64" t="n">
+        <v>26</v>
+      </c>
+      <c r="D64" t="n">
+        <v>26</v>
+      </c>
+      <c r="E64" t="n">
+        <v>26</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7604.8484</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1988714.9623</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1657.1293</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1987057.833</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>50837.2466</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1987057.833</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2579.6772</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1984478.1558</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>266702.0166</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1984478.1558</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>16913.0534</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1984478.1558</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>16457.8467</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1984478.1558</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E71" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1984468.1558</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3772.1894</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1988240.3452</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6888.0424</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1988240.3452</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1289.9176</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1988240.3452</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4401.7891</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-1988240.3452</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>13988.0292</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-2002228.3744</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>26</v>
+      </c>
+      <c r="C77" t="n">
+        <v>26</v>
+      </c>
+      <c r="D77" t="n">
+        <v>26</v>
+      </c>
+      <c r="E77" t="n">
+        <v>26</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7900</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-2010128.3744</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>992.8325</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-2009135.5419</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5762.4328</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-2009135.5419</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3244.7347</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-2009135.5419</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>30472.2393</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-2009135.5419</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3287.2598</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-2009135.5419</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>769.0613</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-2009135.5419</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E84" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>10</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-2009125.5419</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C85" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E85" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F85" t="n">
+        <v>132</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-2009125.5419</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C86" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>76.53870000000001</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-2009125.5419</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2212.4251</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-2011337.967</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>26</v>
+      </c>
+      <c r="C88" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>26</v>
+      </c>
+      <c r="F88" t="n">
+        <v>23361.1284</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1987976.8386</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>7816</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1995792.8386</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E90" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3550.3458</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1992242.4928</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1570</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1992242.4928</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3657.5</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1992242.4928</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>26</v>
+      </c>
+      <c r="C93" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D93" t="n">
+        <v>26</v>
+      </c>
+      <c r="E93" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="F93" t="n">
+        <v>17200</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-2009442.4928</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D94" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>11</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-2009431.4928</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J94" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C95" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D95" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>46300</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-2055731.4928</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C61" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D61" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E61" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>7019</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-1931660.8781</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D62" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E62" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F62" t="n">
-        <v>7377.4427</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-1931660.8781</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C63" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E63" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F63" t="n">
-        <v>49449.2358</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-1981110.1139</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>26</v>
-      </c>
-      <c r="C64" t="n">
-        <v>26</v>
-      </c>
-      <c r="D64" t="n">
-        <v>26</v>
-      </c>
-      <c r="E64" t="n">
-        <v>26</v>
-      </c>
-      <c r="F64" t="n">
-        <v>7604.8484</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-1988714.9623</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1657.1293</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-1987057.833</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>50837.2466</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1987057.833</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C67" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D67" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E67" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2579.6772</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1984478.1558</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C68" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D68" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E68" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F68" t="n">
-        <v>266702.0166</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-1984478.1558</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C69" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D69" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E69" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F69" t="n">
-        <v>16913.0534</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1984478.1558</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C70" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D70" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E70" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F70" t="n">
-        <v>16457.8467</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1984478.1558</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C71" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D71" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E71" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1984468.1558</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D72" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E72" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3772.1894</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1988240.3452</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C73" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D73" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E73" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F73" t="n">
-        <v>6888.0424</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-1988240.3452</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C74" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D74" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E74" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1289.9176</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-1988240.3452</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C75" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D75" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E75" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F75" t="n">
-        <v>4401.7891</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-1988240.3452</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C76" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F76" t="n">
-        <v>13988.0292</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-2002228.3744</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>26</v>
-      </c>
-      <c r="C77" t="n">
-        <v>26</v>
-      </c>
-      <c r="D77" t="n">
-        <v>26</v>
-      </c>
-      <c r="E77" t="n">
-        <v>26</v>
-      </c>
-      <c r="F77" t="n">
-        <v>7900</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-2010128.3744</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C78" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E78" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F78" t="n">
-        <v>992.8325</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-2009135.5419</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>26</v>
-      </c>
-      <c r="J78" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C79" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F79" t="n">
-        <v>5762.4328</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-2009135.5419</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C80" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F80" t="n">
-        <v>3244.7347</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-2009135.5419</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C81" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E81" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F81" t="n">
-        <v>30472.2393</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-2009135.5419</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C82" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E82" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3287.2598</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-2009135.5419</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C83" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E83" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F83" t="n">
-        <v>769.0613</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-2009135.5419</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C84" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D84" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E84" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F84" t="n">
-        <v>10</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-2009125.5419</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C85" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D85" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E85" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F85" t="n">
-        <v>132</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-2009125.5419</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C86" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D86" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E86" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F86" t="n">
-        <v>76.53870000000001</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-2009125.5419</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C87" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2212.4251</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-2011337.967</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>26</v>
-      </c>
-      <c r="C88" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D88" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E88" t="n">
-        <v>26</v>
-      </c>
-      <c r="F88" t="n">
-        <v>23361.1284</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-1987976.8386</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C89" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F89" t="n">
-        <v>7816</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-1995792.8386</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D90" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E90" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3550.3458</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-1992242.4928</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C91" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D91" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E91" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1570</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-1992242.4928</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C92" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="D92" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E92" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F92" t="n">
-        <v>3657.5</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-1992242.4928</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>26</v>
-      </c>
-      <c r="C93" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D93" t="n">
-        <v>26</v>
-      </c>
-      <c r="E93" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="F93" t="n">
-        <v>17200</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-2009442.4928</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C94" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="D94" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="E94" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F94" t="n">
-        <v>11</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-2009431.4928</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="C95" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="D95" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="E95" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F95" t="n">
-        <v>46300</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-2055731.4928</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3889,13 +3563,11 @@
         <v>-2055731.4928</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3936,7 +3608,7 @@
         <v>25.9</v>
       </c>
       <c r="J97" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3977,7 +3649,7 @@
         <v>25.9</v>
       </c>
       <c r="J98" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4018,7 +3690,7 @@
         <v>25.8</v>
       </c>
       <c r="J99" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4059,7 +3731,7 @@
         <v>25.8</v>
       </c>
       <c r="J100" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4094,13 +3766,11 @@
         <v>-2068315.2475</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4135,13 +3805,11 @@
         <v>-2068315.2475</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4176,13 +3844,11 @@
         <v>-2068315.2475</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4217,13 +3883,11 @@
         <v>-2068277.2475</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4258,13 +3922,11 @@
         <v>-2149795.5124</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4299,13 +3961,11 @@
         <v>-2149783.5124</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>25.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4340,13 +4000,11 @@
         <v>-2140783.5124</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4381,13 +4039,11 @@
         <v>-2140525.5124</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4422,13 +4078,11 @@
         <v>-2143131.1066</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4463,13 +4117,11 @@
         <v>-2143131.1066</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4504,13 +4156,11 @@
         <v>-2117861.2303</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4545,13 +4195,11 @@
         <v>-2117861.2303</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4586,13 +4234,11 @@
         <v>-2092684.9065</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4627,13 +4273,11 @@
         <v>-2092697.3625</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4668,13 +4312,11 @@
         <v>-2250372.1211</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4709,13 +4351,11 @@
         <v>-2250372.1211</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4750,13 +4390,11 @@
         <v>-2250362.1211</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4791,13 +4429,11 @@
         <v>-2250362.1211</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4832,13 +4468,11 @@
         <v>-2278320.4302</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4873,13 +4507,11 @@
         <v>-2278320.4302</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4914,13 +4546,11 @@
         <v>-2278320.4302</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4955,13 +4585,11 @@
         <v>-2278320.4302</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4996,13 +4624,11 @@
         <v>-2330887.842</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5037,13 +4663,11 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5078,13 +4702,11 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5119,13 +4741,11 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5160,13 +4780,11 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5201,13 +4819,11 @@
         <v>-2387063.2225</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5242,13 +4858,11 @@
         <v>-2379947.353</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5283,13 +4897,11 @@
         <v>-2379947.353</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5324,13 +4936,11 @@
         <v>-2379947.353</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5365,13 +4975,11 @@
         <v>-2383770.353</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5406,13 +5014,11 @@
         <v>-2393745.853</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5447,13 +5053,11 @@
         <v>-2359799.974</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>25.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5488,13 +5092,11 @@
         <v>-2378866.7293</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5529,13 +5131,11 @@
         <v>-2368639.0618</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5570,13 +5170,11 @@
         <v>-2396070.0618</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5611,13 +5209,11 @@
         <v>-2390527.0618</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5652,13 +5248,11 @@
         <v>-2407397.8326</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5693,13 +5287,11 @@
         <v>-2396270.6106</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5734,13 +5326,11 @@
         <v>-2396270.6106</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5775,13 +5365,11 @@
         <v>-2396270.6106</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5816,13 +5404,11 @@
         <v>-2416434.958</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5857,13 +5443,11 @@
         <v>-2416424.958</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5898,13 +5482,11 @@
         <v>-2416424.958</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5939,13 +5521,11 @@
         <v>-2416424.958</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5980,13 +5560,11 @@
         <v>-2416424.958</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6021,13 +5599,11 @@
         <v>-2416424.958</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6062,13 +5638,11 @@
         <v>-2416424.958</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6103,13 +5677,11 @@
         <v>-2405624.958</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6144,13 +5716,11 @@
         <v>-2405624.958</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6185,13 +5755,11 @@
         <v>-2284894.8133</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6226,13 +5794,11 @@
         <v>-2152726.148899999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6267,13 +5833,11 @@
         <v>-2152726.148899999</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6312,7 +5876,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6351,7 +5915,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6386,19 +5950,19 @@
         <v>-1944253.395399999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>1.04519305019305</v>
       </c>
       <c r="M157" t="inlineStr"/>
     </row>
@@ -6425,17 +5989,11 @@
         <v>-1943253.395399999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6464,17 +6022,11 @@
         <v>-1943253.395399999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6503,17 +6055,11 @@
         <v>-1932627.395399999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6542,17 +6088,11 @@
         <v>-1932627.395399999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6584,14 +6124,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6623,14 +6157,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6662,14 +6190,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6701,14 +6223,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6740,14 +6256,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6779,14 +6289,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6818,14 +6322,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6857,14 +6355,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6896,14 +6388,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6935,14 +6421,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6974,14 +6454,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7013,14 +6487,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7052,14 +6520,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7091,14 +6553,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7130,14 +6586,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7169,14 +6619,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7208,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7247,14 +6685,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7286,14 +6718,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7325,14 +6751,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7364,14 +6784,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7403,14 +6817,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7442,14 +6850,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7481,14 +6883,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7520,14 +6916,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7559,14 +6949,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7598,14 +6982,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7637,14 +7015,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7676,14 +7048,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7715,14 +7081,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7754,14 +7114,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7793,14 +7147,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7832,14 +7180,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7871,14 +7213,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7910,14 +7246,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7949,14 +7279,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7985,23 +7309,15 @@
         <v>-1770886.6519</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
-        <v>1.052251908396947</v>
-      </c>
-      <c r="M198" t="n">
-        <v>1.035294117647059</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8059,7 +7375,7 @@
         <v>-1788891.1774</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8092,7 +7408,7 @@
         <v>-1881960.6692</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8125,7 +7441,7 @@
         <v>-1881960.6692</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8158,7 +7474,7 @@
         <v>-1612592.0304</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8191,7 +7507,7 @@
         <v>-1616359.0304</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8224,7 +7540,7 @@
         <v>-1598109.1491</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8257,7 +7573,7 @@
         <v>-1598109.1491</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8290,7 +7606,7 @@
         <v>-1626163.8366</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8323,7 +7639,7 @@
         <v>-1626163.8366</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8356,7 +7672,7 @@
         <v>-1626163.8366</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8389,7 +7705,7 @@
         <v>-1625540.8138</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8422,7 +7738,7 @@
         <v>-1626229.9667</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8455,7 +7771,7 @@
         <v>-1623096.8869</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8466,6 +7782,6 @@
       <c r="M212" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-17 BackTest LOOM.xlsx
@@ -1936,7 +1936,7 @@
         <v>-2008407.3775</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2010104.5269</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2010104.5269</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2010464.4296</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2010454.4296</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2016971.4296</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1984478.1558</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,10 +2695,14 @@
         <v>-1984478.1558</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2728,11 +2732,19 @@
         <v>-1984468.1558</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2773,17 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,7 +2812,7 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2845,7 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2878,7 @@
         <v>-1988240.3452</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,10 +2911,14 @@
         <v>-2002228.3744</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
@@ -2926,11 +2948,19 @@
         <v>-2010128.3744</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +2989,19 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>26</v>
+      </c>
+      <c r="J78" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,10 +3030,14 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>26.1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3025,11 +3067,19 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3108,19 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,10 +3149,14 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>26.1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
@@ -3124,11 +3186,19 @@
         <v>-2009135.5419</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3227,19 @@
         <v>-2009125.5419</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,10 +3268,14 @@
         <v>-2009125.5419</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
@@ -3226,8 +3308,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3347,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3563,9 +3657,11 @@
         <v>-2055731.4928</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J96" t="n">
         <v>25.9</v>
       </c>
@@ -3766,9 +3862,11 @@
         <v>-2068315.2475</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J101" t="n">
         <v>25.9</v>
       </c>
@@ -3961,9 +4059,11 @@
         <v>-2149783.5124</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J106" t="n">
         <v>25.9</v>
       </c>
@@ -4000,9 +4100,11 @@
         <v>-2140783.5124</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J107" t="n">
         <v>25.9</v>
       </c>
@@ -4390,9 +4492,11 @@
         <v>-2250362.1211</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J117" t="n">
         <v>25.9</v>
       </c>
@@ -4546,9 +4650,11 @@
         <v>-2278320.4302</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J121" t="n">
         <v>25.9</v>
       </c>
@@ -4585,9 +4691,11 @@
         <v>-2278320.4302</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J122" t="n">
         <v>25.9</v>
       </c>
@@ -4624,9 +4732,11 @@
         <v>-2330887.842</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J123" t="n">
         <v>25.9</v>
       </c>
@@ -4663,9 +4773,11 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>26</v>
+      </c>
       <c r="J124" t="n">
         <v>25.9</v>
       </c>
@@ -4702,9 +4814,11 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J125" t="n">
         <v>25.9</v>
       </c>
@@ -4741,9 +4855,11 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J126" t="n">
         <v>25.9</v>
       </c>
@@ -4780,9 +4896,11 @@
         <v>-2319083.2574</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J127" t="n">
         <v>25.9</v>
       </c>
@@ -4819,9 +4937,11 @@
         <v>-2387063.2225</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J128" t="n">
         <v>25.9</v>
       </c>
@@ -4858,9 +4978,11 @@
         <v>-2379947.353</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J129" t="n">
         <v>25.9</v>
       </c>
@@ -4897,9 +5019,11 @@
         <v>-2379947.353</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J130" t="n">
         <v>25.9</v>
       </c>
@@ -4936,9 +5060,11 @@
         <v>-2379947.353</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J131" t="n">
         <v>25.9</v>
       </c>
@@ -4975,9 +5101,11 @@
         <v>-2383770.353</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J132" t="n">
         <v>25.9</v>
       </c>
@@ -5014,9 +5142,11 @@
         <v>-2393745.853</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J133" t="n">
         <v>25.9</v>
       </c>
@@ -5053,9 +5183,11 @@
         <v>-2359799.974</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>25.9</v>
+      </c>
       <c r="J134" t="n">
         <v>25.9</v>
       </c>
@@ -5092,9 +5224,11 @@
         <v>-2378866.7293</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J135" t="n">
         <v>25.9</v>
       </c>
@@ -5131,9 +5265,11 @@
         <v>-2368639.0618</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J136" t="n">
         <v>25.9</v>
       </c>
@@ -5170,9 +5306,11 @@
         <v>-2396070.0618</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J137" t="n">
         <v>25.9</v>
       </c>
@@ -5209,9 +5347,11 @@
         <v>-2390527.0618</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>26</v>
+      </c>
       <c r="J138" t="n">
         <v>25.9</v>
       </c>
@@ -5248,9 +5388,11 @@
         <v>-2407397.8326</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J139" t="n">
         <v>25.9</v>
       </c>
@@ -5287,9 +5429,11 @@
         <v>-2396270.6106</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>26</v>
+      </c>
       <c r="J140" t="n">
         <v>25.9</v>
       </c>
@@ -5326,9 +5470,11 @@
         <v>-2396270.6106</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J141" t="n">
         <v>25.9</v>
       </c>
@@ -5365,9 +5511,11 @@
         <v>-2396270.6106</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J142" t="n">
         <v>25.9</v>
       </c>
@@ -5404,9 +5552,11 @@
         <v>-2416434.958</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J143" t="n">
         <v>25.9</v>
       </c>
@@ -5443,9 +5593,11 @@
         <v>-2416424.958</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>26</v>
+      </c>
       <c r="J144" t="n">
         <v>25.9</v>
       </c>
@@ -5482,9 +5634,11 @@
         <v>-2416424.958</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J145" t="n">
         <v>25.9</v>
       </c>
@@ -5521,9 +5675,11 @@
         <v>-2416424.958</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J146" t="n">
         <v>25.9</v>
       </c>
@@ -5560,9 +5716,11 @@
         <v>-2416424.958</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J147" t="n">
         <v>25.9</v>
       </c>
@@ -5599,9 +5757,11 @@
         <v>-2416424.958</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J148" t="n">
         <v>25.9</v>
       </c>
@@ -5638,9 +5798,11 @@
         <v>-2416424.958</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J149" t="n">
         <v>25.9</v>
       </c>
@@ -5677,9 +5839,11 @@
         <v>-2405624.958</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J150" t="n">
         <v>25.9</v>
       </c>
@@ -5716,9 +5880,11 @@
         <v>-2405624.958</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J151" t="n">
         <v>25.9</v>
       </c>
@@ -5755,9 +5921,11 @@
         <v>-2284894.8133</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J152" t="n">
         <v>25.9</v>
       </c>
@@ -5794,9 +5962,11 @@
         <v>-2152726.148899999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J153" t="n">
         <v>25.9</v>
       </c>
@@ -5833,9 +6003,11 @@
         <v>-2152726.148899999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>26.5</v>
+      </c>
       <c r="J154" t="n">
         <v>25.9</v>
       </c>
@@ -5950,7 +6122,7 @@
         <v>-1944253.395399999</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
@@ -5958,11 +6130,11 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.04519305019305</v>
+        <v>1</v>
       </c>
       <c r="M157" t="inlineStr"/>
     </row>
@@ -5989,11 +6161,17 @@
         <v>-1943253.395399999</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6022,11 +6200,17 @@
         <v>-1943253.395399999</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6055,11 +6239,17 @@
         <v>-1932627.395399999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6088,11 +6278,17 @@
         <v>-1932627.395399999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6124,8 +6320,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6157,8 +6359,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6190,8 +6398,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6223,8 +6437,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6256,8 +6476,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6289,8 +6515,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6322,8 +6554,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6355,8 +6593,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6388,8 +6632,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6421,8 +6671,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6454,8 +6710,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6487,8 +6749,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6520,8 +6788,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6553,8 +6827,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6586,8 +6866,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6616,15 +6902,23 @@
         <v>-1942070.2196</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>1.06449806949807</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1.035294117647059</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6649,7 +6943,7 @@
         <v>-1932606.1628</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6682,7 +6976,7 @@
         <v>-1932606.1628</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6715,7 +7009,7 @@
         <v>-1950606.1628</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6748,7 +7042,7 @@
         <v>-1946826.6249</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6814,7 +7108,7 @@
         <v>-1946826.6249</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6847,7 +7141,7 @@
         <v>-1948389.3728</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6880,7 +7174,7 @@
         <v>-1948389.3728</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6913,7 +7207,7 @@
         <v>-1948389.3728</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6946,7 +7240,7 @@
         <v>-1939339.891</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6979,7 +7273,7 @@
         <v>-1939970.891</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7012,7 +7306,7 @@
         <v>-1881597.7554</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7045,7 +7339,7 @@
         <v>-1881597.7554</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7078,7 +7372,7 @@
         <v>-1883607.7554</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7144,7 +7438,7 @@
         <v>-1816447.6179</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7177,7 +7471,7 @@
         <v>-1796011.6179</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7210,7 +7504,7 @@
         <v>-1796861.403</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7276,7 +7570,7 @@
         <v>-1769983.5973</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7309,7 +7603,7 @@
         <v>-1770886.6519</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7342,7 +7636,7 @@
         <v>-1788891.1774</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7375,7 +7669,7 @@
         <v>-1788891.1774</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>

--- a/BackTest/2019-10-17 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-17 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:L212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>15085.9679</v>
       </c>
       <c r="G2" t="n">
-        <v>-521946.0444</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>-521936.0444</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2207.1017</v>
       </c>
       <c r="G4" t="n">
-        <v>-524143.1461</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1103.5508</v>
       </c>
       <c r="G5" t="n">
-        <v>-524143.1461</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>35060.8307</v>
       </c>
       <c r="G6" t="n">
-        <v>-524143.1461</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>26154.7834</v>
       </c>
       <c r="G7" t="n">
-        <v>-550297.9295</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2417.8035</v>
       </c>
       <c r="G8" t="n">
-        <v>-547880.1259999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1488.6447</v>
       </c>
       <c r="G9" t="n">
-        <v>-546391.4813</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1414.2123</v>
       </c>
       <c r="G10" t="n">
-        <v>-546391.4813</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2868.0321</v>
       </c>
       <c r="G11" t="n">
-        <v>-546391.4813</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>6900</v>
       </c>
       <c r="G12" t="n">
-        <v>-539491.4813</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>12000</v>
       </c>
       <c r="G13" t="n">
-        <v>-539491.4813</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>118.5445</v>
       </c>
       <c r="G14" t="n">
-        <v>-539491.4813</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1158923.1401</v>
       </c>
       <c r="G15" t="n">
-        <v>-1698414.6214</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>65535.9892</v>
       </c>
       <c r="G16" t="n">
-        <v>-1698414.6214</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>167765.6537</v>
       </c>
       <c r="G17" t="n">
-        <v>-1698414.6214</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>364420.1581</v>
       </c>
       <c r="G18" t="n">
-        <v>-1698414.6214</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>322161.822</v>
       </c>
       <c r="G19" t="n">
-        <v>-1698414.6214</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,21 @@
         <v>354457.9313</v>
       </c>
       <c r="G20" t="n">
-        <v>-2052872.5527</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1019,19 @@
         <v>878787.9665</v>
       </c>
       <c r="G21" t="n">
-        <v>-2052872.5527</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1053,19 @@
         <v>42635.6856</v>
       </c>
       <c r="G22" t="n">
-        <v>-2052872.5527</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1087,21 @@
         <v>23794.6828</v>
       </c>
       <c r="G23" t="n">
-        <v>-2052872.5527</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>25.7</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1123,21 @@
         <v>66</v>
       </c>
       <c r="G24" t="n">
-        <v>-2052806.5527</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>25.7</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1159,21 @@
         <v>99</v>
       </c>
       <c r="G25" t="n">
-        <v>-2052806.5527</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1195,21 @@
         <v>165</v>
       </c>
       <c r="G26" t="n">
-        <v>-2052806.5527</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1231,21 @@
         <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>-2052806.5527</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1267,21 @@
         <v>337.5384</v>
       </c>
       <c r="G28" t="n">
-        <v>-2052469.0143</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1303,19 @@
         <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>-2052469.0143</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1337,19 @@
         <v>1679.395</v>
       </c>
       <c r="G30" t="n">
-        <v>-2052469.0143</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1371,19 @@
         <v>371.4957</v>
       </c>
       <c r="G31" t="n">
-        <v>-2052469.0143</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1405,19 @@
         <v>4800</v>
       </c>
       <c r="G32" t="n">
-        <v>-2047669.0143</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1439,19 @@
         <v>2100</v>
       </c>
       <c r="G33" t="n">
-        <v>-2045569.0143</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1473,19 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>-2045569.0143</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1507,19 @@
         <v>47211.1837</v>
       </c>
       <c r="G35" t="n">
-        <v>-1998357.8306</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1541,19 @@
         <v>942.2071</v>
       </c>
       <c r="G36" t="n">
-        <v>-1999300.0377</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1575,19 @@
         <v>942.2071</v>
       </c>
       <c r="G37" t="n">
-        <v>-2000242.2448</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1609,19 @@
         <v>19.0458</v>
       </c>
       <c r="G38" t="n">
-        <v>-2000223.199</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1643,19 @@
         <v>1000</v>
       </c>
       <c r="G39" t="n">
-        <v>-2000223.199</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1677,19 @@
         <v>12962.8349</v>
       </c>
       <c r="G40" t="n">
-        <v>-2000223.199</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1711,19 @@
         <v>1666.9517</v>
       </c>
       <c r="G41" t="n">
-        <v>-2000223.199</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1745,19 @@
         <v>8194.1785</v>
       </c>
       <c r="G42" t="n">
-        <v>-2008417.3775</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1779,21 @@
         <v>6600</v>
       </c>
       <c r="G43" t="n">
-        <v>-2008417.3775</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1815,19 @@
         <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>-2008417.3775</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1849,21 @@
         <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>-2008407.3775</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1885,19 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-2008407.3775</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1919,19 @@
         <v>18939.39393939394</v>
       </c>
       <c r="G47" t="n">
-        <v>-2008407.3775</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1953,19 @@
         <v>1697.1494</v>
       </c>
       <c r="G48" t="n">
-        <v>-2010104.5269</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1987,21 @@
         <v>6699.3713</v>
       </c>
       <c r="G49" t="n">
-        <v>-2010104.5269</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2023,21 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>-2010094.5269</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2059,21 @@
         <v>369.9027</v>
       </c>
       <c r="G51" t="n">
-        <v>-2010464.4296</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>26.3</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2095,21 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>-2010454.4296</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2131,19 @@
         <v>6529</v>
       </c>
       <c r="G53" t="n">
-        <v>-2016983.4296</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2165,19 @@
         <v>12</v>
       </c>
       <c r="G54" t="n">
-        <v>-2016971.4296</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2199,19 @@
         <v>5177.7212</v>
       </c>
       <c r="G55" t="n">
-        <v>-2022149.1508</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2233,19 @@
         <v>1447.7999</v>
       </c>
       <c r="G56" t="n">
-        <v>-2022149.1508</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2267,21 @@
         <v>320.0292</v>
       </c>
       <c r="G57" t="n">
-        <v>-2021829.1216</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2303,19 @@
         <v>10200</v>
       </c>
       <c r="G58" t="n">
-        <v>-2021829.1216</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2337,21 @@
         <v>2826.7979</v>
       </c>
       <c r="G59" t="n">
-        <v>-2024655.9195</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2373,19 @@
         <v>92995.0414</v>
       </c>
       <c r="G60" t="n">
-        <v>-1931660.8781</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2407,21 @@
         <v>7019</v>
       </c>
       <c r="G61" t="n">
-        <v>-1931660.8781</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2443,19 @@
         <v>7377.4427</v>
       </c>
       <c r="G62" t="n">
-        <v>-1931660.8781</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2477,19 @@
         <v>49449.2358</v>
       </c>
       <c r="G63" t="n">
-        <v>-1981110.1139</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2511,19 @@
         <v>7604.8484</v>
       </c>
       <c r="G64" t="n">
-        <v>-1988714.9623</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2545,19 @@
         <v>1657.1293</v>
       </c>
       <c r="G65" t="n">
-        <v>-1987057.833</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2579,21 @@
         <v>50837.2466</v>
       </c>
       <c r="G66" t="n">
-        <v>-1987057.833</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2615,21 @@
         <v>2579.6772</v>
       </c>
       <c r="G67" t="n">
-        <v>-1984478.1558</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2651,21 @@
         <v>266702.0166</v>
       </c>
       <c r="G68" t="n">
-        <v>-1984478.1558</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2687,21 @@
         <v>16913.0534</v>
       </c>
       <c r="G69" t="n">
-        <v>-1984478.1558</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,22 +2723,19 @@
         <v>16457.8467</v>
       </c>
       <c r="G70" t="n">
-        <v>-1984478.1558</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2729,26 +2757,19 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>-1984468.1558</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2770,24 +2791,19 @@
         <v>3772.1894</v>
       </c>
       <c r="G72" t="n">
-        <v>-1988240.3452</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2809,18 +2825,19 @@
         <v>6888.0424</v>
       </c>
       <c r="G73" t="n">
-        <v>-1988240.3452</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2842,18 +2859,21 @@
         <v>1289.9176</v>
       </c>
       <c r="G74" t="n">
-        <v>-1988240.3452</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2875,18 +2895,21 @@
         <v>4401.7891</v>
       </c>
       <c r="G75" t="n">
-        <v>-1988240.3452</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2908,22 +2931,19 @@
         <v>13988.0292</v>
       </c>
       <c r="G76" t="n">
-        <v>-2002228.3744</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2945,26 +2965,21 @@
         <v>7900</v>
       </c>
       <c r="G77" t="n">
-        <v>-2010128.3744</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>26.1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2986,26 +3001,19 @@
         <v>992.8325</v>
       </c>
       <c r="G78" t="n">
-        <v>-2009135.5419</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>26</v>
-      </c>
-      <c r="J78" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3027,22 +3035,19 @@
         <v>5762.4328</v>
       </c>
       <c r="G79" t="n">
-        <v>-2009135.5419</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3064,26 +3069,19 @@
         <v>3244.7347</v>
       </c>
       <c r="G80" t="n">
-        <v>-2009135.5419</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3105,26 +3103,19 @@
         <v>30472.2393</v>
       </c>
       <c r="G81" t="n">
-        <v>-2009135.5419</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3146,22 +3137,19 @@
         <v>3287.2598</v>
       </c>
       <c r="G82" t="n">
-        <v>-2009135.5419</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3183,26 +3171,19 @@
         <v>769.0613</v>
       </c>
       <c r="G83" t="n">
-        <v>-2009135.5419</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3224,26 +3205,19 @@
         <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>-2009125.5419</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3265,22 +3239,19 @@
         <v>132</v>
       </c>
       <c r="G85" t="n">
-        <v>-2009125.5419</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3302,24 +3273,19 @@
         <v>76.53870000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>-2009125.5419</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3341,24 +3307,19 @@
         <v>2212.4251</v>
       </c>
       <c r="G87" t="n">
-        <v>-2011337.967</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3380,18 +3341,19 @@
         <v>23361.1284</v>
       </c>
       <c r="G88" t="n">
-        <v>-1987976.8386</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3413,18 +3375,19 @@
         <v>7816</v>
       </c>
       <c r="G89" t="n">
-        <v>-1995792.8386</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3446,18 +3409,19 @@
         <v>3550.3458</v>
       </c>
       <c r="G90" t="n">
-        <v>-1992242.4928</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3479,18 +3443,19 @@
         <v>1570</v>
       </c>
       <c r="G91" t="n">
-        <v>-1992242.4928</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3512,18 +3477,19 @@
         <v>3657.5</v>
       </c>
       <c r="G92" t="n">
-        <v>-1992242.4928</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3545,18 +3511,19 @@
         <v>17200</v>
       </c>
       <c r="G93" t="n">
-        <v>-2009442.4928</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3578,22 +3545,19 @@
         <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>-2009431.4928</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3615,24 +3579,19 @@
         <v>46300</v>
       </c>
       <c r="G95" t="n">
-        <v>-2055731.4928</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3654,26 +3613,19 @@
         <v>845.2079</v>
       </c>
       <c r="G96" t="n">
-        <v>-2055731.4928</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J96" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3695,26 +3647,19 @@
         <v>482.0125</v>
       </c>
       <c r="G97" t="n">
-        <v>-2055731.4928</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3736,26 +3681,19 @@
         <v>12594.7547</v>
       </c>
       <c r="G98" t="n">
-        <v>-2068326.2475</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J98" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3777,26 +3715,19 @@
         <v>90484.5039</v>
       </c>
       <c r="G99" t="n">
-        <v>-2068326.2475</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3818,26 +3749,19 @@
         <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>-2068315.2475</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3859,26 +3783,19 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>-2068315.2475</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J101" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3900,24 +3817,19 @@
         <v>124742.29</v>
       </c>
       <c r="G102" t="n">
-        <v>-2068315.2475</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3939,24 +3851,19 @@
         <v>113920.477</v>
       </c>
       <c r="G103" t="n">
-        <v>-2068315.2475</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3978,24 +3885,19 @@
         <v>38</v>
       </c>
       <c r="G104" t="n">
-        <v>-2068277.2475</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4017,24 +3919,19 @@
         <v>81518.26489999999</v>
       </c>
       <c r="G105" t="n">
-        <v>-2149795.5124</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4056,26 +3953,19 @@
         <v>12</v>
       </c>
       <c r="G106" t="n">
-        <v>-2149783.5124</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J106" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4097,26 +3987,19 @@
         <v>9000</v>
       </c>
       <c r="G107" t="n">
-        <v>-2140783.5124</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J107" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4138,24 +4021,19 @@
         <v>258</v>
       </c>
       <c r="G108" t="n">
-        <v>-2140525.5124</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4177,24 +4055,19 @@
         <v>2605.5942</v>
       </c>
       <c r="G109" t="n">
-        <v>-2143131.1066</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4216,24 +4089,19 @@
         <v>43463.6553</v>
       </c>
       <c r="G110" t="n">
-        <v>-2143131.1066</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4255,24 +4123,19 @@
         <v>25269.8763</v>
       </c>
       <c r="G111" t="n">
-        <v>-2117861.2303</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4294,24 +4157,19 @@
         <v>3583.4942</v>
       </c>
       <c r="G112" t="n">
-        <v>-2117861.2303</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4333,24 +4191,19 @@
         <v>25176.3238</v>
       </c>
       <c r="G113" t="n">
-        <v>-2092684.9065</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4372,24 +4225,19 @@
         <v>12.456</v>
       </c>
       <c r="G114" t="n">
-        <v>-2092697.3625</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4411,24 +4259,19 @@
         <v>157674.7586</v>
       </c>
       <c r="G115" t="n">
-        <v>-2250372.1211</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4450,24 +4293,19 @@
         <v>333.867</v>
       </c>
       <c r="G116" t="n">
-        <v>-2250372.1211</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4489,26 +4327,19 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>-2250362.1211</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4530,24 +4361,19 @@
         <v>88032.87880000001</v>
       </c>
       <c r="G118" t="n">
-        <v>-2250362.1211</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4569,24 +4395,19 @@
         <v>27958.3091</v>
       </c>
       <c r="G119" t="n">
-        <v>-2278320.4302</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4608,24 +4429,19 @@
         <v>27958.309</v>
       </c>
       <c r="G120" t="n">
-        <v>-2278320.4302</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4647,26 +4463,19 @@
         <v>17555.8039</v>
       </c>
       <c r="G121" t="n">
-        <v>-2278320.4302</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J121" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4688,26 +4497,19 @@
         <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>-2278320.4302</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J122" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4729,26 +4531,19 @@
         <v>52567.4118</v>
       </c>
       <c r="G123" t="n">
-        <v>-2330887.842</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J123" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4770,26 +4565,19 @@
         <v>11804.5846</v>
       </c>
       <c r="G124" t="n">
-        <v>-2319083.2574</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>26</v>
-      </c>
-      <c r="J124" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4811,26 +4599,19 @@
         <v>10581.8345</v>
       </c>
       <c r="G125" t="n">
-        <v>-2319083.2574</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J125" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4852,26 +4633,19 @@
         <v>4168.7808</v>
       </c>
       <c r="G126" t="n">
-        <v>-2319083.2574</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J126" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4893,26 +4667,19 @@
         <v>12889.2372</v>
       </c>
       <c r="G127" t="n">
-        <v>-2319083.2574</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J127" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4934,26 +4701,19 @@
         <v>67979.9651</v>
       </c>
       <c r="G128" t="n">
-        <v>-2387063.2225</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J128" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4975,26 +4735,19 @@
         <v>7115.8695</v>
       </c>
       <c r="G129" t="n">
-        <v>-2379947.353</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J129" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5016,26 +4769,19 @@
         <v>33140.9999</v>
       </c>
       <c r="G130" t="n">
-        <v>-2379947.353</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J130" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5057,26 +4803,19 @@
         <v>270090.57</v>
       </c>
       <c r="G131" t="n">
-        <v>-2379947.353</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J131" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5098,26 +4837,19 @@
         <v>3823</v>
       </c>
       <c r="G132" t="n">
-        <v>-2383770.353</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J132" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5139,26 +4871,19 @@
         <v>9975.5</v>
       </c>
       <c r="G133" t="n">
-        <v>-2393745.853</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J133" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5180,26 +4905,19 @@
         <v>33945.879</v>
       </c>
       <c r="G134" t="n">
-        <v>-2359799.974</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J134" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5221,26 +4939,19 @@
         <v>19066.7553</v>
       </c>
       <c r="G135" t="n">
-        <v>-2378866.7293</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J135" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5262,26 +4973,19 @@
         <v>10227.6675</v>
       </c>
       <c r="G136" t="n">
-        <v>-2368639.0618</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5303,26 +5007,19 @@
         <v>27431</v>
       </c>
       <c r="G137" t="n">
-        <v>-2396070.0618</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J137" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5344,26 +5041,19 @@
         <v>5543</v>
       </c>
       <c r="G138" t="n">
-        <v>-2390527.0618</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>26</v>
-      </c>
-      <c r="J138" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5385,26 +5075,19 @@
         <v>16870.7708</v>
       </c>
       <c r="G139" t="n">
-        <v>-2407397.8326</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J139" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,26 +5109,19 @@
         <v>11127.222</v>
       </c>
       <c r="G140" t="n">
-        <v>-2396270.6106</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>26</v>
-      </c>
-      <c r="J140" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5467,26 +5143,19 @@
         <v>9000</v>
       </c>
       <c r="G141" t="n">
-        <v>-2396270.6106</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J141" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5508,26 +5177,19 @@
         <v>32131.8581</v>
       </c>
       <c r="G142" t="n">
-        <v>-2396270.6106</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J142" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5549,26 +5211,19 @@
         <v>20164.3474</v>
       </c>
       <c r="G143" t="n">
-        <v>-2416434.958</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J143" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5590,26 +5245,19 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>-2416424.958</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>26</v>
-      </c>
-      <c r="J144" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5631,26 +5279,19 @@
         <v>14415.601</v>
       </c>
       <c r="G145" t="n">
-        <v>-2416424.958</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J145" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5672,26 +5313,19 @@
         <v>1853.4351</v>
       </c>
       <c r="G146" t="n">
-        <v>-2416424.958</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J146" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5713,26 +5347,19 @@
         <v>2319</v>
       </c>
       <c r="G147" t="n">
-        <v>-2416424.958</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J147" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5754,26 +5381,19 @@
         <v>18702.5995</v>
       </c>
       <c r="G148" t="n">
-        <v>-2416424.958</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J148" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5795,26 +5415,19 @@
         <v>5984.2766</v>
       </c>
       <c r="G149" t="n">
-        <v>-2416424.958</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J149" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5836,26 +5449,19 @@
         <v>10800</v>
       </c>
       <c r="G150" t="n">
-        <v>-2405624.958</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J150" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5877,26 +5483,19 @@
         <v>11733.057</v>
       </c>
       <c r="G151" t="n">
-        <v>-2405624.958</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J151" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5918,26 +5517,19 @@
         <v>120730.1447</v>
       </c>
       <c r="G152" t="n">
-        <v>-2284894.8133</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J152" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5959,26 +5551,19 @@
         <v>132168.6644</v>
       </c>
       <c r="G153" t="n">
-        <v>-2152726.148899999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J153" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6000,26 +5585,19 @@
         <v>26149.6506</v>
       </c>
       <c r="G154" t="n">
-        <v>-2152726.148899999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J154" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6041,24 +5619,19 @@
         <v>21942.4207</v>
       </c>
       <c r="G155" t="n">
-        <v>-2130783.728199999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6080,24 +5653,19 @@
         <v>93202.1786</v>
       </c>
       <c r="G156" t="n">
-        <v>-2037581.549599999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6119,24 +5687,19 @@
         <v>93328.1542</v>
       </c>
       <c r="G157" t="n">
-        <v>-1944253.395399999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6158,24 +5721,19 @@
         <v>1000</v>
       </c>
       <c r="G158" t="n">
-        <v>-1943253.395399999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6197,24 +5755,19 @@
         <v>24446.7444</v>
       </c>
       <c r="G159" t="n">
-        <v>-1943253.395399999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6236,24 +5789,19 @@
         <v>10626</v>
       </c>
       <c r="G160" t="n">
-        <v>-1932627.395399999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6275,24 +5823,19 @@
         <v>14041.0763</v>
       </c>
       <c r="G161" t="n">
-        <v>-1932627.395399999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6314,24 +5857,19 @@
         <v>1000</v>
       </c>
       <c r="G162" t="n">
-        <v>-1932627.395399999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6353,24 +5891,19 @@
         <v>4439.5668</v>
       </c>
       <c r="G163" t="n">
-        <v>-1928187.828599999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6392,24 +5925,19 @@
         <v>699.3454</v>
       </c>
       <c r="G164" t="n">
-        <v>-1928187.828599999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6431,24 +5959,19 @@
         <v>174803.4438</v>
       </c>
       <c r="G165" t="n">
-        <v>-1928187.828599999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6470,24 +5993,19 @@
         <v>24.779</v>
       </c>
       <c r="G166" t="n">
-        <v>-1928187.828599999</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6509,24 +6027,19 @@
         <v>125264.8699</v>
       </c>
       <c r="G167" t="n">
-        <v>-2053452.698499999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6548,24 +6061,19 @@
         <v>11</v>
       </c>
       <c r="G168" t="n">
-        <v>-2053441.698499999</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6587,24 +6095,19 @@
         <v>29100</v>
       </c>
       <c r="G169" t="n">
-        <v>-2024341.698499999</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6626,24 +6129,19 @@
         <v>6154.7007</v>
       </c>
       <c r="G170" t="n">
-        <v>-2024341.698499999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6665,24 +6163,19 @@
         <v>8900</v>
       </c>
       <c r="G171" t="n">
-        <v>-2024341.698499999</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6704,24 +6197,19 @@
         <v>6132.4742</v>
       </c>
       <c r="G172" t="n">
-        <v>-2024341.698499999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6743,24 +6231,19 @@
         <v>48791.6762</v>
       </c>
       <c r="G173" t="n">
-        <v>-2073133.3747</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6782,24 +6265,19 @@
         <v>64070.0505</v>
       </c>
       <c r="G174" t="n">
-        <v>-2009063.3242</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6821,24 +6299,19 @@
         <v>27765.6738</v>
       </c>
       <c r="G175" t="n">
-        <v>-2009063.3242</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6860,24 +6333,17 @@
         <v>13347.7712</v>
       </c>
       <c r="G176" t="n">
-        <v>-2009063.3242</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6899,26 +6365,15 @@
         <v>66993.10460000001</v>
       </c>
       <c r="G177" t="n">
-        <v>-1942070.2196</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1.06449806949807</v>
-      </c>
-      <c r="M177" t="n">
-        <v>1.035294117647059</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6940,18 +6395,15 @@
         <v>9464.0568</v>
       </c>
       <c r="G178" t="n">
-        <v>-1932606.1628</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6973,18 +6425,15 @@
         <v>2232.6508</v>
       </c>
       <c r="G179" t="n">
-        <v>-1932606.1628</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7006,18 +6455,15 @@
         <v>18000</v>
       </c>
       <c r="G180" t="n">
-        <v>-1950606.1628</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7039,18 +6485,15 @@
         <v>3779.5379</v>
       </c>
       <c r="G181" t="n">
-        <v>-1946826.6249</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7072,18 +6515,15 @@
         <v>2547.5543</v>
       </c>
       <c r="G182" t="n">
-        <v>-1946826.6249</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7105,18 +6545,15 @@
         <v>100</v>
       </c>
       <c r="G183" t="n">
-        <v>-1946826.6249</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7138,18 +6575,15 @@
         <v>1562.7479</v>
       </c>
       <c r="G184" t="n">
-        <v>-1948389.3728</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7171,18 +6605,15 @@
         <v>2196.936517090909</v>
       </c>
       <c r="G185" t="n">
-        <v>-1948389.3728</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7204,18 +6635,15 @@
         <v>10673.3906</v>
       </c>
       <c r="G186" t="n">
-        <v>-1948389.3728</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7237,18 +6665,15 @@
         <v>9049.4818</v>
       </c>
       <c r="G187" t="n">
-        <v>-1939339.891</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7270,18 +6695,15 @@
         <v>631</v>
       </c>
       <c r="G188" t="n">
-        <v>-1939970.891</v>
-      </c>
-      <c r="H188" t="n">
         <v>2</v>
       </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7303,18 +6725,15 @@
         <v>58373.1356</v>
       </c>
       <c r="G189" t="n">
-        <v>-1881597.7554</v>
-      </c>
-      <c r="H189" t="n">
         <v>2</v>
       </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7336,18 +6755,15 @@
         <v>146300.3623</v>
       </c>
       <c r="G190" t="n">
-        <v>-1881597.7554</v>
-      </c>
-      <c r="H190" t="n">
         <v>2</v>
       </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7369,18 +6785,15 @@
         <v>2010</v>
       </c>
       <c r="G191" t="n">
-        <v>-1883607.7554</v>
-      </c>
-      <c r="H191" t="n">
         <v>2</v>
       </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7402,18 +6815,15 @@
         <v>67160.1375</v>
       </c>
       <c r="G192" t="n">
-        <v>-1816447.6179</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7435,18 +6845,15 @@
         <v>6806.0581</v>
       </c>
       <c r="G193" t="n">
-        <v>-1816447.6179</v>
-      </c>
-      <c r="H193" t="n">
         <v>2</v>
       </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7468,18 +6875,15 @@
         <v>20436</v>
       </c>
       <c r="G194" t="n">
-        <v>-1796011.6179</v>
-      </c>
-      <c r="H194" t="n">
         <v>2</v>
       </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7501,18 +6905,15 @@
         <v>849.7851000000001</v>
       </c>
       <c r="G195" t="n">
-        <v>-1796861.403</v>
-      </c>
-      <c r="H195" t="n">
         <v>2</v>
       </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7534,18 +6935,15 @@
         <v>26877.8057</v>
       </c>
       <c r="G196" t="n">
-        <v>-1769983.5973</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7567,18 +6965,15 @@
         <v>7241.0071</v>
       </c>
       <c r="G197" t="n">
-        <v>-1769983.5973</v>
-      </c>
-      <c r="H197" t="n">
         <v>2</v>
       </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7600,18 +6995,15 @@
         <v>903.0546000000001</v>
       </c>
       <c r="G198" t="n">
-        <v>-1770886.6519</v>
-      </c>
-      <c r="H198" t="n">
         <v>2</v>
       </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7633,18 +7025,15 @@
         <v>18004.5255</v>
       </c>
       <c r="G199" t="n">
-        <v>-1788891.1774</v>
-      </c>
-      <c r="H199" t="n">
         <v>2</v>
       </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7666,18 +7055,15 @@
         <v>17000</v>
       </c>
       <c r="G200" t="n">
-        <v>-1788891.1774</v>
-      </c>
-      <c r="H200" t="n">
         <v>2</v>
       </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7699,18 +7085,15 @@
         <v>93069.4918</v>
       </c>
       <c r="G201" t="n">
-        <v>-1881960.6692</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7732,18 +7115,15 @@
         <v>20660.5077</v>
       </c>
       <c r="G202" t="n">
-        <v>-1881960.6692</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7765,18 +7145,15 @@
         <v>269368.6388</v>
       </c>
       <c r="G203" t="n">
-        <v>-1612592.0304</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7798,18 +7175,15 @@
         <v>3767</v>
       </c>
       <c r="G204" t="n">
-        <v>-1616359.0304</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7831,18 +7205,15 @@
         <v>18249.8813</v>
       </c>
       <c r="G205" t="n">
-        <v>-1598109.1491</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7864,18 +7235,15 @@
         <v>3611.1111</v>
       </c>
       <c r="G206" t="n">
-        <v>-1598109.1491</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7897,18 +7265,15 @@
         <v>28054.6875</v>
       </c>
       <c r="G207" t="n">
-        <v>-1626163.8366</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7930,18 +7295,15 @@
         <v>1111.7205</v>
       </c>
       <c r="G208" t="n">
-        <v>-1626163.8366</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7963,18 +7325,15 @@
         <v>28054.6875</v>
       </c>
       <c r="G209" t="n">
-        <v>-1626163.8366</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7996,18 +7355,15 @@
         <v>623.0228</v>
       </c>
       <c r="G210" t="n">
-        <v>-1625540.8138</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8029,18 +7385,15 @@
         <v>689.1529</v>
       </c>
       <c r="G211" t="n">
-        <v>-1626229.9667</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8062,18 +7415,15 @@
         <v>3133.0798</v>
       </c>
       <c r="G212" t="n">
-        <v>-1623096.8869</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
